--- a/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
+++ b/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\DAPRE\CDI-Apartadó\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B9C78-C7EC-44FF-AB11-E81ECA7103C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8DFB3-CC44-4C37-A134-D735F9E3EAEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FORMULACION!$A$2:$Q$1199</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MínimosRequeridos!$A$30:$K$273</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">MínimosRequeridos!$A$1:$J$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MínimosRequeridos!$A$30:$J$273</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">MínimosRequeridos!$A$1:$I$271</definedName>
     <definedName name="Clima">#REF!</definedName>
     <definedName name="Regional" localSheetId="2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8174" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8292" uniqueCount="689">
   <si>
     <t>N°</t>
   </si>
@@ -2131,9 +2131,6 @@
     <t>TOTAL ELEMENTOS</t>
   </si>
   <si>
-    <t>Pendientes por adquirir</t>
-  </si>
-  <si>
     <t>Total elementos adquiridos</t>
   </si>
   <si>
@@ -2152,18 +2149,73 @@
     <t>Suma de En ICBF Mosquera</t>
   </si>
   <si>
-    <t>Suma de Pendientes por adquirir</t>
+    <t>Adquirido Dapre - Grandes Superficies</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar</t>
+  </si>
+  <si>
+    <t>Lo debe entregar el contratista de obra</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Material de Intendencia</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Elementos para emergencias</t>
+  </si>
+  <si>
+    <t>Contrato 166-17, Urania - Dapre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OBSERVACIONES DE DAPRE</t>
+  </si>
+  <si>
+    <t>Se sugiere la compra de 26 canecas para que corresponden a la cantidad de baterías sanitarias de la infraestructura.</t>
+  </si>
+  <si>
+    <t>Debido al apilamiento de las bacinillas, se sugiere que sean sólo 20.</t>
+  </si>
+  <si>
+    <t>Cantidad mínima pendiente por adquirir</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - Grandes Superficies. Dapre aquirió 6,  a través de Fundación Plan en el marco del convenio 007/16 se comprarán 2 unidades adicionales.</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar: 8 unidades</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 77 mesas para aulas de tres puestos, pendiente adquirir 20 unidades adicionales.
+Se deben adquirir de las mismas características de las compradas por DAPRE.
+Pendiente adquirir 35 mesas adicionales para comedor de cuatro puestos.</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 231 sillas para aulas, pendiente adquirir 60 unidades, se deben adquirir de la mismas características de las compradas por el DAPRE. Plan también debe adquirir 150 sillas para comedor.</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 3, Plan comprará 1</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 2, Plan comprará 10</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Elementos para emergencias . Metros de área construida 2028</t>
+  </si>
+  <si>
+    <t>El profesional de la Consejería  Presidencial para la Primera Infancia que hizo el acompañamiento del proyecto y que conoce las estufas industriales que el contratista de obra instaló afirma que para este proyecto NO SE REQUIERE ESTUFA ENANA DE 1 PUESTO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,8 +2385,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2500,6 +2584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,10 +2910,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3117,9 +3208,6 @@
     <xf numFmtId="0" fontId="23" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="22" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3152,9 +3240,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3199,123 +3284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3371,6 +3339,15 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3380,11 +3357,178 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3564,8 +3708,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Paula  Andrea Ospina Patino" id="{8F3289FC-9174-4A3D-81F1-F1287C85E986}" userId="Paula  Andrea Ospina Patino" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43480.708284490742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="241" xr:uid="{F7CDCFFC-FBC5-4560-B771-145B9D2D715A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43481.670332060188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="241" xr:uid="{F7CDCFFC-FBC5-4560-B771-145B9D2D715A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C30:I271" sheet="MínimosRequeridos"/>
   </cacheSource>
@@ -3597,8 +3747,8 @@
     <cacheField name="En ICBF Mosquera" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
     </cacheField>
-    <cacheField name="Pendientes por adquirir" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+    <cacheField name="Cantidad mínima pendiente por adquirir" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="300"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3627,7 +3777,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3636,7 +3786,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3645,7 +3795,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3654,7 +3804,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
@@ -3690,7 +3840,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3699,7 +3849,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3708,7 +3858,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3717,7 +3867,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3726,7 +3876,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3744,7 +3894,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3805,7 +3955,7 @@
     <s v="SI"/>
     <s v="CUCHARA PARA POSTRE EN ACERO INOXIDABLE PARA NIÑOS "/>
     <n v="80"/>
-    <n v="84"/>
+    <n v="82"/>
     <m/>
     <m/>
   </r>
@@ -3816,7 +3966,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3834,7 +3984,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3852,16 +4002,16 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
     <s v="SI"/>
     <s v="ESTUFA INDUSTRIAL 6 PUESTO, PLANCHA Y HORNO A GAS "/>
     <n v="1"/>
+    <n v="1"/>
     <m/>
     <m/>
-    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -3870,7 +4020,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3888,7 +4038,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3897,7 +4047,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3906,7 +4056,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3933,7 +4083,7 @@
     <n v="1"/>
     <m/>
     <n v="1"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3942,7 +4092,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3951,7 +4101,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3969,7 +4119,7 @@
     <n v="2"/>
     <m/>
     <n v="2"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -3987,7 +4137,7 @@
     <n v="4"/>
     <n v="4"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4050,7 +4200,7 @@
     <n v="4"/>
     <n v="4"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4167,7 +4317,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4194,7 +4344,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4221,7 +4371,7 @@
     <n v="5"/>
     <n v="5"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -4275,7 +4425,7 @@
     <n v="6"/>
     <n v="6"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -4284,7 +4434,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -4302,7 +4452,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -4320,7 +4470,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4338,7 +4488,7 @@
     <n v="280"/>
     <n v="280"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4356,7 +4506,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4365,7 +4515,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4383,7 +4533,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4392,7 +4542,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4401,7 +4551,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4410,7 +4560,7 @@
     <n v="560"/>
     <n v="560"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -4455,7 +4605,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4482,7 +4632,7 @@
     <n v="17"/>
     <m/>
     <n v="17"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4509,7 +4659,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4527,7 +4677,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4536,16 +4686,16 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
     <s v="SI"/>
     <s v="MESA DE TRABAJO EN ACERO INOXIDABLE"/>
     <n v="3"/>
+    <n v="3"/>
     <m/>
     <m/>
-    <n v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -4554,7 +4704,7 @@
     <n v="5"/>
     <n v="5"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4572,7 +4722,7 @@
     <n v="10"/>
     <n v="10"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4626,7 +4776,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4635,7 +4785,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4653,7 +4803,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4662,7 +4812,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4671,7 +4821,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
@@ -4698,7 +4848,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4707,7 +4857,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4716,7 +4866,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4725,7 +4875,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4752,7 +4902,7 @@
     <n v="3"/>
     <n v="3"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4761,7 +4911,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
@@ -4770,7 +4920,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4788,7 +4938,7 @@
     <n v="16"/>
     <m/>
     <n v="16"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4806,7 +4956,7 @@
     <n v="17"/>
     <n v="17"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4851,7 +5001,7 @@
     <n v="17"/>
     <n v="17"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4905,7 +5055,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4914,7 +5064,7 @@
     <n v="17"/>
     <n v="17"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4923,7 +5073,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4941,7 +5091,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -4995,7 +5145,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5013,7 +5163,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5022,16 +5172,16 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
     <s v="SI"/>
     <s v="PARQUE INFANTIL TIPO B"/>
     <n v="1"/>
+    <n v="1"/>
     <m/>
     <m/>
-    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
@@ -5040,7 +5190,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5058,7 +5208,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5067,7 +5217,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5076,7 +5226,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5085,7 +5235,7 @@
     <n v="10"/>
     <n v="10"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5112,7 +5262,7 @@
     <n v="4"/>
     <n v="4"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5121,7 +5271,7 @@
     <n v="4"/>
     <n v="4"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5147,8 +5297,8 @@
     <s v="TAPETE PARA EJERCICIOS TIPO PUZZLE"/>
     <n v="13"/>
     <m/>
+    <n v="17"/>
     <m/>
-    <n v="13"/>
   </r>
   <r>
     <x v="7"/>
@@ -5166,7 +5316,7 @@
     <n v="24"/>
     <n v="16"/>
     <n v="8"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5229,7 +5379,7 @@
     <n v="24"/>
     <n v="16"/>
     <n v="8"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5337,7 +5487,7 @@
     <n v="24"/>
     <n v="16"/>
     <n v="8"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5418,7 +5568,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5625,7 +5775,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5652,7 +5802,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5661,7 +5811,7 @@
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5688,7 +5838,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5697,7 +5847,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5706,7 +5856,7 @@
     <n v="32"/>
     <n v="32"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5715,7 +5865,7 @@
     <n v="32"/>
     <n v="32"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5724,7 +5874,7 @@
     <n v="32"/>
     <n v="32"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5733,7 +5883,7 @@
     <n v="16"/>
     <n v="16"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5742,7 +5892,7 @@
     <n v="16"/>
     <n v="16"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5760,7 +5910,7 @@
     <n v="16"/>
     <n v="16"/>
     <m/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
@@ -5784,8 +5934,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
@@ -5805,7 +5955,7 @@
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -5842,21 +5992,17 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="2">
     <dataField name="Suma de Adquiridos por DAPRE" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Suma de En ICBF Mosquera" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pendientes por adquirir" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6161,25 +6307,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="124" t="s">
         <v>485</v>
       </c>
       <c r="H1" s="53"/>
@@ -6201,18 +6347,18 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6231,25 +6377,25 @@
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="122" t="s">
+      <c r="O2" s="120" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="120"/>
+      <c r="Q2" s="118"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="128"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="126"/>
       <c r="H3" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -6274,13 +6420,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q3" s="121"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -57757,10 +57903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAC66D5-39C2-4928-BD78-9AFAD5EC1B7A}">
-  <dimension ref="A3:D12"/>
+  <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57771,134 +57917,104 @@
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" t="s">
         <v>669</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>670</v>
       </c>
-      <c r="C3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="116">
         <v>11</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="C4" s="116"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="118">
-        <v>115</v>
-      </c>
-      <c r="C5" s="118">
+      <c r="B5" s="116">
+        <v>114</v>
+      </c>
+      <c r="C5" s="116">
         <v>3</v>
       </c>
-      <c r="D5" s="118">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="116">
         <v>12</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="C7" s="116"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="116">
         <v>899</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <v>10</v>
       </c>
-      <c r="D8" s="118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="118">
-        <v>691</v>
-      </c>
-      <c r="C9" s="118">
-        <v>40</v>
-      </c>
-      <c r="D9" s="118">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="117" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="116">
+        <v>692</v>
+      </c>
+      <c r="C9" s="116">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="118">
-        <v>349</v>
-      </c>
-      <c r="C10" s="118">
+      <c r="B10" s="116">
+        <v>352</v>
+      </c>
+      <c r="C10" s="116">
         <v>17</v>
       </c>
-      <c r="D10" s="118">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="116">
         <v>24</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
-        <v>668</v>
-      </c>
-      <c r="B12" s="118">
-        <v>2101</v>
-      </c>
-      <c r="C12" s="118">
-        <v>70</v>
-      </c>
-      <c r="D12" s="118">
-        <v>2013</v>
+      <c r="C11" s="116"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
+        <v>667</v>
+      </c>
+      <c r="B12" s="116">
+        <v>2104</v>
+      </c>
+      <c r="C12" s="116">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -57912,10 +58028,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K278"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -57929,10 +58045,11 @@
     <col min="7" max="7" width="14.140625" style="42" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="42" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="42"/>
+    <col min="10" max="10" width="41.85546875" style="188" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -57940,340 +58057,355 @@
       <c r="E1" s="47"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="128" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="171" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-    </row>
-    <row r="4" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="134" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="152" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="174" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168">
+      <c r="B8" s="175"/>
+      <c r="C8" s="176">
         <f ca="1">TODAY()</f>
-        <v>43480</v>
-      </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
+        <v>43481</v>
+      </c>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="179" t="s">
         <v>649</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="132" t="s">
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="179" t="s">
         <v>491</v>
       </c>
-      <c r="F9" s="133"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
+      <c r="F9" s="180"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="179"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160" t="s">
+      <c r="F10" s="138"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="146" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="91" t="s">
         <v>657</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="181"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="187" t="s">
+      <c r="F11" s="140"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="149" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="189"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="181"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160" t="s">
+      <c r="F12" s="140"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="181"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="157" t="s">
+      <c r="F13" s="140"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="168" t="s">
         <v>648</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
       <c r="D14" s="92" t="s">
         <v>656</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="E14" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="183"/>
-    </row>
-    <row r="15" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160" t="s">
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="181"/>
-    </row>
-    <row r="16" spans="1:6" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160" t="s">
+      <c r="F15" s="140"/>
+      <c r="J15" s="189"/>
+    </row>
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="91">
         <v>2028</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="181"/>
-    </row>
-    <row r="17" spans="1:11" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="F16" s="140"/>
+      <c r="J16" s="189"/>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="171" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="93">
         <v>1690</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="177"/>
-    </row>
-    <row r="18" spans="1:11" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152" t="s">
+      <c r="F17" s="136"/>
+      <c r="J17" s="189"/>
+    </row>
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
         <v>652</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-    </row>
-    <row r="19" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="J18" s="189"/>
+    </row>
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="153" t="s">
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="154"/>
-    </row>
-    <row r="20" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138" t="s">
+      <c r="F19" s="165"/>
+      <c r="J19" s="189"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="155">
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="166">
         <v>47</v>
       </c>
-      <c r="F20" s="156"/>
-    </row>
-    <row r="21" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="138" t="s">
+      <c r="F20" s="167"/>
+      <c r="J20" s="189"/>
+    </row>
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144">
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="156">
         <v>725</v>
       </c>
-      <c r="F21" s="145"/>
-    </row>
-    <row r="22" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="138" t="s">
+      <c r="F21" s="157"/>
+      <c r="J21" s="189"/>
+    </row>
+    <row r="22" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="161" t="s">
         <v>654</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="144">
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="156">
         <v>4</v>
       </c>
-      <c r="F22" s="145"/>
-    </row>
-    <row r="23" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="138" t="s">
+      <c r="F22" s="157"/>
+      <c r="J22" s="189"/>
+    </row>
+    <row r="23" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="144">
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="156">
         <v>30</v>
       </c>
-      <c r="F23" s="145"/>
-    </row>
-    <row r="24" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="138" t="s">
+      <c r="F23" s="157"/>
+      <c r="J23" s="189"/>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="161" t="s">
         <v>659</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="144">
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="156">
         <v>883</v>
       </c>
-      <c r="F24" s="145"/>
-    </row>
-    <row r="25" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="138" t="s">
+      <c r="F24" s="157"/>
+      <c r="J24" s="189"/>
+    </row>
+    <row r="25" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="161" t="s">
         <v>655</v>
       </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="144">
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="156">
         <v>1285</v>
       </c>
-      <c r="F25" s="145"/>
-    </row>
-    <row r="26" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="138" t="s">
+      <c r="F25" s="157"/>
+      <c r="J25" s="189"/>
+    </row>
+    <row r="26" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="144">
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="156">
         <v>1048</v>
       </c>
-      <c r="F26" s="145"/>
-    </row>
-    <row r="27" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="F26" s="157"/>
+      <c r="J26" s="189"/>
+    </row>
+    <row r="27" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="144">
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="156">
         <v>28</v>
       </c>
-      <c r="F27" s="145"/>
-    </row>
-    <row r="28" spans="1:11" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="F27" s="157"/>
+      <c r="J27" s="189"/>
+    </row>
+    <row r="28" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="150">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="158">
         <v>4050</v>
       </c>
-      <c r="F28" s="151"/>
-    </row>
-    <row r="29" spans="1:11" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="F28" s="159"/>
+      <c r="J28" s="189"/>
+    </row>
+    <row r="29" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="177" t="s">
         <v>653</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="J29" s="189"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
         <v>494</v>
       </c>
@@ -58299,11 +58431,13 @@
         <v>661</v>
       </c>
       <c r="I30" s="100" t="s">
-        <v>665</v>
-      </c>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="J30" s="190" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>1</v>
       </c>
@@ -58319,18 +58453,18 @@
       <c r="E31" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="F31" s="102">
+      <c r="F31" s="101">
         <v>3</v>
       </c>
-      <c r="G31" s="115"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="96"/>
-      <c r="I31" s="101">
-        <f t="shared" ref="I31:I51" si="0">F31-(G31+H31)</f>
+      <c r="I31" s="196">
+        <f>F31-(G31+H31)</f>
         <v>3</v>
       </c>
-      <c r="K31" s="43"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J31" s="191"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
         <v>2</v>
       </c>
@@ -58346,20 +58480,19 @@
       <c r="E32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="101">
         <v>3</v>
       </c>
-      <c r="G32" s="115">
+      <c r="G32" s="113">
         <v>3</v>
       </c>
       <c r="H32" s="96"/>
-      <c r="I32" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="43"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="196"/>
+      <c r="J32" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="45">
         <v>3</v>
       </c>
@@ -58375,20 +58508,19 @@
       <c r="E33" s="68" t="s">
         <v>479</v>
       </c>
-      <c r="F33" s="102">
+      <c r="F33" s="101">
         <v>2</v>
       </c>
-      <c r="G33" s="115">
+      <c r="G33" s="113">
         <v>2</v>
       </c>
       <c r="H33" s="96"/>
-      <c r="I33" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="43"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="196"/>
+      <c r="J33" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>4</v>
       </c>
@@ -58404,20 +58536,19 @@
       <c r="E34" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="101">
         <v>2</v>
       </c>
-      <c r="G34" s="115">
+      <c r="G34" s="113">
         <v>2</v>
       </c>
       <c r="H34" s="96"/>
-      <c r="I34" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="196"/>
+      <c r="J34" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="45">
         <v>5</v>
       </c>
@@ -58433,20 +58564,19 @@
       <c r="E35" s="68" t="s">
         <v>484</v>
       </c>
-      <c r="F35" s="102">
+      <c r="F35" s="101">
         <v>2</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="113">
         <v>2</v>
       </c>
       <c r="H35" s="96"/>
-      <c r="I35" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="196"/>
+      <c r="J35" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>6</v>
       </c>
@@ -58462,18 +58592,20 @@
       <c r="E36" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="101">
         <v>15</v>
       </c>
-      <c r="G36" s="115"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="96"/>
-      <c r="I36" s="101">
-        <f t="shared" si="0"/>
+      <c r="I36" s="196">
+        <f t="shared" ref="I36:I51" si="0">F36-(G36+H36)</f>
         <v>15</v>
       </c>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J36" s="197" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>7</v>
       </c>
@@ -58489,18 +58621,18 @@
       <c r="E37" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="F37" s="102">
+      <c r="F37" s="101">
         <v>17</v>
       </c>
-      <c r="G37" s="115"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="96"/>
-      <c r="I37" s="101">
+      <c r="I37" s="196">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J37" s="191"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>8</v>
       </c>
@@ -58516,18 +58648,18 @@
       <c r="E38" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="F38" s="102">
+      <c r="F38" s="101">
         <v>1</v>
       </c>
-      <c r="G38" s="115"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="96"/>
-      <c r="I38" s="101">
+      <c r="I38" s="196">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K38" s="43"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J38" s="191"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="45">
         <v>9</v>
       </c>
@@ -58543,20 +58675,19 @@
       <c r="E39" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="F39" s="102">
+      <c r="F39" s="101">
         <v>2</v>
       </c>
-      <c r="G39" s="115">
+      <c r="G39" s="113">
         <v>2</v>
       </c>
       <c r="H39" s="96"/>
-      <c r="I39" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="43"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="196"/>
+      <c r="J39" s="191" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>10</v>
       </c>
@@ -58572,20 +58703,19 @@
       <c r="E40" s="70" t="s">
         <v>632</v>
       </c>
-      <c r="F40" s="103">
+      <c r="F40" s="102">
         <v>2</v>
       </c>
-      <c r="G40" s="115">
+      <c r="G40" s="113">
         <v>2</v>
       </c>
       <c r="H40" s="96"/>
-      <c r="I40" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="43"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="196"/>
+      <c r="J40" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="45">
         <v>11</v>
       </c>
@@ -58601,19 +58731,19 @@
       <c r="E41" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="103">
+      <c r="F41" s="102">
         <v>2</v>
       </c>
-      <c r="G41" s="115">
+      <c r="G41" s="113">
         <v>2</v>
       </c>
       <c r="H41" s="96"/>
-      <c r="I41" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="196"/>
+      <c r="J41" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>12</v>
       </c>
@@ -58629,19 +58759,19 @@
       <c r="E42" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="103">
+      <c r="F42" s="102">
         <v>2</v>
       </c>
-      <c r="G42" s="115">
+      <c r="G42" s="113">
         <v>2</v>
       </c>
       <c r="H42" s="96"/>
-      <c r="I42" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="196"/>
+      <c r="J42" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>13</v>
       </c>
@@ -58657,19 +58787,17 @@
       <c r="E43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="103">
+      <c r="F43" s="102">
         <v>1</v>
       </c>
-      <c r="G43" s="115">
+      <c r="G43" s="113">
         <v>1</v>
       </c>
       <c r="H43" s="96"/>
-      <c r="I43" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="196"/>
+      <c r="J43" s="191"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>14</v>
       </c>
@@ -58685,17 +58813,18 @@
       <c r="E44" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="102">
         <v>2</v>
       </c>
-      <c r="G44" s="115"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="96"/>
-      <c r="I44" s="101">
+      <c r="I44" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J44" s="191"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
         <v>15</v>
       </c>
@@ -58711,19 +58840,19 @@
       <c r="E45" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="102">
         <v>2</v>
       </c>
-      <c r="G45" s="115">
+      <c r="G45" s="113">
         <v>2</v>
       </c>
       <c r="H45" s="96"/>
-      <c r="I45" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="196"/>
+      <c r="J45" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>16</v>
       </c>
@@ -58739,17 +58868,18 @@
       <c r="E46" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="102">
         <v>2</v>
       </c>
-      <c r="G46" s="115"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="96"/>
-      <c r="I46" s="101">
+      <c r="I46" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="191"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>17</v>
       </c>
@@ -58765,17 +58895,18 @@
       <c r="E47" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="103">
+      <c r="F47" s="102">
         <v>2</v>
       </c>
-      <c r="G47" s="115"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="96"/>
-      <c r="I47" s="101">
+      <c r="I47" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="191"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>18</v>
       </c>
@@ -58791,17 +58922,18 @@
       <c r="E48" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="F48" s="103">
+      <c r="F48" s="102">
         <v>2</v>
       </c>
-      <c r="G48" s="115"/>
+      <c r="G48" s="113"/>
       <c r="H48" s="96"/>
-      <c r="I48" s="101">
+      <c r="I48" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="191"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>19</v>
       </c>
@@ -58817,17 +58949,18 @@
       <c r="E49" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="103">
+      <c r="F49" s="102">
         <v>2</v>
       </c>
-      <c r="G49" s="115"/>
+      <c r="G49" s="113"/>
       <c r="H49" s="96"/>
-      <c r="I49" s="101">
+      <c r="I49" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="191"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>20</v>
       </c>
@@ -58843,17 +58976,18 @@
       <c r="E50" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="F50" s="103">
+      <c r="F50" s="102">
         <v>2</v>
       </c>
-      <c r="G50" s="115"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="96"/>
-      <c r="I50" s="101">
+      <c r="I50" s="196">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="191"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>21</v>
       </c>
@@ -58869,17 +59003,18 @@
       <c r="E51" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="F51" s="103">
+      <c r="F51" s="102">
         <v>220</v>
       </c>
-      <c r="G51" s="115"/>
+      <c r="G51" s="113"/>
       <c r="H51" s="96"/>
-      <c r="I51" s="101">
+      <c r="I51" s="196">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="191"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>22</v>
       </c>
@@ -58895,16 +59030,19 @@
       <c r="E52" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="F52" s="103">
+      <c r="F52" s="102">
         <v>80</v>
       </c>
-      <c r="G52" s="115">
-        <v>84</v>
+      <c r="G52" s="113">
+        <v>82</v>
       </c>
       <c r="H52" s="96"/>
-      <c r="I52" s="101"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="196"/>
+      <c r="J52" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>23</v>
       </c>
@@ -58920,17 +59058,15 @@
       <c r="E53" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="F53" s="103">
+      <c r="F53" s="102">
         <v>0</v>
       </c>
-      <c r="G53" s="115"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="96"/>
-      <c r="I53" s="101">
-        <f t="shared" ref="I53:I84" si="1">F53-(G53+H53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="196"/>
+      <c r="J53" s="191"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>24</v>
       </c>
@@ -58946,17 +59082,18 @@
       <c r="E54" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="F54" s="103">
+      <c r="F54" s="102">
         <v>20</v>
       </c>
-      <c r="G54" s="115"/>
+      <c r="G54" s="113"/>
       <c r="H54" s="96"/>
-      <c r="I54" s="101">
-        <f t="shared" si="1"/>
+      <c r="I54" s="196">
+        <f t="shared" ref="I54:I84" si="1">F54-(G54+H54)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="191"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>25</v>
       </c>
@@ -58972,19 +59109,19 @@
       <c r="E55" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="F55" s="103">
+      <c r="F55" s="102">
         <v>1</v>
       </c>
-      <c r="G55" s="115">
+      <c r="G55" s="113">
         <v>1</v>
       </c>
       <c r="H55" s="96"/>
-      <c r="I55" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="196"/>
+      <c r="J55" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>26</v>
       </c>
@@ -59000,761 +59137,771 @@
       <c r="E56" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="103">
+      <c r="F56" s="102">
         <v>1</v>
       </c>
-      <c r="G56" s="115"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="96"/>
-      <c r="I56" s="101">
+      <c r="I56" s="196">
+        <v>1</v>
+      </c>
+      <c r="J56" s="191" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="45">
+        <v>27</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="102">
+        <v>0</v>
+      </c>
+      <c r="G57" s="113"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="196"/>
+      <c r="J57" s="191"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="45">
+        <v>28</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="102">
+        <v>1</v>
+      </c>
+      <c r="G58" s="113">
+        <v>1</v>
+      </c>
+      <c r="H58" s="96"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="191" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="45">
+        <v>29</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F59" s="102">
+        <v>0</v>
+      </c>
+      <c r="G59" s="113"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="196"/>
+      <c r="J59" s="191"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="45">
+        <v>30</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" s="102">
+        <v>1</v>
+      </c>
+      <c r="G60" s="113"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="196">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="45">
-        <v>27</v>
-      </c>
-      <c r="B57" s="49" t="s">
+      <c r="J60" s="191"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="45">
+        <v>31</v>
+      </c>
+      <c r="B61" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C61" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="D61" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E57" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="103">
-        <v>0</v>
-      </c>
-      <c r="G57" s="115"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="45">
-        <v>28</v>
-      </c>
-      <c r="B58" s="49" t="s">
+      <c r="E61" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="102">
+        <v>1</v>
+      </c>
+      <c r="G61" s="113">
+        <v>1</v>
+      </c>
+      <c r="H61" s="96"/>
+      <c r="I61" s="196"/>
+      <c r="J61" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="45">
+        <v>32</v>
+      </c>
+      <c r="B62" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C62" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D62" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E58" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="103">
+      <c r="E62" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="102">
         <v>1</v>
       </c>
-      <c r="G58" s="115"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="101">
+      <c r="G62" s="113">
+        <v>1</v>
+      </c>
+      <c r="H62" s="96"/>
+      <c r="I62" s="196"/>
+      <c r="J62" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="45">
+        <v>33</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="F63" s="102">
+        <v>1</v>
+      </c>
+      <c r="G63" s="113">
+        <v>1</v>
+      </c>
+      <c r="H63" s="96"/>
+      <c r="I63" s="196"/>
+      <c r="J63" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="45">
+        <v>34</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="F64" s="102">
+        <v>1</v>
+      </c>
+      <c r="G64" s="113"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="196">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
-        <v>29</v>
-      </c>
-      <c r="B59" s="49" t="s">
+      <c r="J64" s="191"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="45">
+        <v>35</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C65" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D65" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E59" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="F59" s="103">
+      <c r="E65" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65" s="102">
+        <v>2</v>
+      </c>
+      <c r="G65" s="113"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="196">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J65" s="191"/>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="45">
+        <v>36</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="F66" s="102">
+        <v>1</v>
+      </c>
+      <c r="G66" s="113"/>
+      <c r="H66" s="96">
+        <v>1</v>
+      </c>
+      <c r="I66" s="196"/>
+      <c r="J66" s="191"/>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="45">
+        <v>37</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="F67" s="102">
         <v>0</v>
       </c>
-      <c r="G59" s="115"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="45">
-        <v>30</v>
-      </c>
-      <c r="B60" s="49" t="s">
+      <c r="G67" s="113"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="196"/>
+      <c r="J67" s="191"/>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="45">
+        <v>38</v>
+      </c>
+      <c r="B68" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C68" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D68" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E60" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="F60" s="103">
+      <c r="E68" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="F68" s="102">
         <v>1</v>
       </c>
-      <c r="G60" s="115"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="101">
+      <c r="G68" s="113">
+        <v>1</v>
+      </c>
+      <c r="H68" s="96"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="45">
+        <v>39</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="102">
+        <v>1</v>
+      </c>
+      <c r="G69" s="113"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="196">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="45">
-        <v>31</v>
-      </c>
-      <c r="B61" s="49" t="s">
+      <c r="J69" s="191"/>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="45">
+        <v>40</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C70" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="69" t="s">
+      <c r="D70" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E61" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="103">
+      <c r="E70" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="102">
+        <v>2</v>
+      </c>
+      <c r="G70" s="113"/>
+      <c r="H70" s="96">
+        <v>2</v>
+      </c>
+      <c r="I70" s="196"/>
+      <c r="J70" s="191"/>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="45">
+        <v>41</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71" s="102">
+        <v>4</v>
+      </c>
+      <c r="G71" s="113"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="196">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J71" s="191"/>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="45">
+        <v>42</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="102">
+        <v>4</v>
+      </c>
+      <c r="G72" s="113">
+        <v>4</v>
+      </c>
+      <c r="H72" s="96"/>
+      <c r="I72" s="196"/>
+      <c r="J72" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="45">
+        <v>43</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" s="102">
+        <v>2</v>
+      </c>
+      <c r="G73" s="113"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="196">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J73" s="191"/>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="45">
+        <v>44</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C74" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="102">
+        <v>2</v>
+      </c>
+      <c r="G74" s="113"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="196">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J74" s="191"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="45">
+        <v>45</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="F75" s="102">
+        <v>2</v>
+      </c>
+      <c r="G75" s="113"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="196">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J75" s="191"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="45">
+        <v>46</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="F76" s="102">
+        <v>2</v>
+      </c>
+      <c r="G76" s="113"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="196">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J76" s="191"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="45">
+        <v>47</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C77" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="102">
         <v>1</v>
       </c>
-      <c r="G61" s="115">
-        <v>1</v>
-      </c>
-      <c r="H61" s="96"/>
-      <c r="I61" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="45">
-        <v>32</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="F62" s="103">
-        <v>1</v>
-      </c>
-      <c r="G62" s="115">
-        <v>1</v>
-      </c>
-      <c r="H62" s="96"/>
-      <c r="I62" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="45">
-        <v>33</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="70" t="s">
-        <v>633</v>
-      </c>
-      <c r="F63" s="103">
-        <v>1</v>
-      </c>
-      <c r="G63" s="115">
-        <v>1</v>
-      </c>
-      <c r="H63" s="96"/>
-      <c r="I63" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
-        <v>34</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E64" s="70" t="s">
-        <v>389</v>
-      </c>
-      <c r="F64" s="103">
-        <v>1</v>
-      </c>
-      <c r="G64" s="115"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="101">
+      <c r="G77" s="113"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="196">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="45">
-        <v>35</v>
-      </c>
-      <c r="B65" s="49" t="s">
+      <c r="J77" s="191"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="45">
+        <v>48</v>
+      </c>
+      <c r="B78" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C78" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="D78" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="70" t="s">
-        <v>329</v>
-      </c>
-      <c r="F65" s="103">
+      <c r="E78" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="F78" s="102">
+        <v>6</v>
+      </c>
+      <c r="G78" s="113"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="196">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J78" s="191"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="45">
+        <v>49</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C79" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="102">
+        <v>4</v>
+      </c>
+      <c r="G79" s="113">
+        <v>4</v>
+      </c>
+      <c r="H79" s="96"/>
+      <c r="I79" s="196"/>
+      <c r="J79" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="45">
+        <v>50</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80" s="102">
+        <v>4</v>
+      </c>
+      <c r="G80" s="113"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="196">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J80" s="191"/>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="45">
+        <v>51</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C81" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="F81" s="102">
         <v>2</v>
       </c>
-      <c r="G65" s="115"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="101">
+      <c r="G81" s="113"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="196">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="45">
-        <v>36</v>
-      </c>
-      <c r="B66" s="49" t="s">
+      <c r="J81" s="191"/>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="45">
+        <v>52</v>
+      </c>
+      <c r="B82" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C82" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="D82" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E66" s="70" t="s">
-        <v>469</v>
-      </c>
-      <c r="F66" s="103">
-        <v>1</v>
-      </c>
-      <c r="G66" s="115"/>
-      <c r="H66" s="96">
-        <v>1</v>
-      </c>
-      <c r="I66" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="45">
-        <v>37</v>
-      </c>
-      <c r="B67" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="F67" s="103">
-        <v>0</v>
-      </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="45">
-        <v>38</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E68" s="70" t="s">
-        <v>429</v>
-      </c>
-      <c r="F68" s="103">
-        <v>1</v>
-      </c>
-      <c r="G68" s="115">
-        <v>1</v>
-      </c>
-      <c r="H68" s="96"/>
-      <c r="I68" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="45">
-        <v>39</v>
-      </c>
-      <c r="B69" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C69" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="103">
-        <v>1</v>
-      </c>
-      <c r="G69" s="115"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="45">
-        <v>40</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C70" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="F70" s="103">
+      <c r="E82" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="102">
         <v>2</v>
       </c>
-      <c r="G70" s="115"/>
-      <c r="H70" s="96">
-        <v>2</v>
-      </c>
-      <c r="I70" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="45">
-        <v>41</v>
-      </c>
-      <c r="B71" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C71" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="F71" s="103">
-        <v>4</v>
-      </c>
-      <c r="G71" s="115"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="101">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="45">
-        <v>42</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E72" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="103">
-        <v>4</v>
-      </c>
-      <c r="G72" s="115">
-        <v>4</v>
-      </c>
-      <c r="H72" s="96"/>
-      <c r="I72" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="45">
-        <v>43</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C73" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E73" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="F73" s="103">
-        <v>2</v>
-      </c>
-      <c r="G73" s="115"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="101">
+      <c r="G82" s="113"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="196">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="45">
-        <v>44</v>
-      </c>
-      <c r="B74" s="49" t="s">
+      <c r="J82" s="191"/>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="45">
+        <v>53</v>
+      </c>
+      <c r="B83" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="69" t="s">
+      <c r="C83" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E74" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F74" s="103">
+      <c r="D83" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" s="102">
         <v>2</v>
       </c>
-      <c r="G74" s="115"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="101">
+      <c r="G83" s="113"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="196">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="45">
-        <v>45</v>
-      </c>
-      <c r="B75" s="49" t="s">
+      <c r="J83" s="191"/>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="45">
+        <v>54</v>
+      </c>
+      <c r="B84" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="C84" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E75" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="F75" s="103">
+      <c r="D84" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="F84" s="102">
         <v>2</v>
       </c>
-      <c r="G75" s="115"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="101">
+      <c r="G84" s="113"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="196">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="45">
-        <v>46</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C76" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E76" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="F76" s="103">
-        <v>2</v>
-      </c>
-      <c r="G76" s="115"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="45">
-        <v>47</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C77" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E77" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="103">
-        <v>1</v>
-      </c>
-      <c r="G77" s="115"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="45">
-        <v>48</v>
-      </c>
-      <c r="B78" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C78" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E78" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="F78" s="103">
-        <v>6</v>
-      </c>
-      <c r="G78" s="115"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="101">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="45">
-        <v>49</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C79" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="F79" s="103">
-        <v>4</v>
-      </c>
-      <c r="G79" s="115">
-        <v>4</v>
-      </c>
-      <c r="H79" s="96"/>
-      <c r="I79" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="45">
-        <v>50</v>
-      </c>
-      <c r="B80" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C80" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="70" t="s">
-        <v>341</v>
-      </c>
-      <c r="F80" s="103">
-        <v>4</v>
-      </c>
-      <c r="G80" s="115"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="101">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="45">
-        <v>51</v>
-      </c>
-      <c r="B81" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C81" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E81" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="F81" s="103">
-        <v>2</v>
-      </c>
-      <c r="G81" s="115"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="45">
-        <v>52</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="103">
-        <v>2</v>
-      </c>
-      <c r="G82" s="115"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="45">
-        <v>53</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="F83" s="103">
-        <v>2</v>
-      </c>
-      <c r="G83" s="115"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="45">
-        <v>54</v>
-      </c>
-      <c r="B84" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C84" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E84" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="F84" s="103">
-        <v>2</v>
-      </c>
-      <c r="G84" s="115"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="191"/>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>55</v>
       </c>
@@ -59770,17 +59917,18 @@
       <c r="E85" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="F85" s="103">
+      <c r="F85" s="102">
         <v>2</v>
       </c>
-      <c r="G85" s="115"/>
+      <c r="G85" s="113"/>
       <c r="H85" s="96"/>
-      <c r="I85" s="101">
-        <f t="shared" ref="I85:I109" si="2">F85-(G85+H85)</f>
+      <c r="I85" s="196">
+        <f t="shared" ref="I85:I108" si="2">F85-(G85+H85)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="191"/>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>56</v>
       </c>
@@ -59796,17 +59944,18 @@
       <c r="E86" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="F86" s="103">
+      <c r="F86" s="102">
         <v>2</v>
       </c>
-      <c r="G86" s="115"/>
+      <c r="G86" s="113"/>
       <c r="H86" s="96"/>
-      <c r="I86" s="101">
+      <c r="I86" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="191"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="45">
         <v>57</v>
       </c>
@@ -59822,17 +59971,18 @@
       <c r="E87" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="F87" s="103">
+      <c r="F87" s="102">
         <v>2</v>
       </c>
-      <c r="G87" s="115"/>
+      <c r="G87" s="113"/>
       <c r="H87" s="96"/>
-      <c r="I87" s="101">
+      <c r="I87" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="191"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="45">
         <v>58</v>
       </c>
@@ -59848,17 +59998,18 @@
       <c r="E88" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="F88" s="103">
+      <c r="F88" s="102">
         <v>2</v>
       </c>
-      <c r="G88" s="115"/>
+      <c r="G88" s="113"/>
       <c r="H88" s="96"/>
-      <c r="I88" s="101">
+      <c r="I88" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="191"/>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="45">
         <v>59</v>
       </c>
@@ -59874,17 +60025,18 @@
       <c r="E89" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="F89" s="103">
+      <c r="F89" s="102">
         <v>2</v>
       </c>
-      <c r="G89" s="115"/>
+      <c r="G89" s="113"/>
       <c r="H89" s="96"/>
-      <c r="I89" s="101">
+      <c r="I89" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="191"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
         <v>60</v>
       </c>
@@ -59900,17 +60052,18 @@
       <c r="E90" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="F90" s="103">
+      <c r="F90" s="102">
         <v>2</v>
       </c>
-      <c r="G90" s="115"/>
+      <c r="G90" s="113"/>
       <c r="H90" s="96"/>
-      <c r="I90" s="101">
+      <c r="I90" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="191"/>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="45">
         <v>61</v>
       </c>
@@ -59926,17 +60079,18 @@
       <c r="E91" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="F91" s="103">
+      <c r="F91" s="102">
         <v>2</v>
       </c>
-      <c r="G91" s="115"/>
+      <c r="G91" s="113"/>
       <c r="H91" s="96"/>
-      <c r="I91" s="101">
+      <c r="I91" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="191"/>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="45">
         <v>62</v>
       </c>
@@ -59952,19 +60106,19 @@
       <c r="E92" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="103">
+      <c r="F92" s="102">
         <v>2</v>
       </c>
-      <c r="G92" s="115">
+      <c r="G92" s="113">
         <v>2</v>
       </c>
       <c r="H92" s="96"/>
-      <c r="I92" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="196"/>
+      <c r="J92" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="45">
         <v>63</v>
       </c>
@@ -59980,17 +60134,18 @@
       <c r="E93" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="F93" s="103">
+      <c r="F93" s="102">
         <v>2</v>
       </c>
-      <c r="G93" s="115"/>
+      <c r="G93" s="113"/>
       <c r="H93" s="96"/>
-      <c r="I93" s="101">
+      <c r="I93" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="191"/>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
         <v>64</v>
       </c>
@@ -60006,17 +60161,18 @@
       <c r="E94" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="F94" s="103">
+      <c r="F94" s="102">
         <v>2</v>
       </c>
-      <c r="G94" s="115"/>
+      <c r="G94" s="113"/>
       <c r="H94" s="96"/>
-      <c r="I94" s="101">
+      <c r="I94" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="191"/>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="45">
         <v>65</v>
       </c>
@@ -60032,19 +60188,19 @@
       <c r="E95" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="F95" s="103">
+      <c r="F95" s="102">
         <v>2</v>
       </c>
-      <c r="G95" s="115">
+      <c r="G95" s="113">
         <v>2</v>
       </c>
       <c r="H95" s="96"/>
-      <c r="I95" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="196"/>
+      <c r="J95" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>66</v>
       </c>
@@ -60060,17 +60216,18 @@
       <c r="E96" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="F96" s="103">
+      <c r="F96" s="102">
         <v>2</v>
       </c>
-      <c r="G96" s="115"/>
+      <c r="G96" s="113"/>
       <c r="H96" s="96"/>
-      <c r="I96" s="101">
+      <c r="I96" s="196">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="191"/>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>67</v>
       </c>
@@ -60086,17 +60243,18 @@
       <c r="E97" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="103">
+      <c r="F97" s="102">
         <v>1</v>
       </c>
-      <c r="G97" s="115"/>
+      <c r="G97" s="113"/>
       <c r="H97" s="96"/>
-      <c r="I97" s="101">
+      <c r="I97" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="191"/>
+    </row>
+    <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="45">
         <v>68</v>
       </c>
@@ -60112,19 +60270,19 @@
       <c r="E98" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="F98" s="103">
+      <c r="F98" s="102">
         <v>5</v>
       </c>
-      <c r="G98" s="115">
+      <c r="G98" s="113">
         <v>5</v>
       </c>
       <c r="H98" s="96"/>
-      <c r="I98" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="196"/>
+      <c r="J98" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="45">
         <v>69</v>
       </c>
@@ -60140,17 +60298,18 @@
       <c r="E99" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="F99" s="103">
+      <c r="F99" s="102">
         <v>300</v>
       </c>
-      <c r="G99" s="115"/>
+      <c r="G99" s="113"/>
       <c r="H99" s="96"/>
-      <c r="I99" s="101">
+      <c r="I99" s="196">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="191"/>
+    </row>
+    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>70</v>
       </c>
@@ -60166,17 +60325,18 @@
       <c r="E100" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="F100" s="104">
+      <c r="F100" s="103">
         <v>1</v>
       </c>
-      <c r="G100" s="115"/>
+      <c r="G100" s="113"/>
       <c r="H100" s="96"/>
-      <c r="I100" s="101">
+      <c r="I100" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="191"/>
+    </row>
+    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="45">
         <v>71</v>
       </c>
@@ -60192,17 +60352,18 @@
       <c r="E101" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F101" s="104">
+      <c r="F101" s="103">
         <v>1</v>
       </c>
-      <c r="G101" s="115"/>
+      <c r="G101" s="113"/>
       <c r="H101" s="96"/>
-      <c r="I101" s="101">
+      <c r="I101" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="191"/>
+    </row>
+    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
         <v>72</v>
       </c>
@@ -60218,17 +60379,18 @@
       <c r="E102" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F102" s="104">
+      <c r="F102" s="103">
         <v>1</v>
       </c>
-      <c r="G102" s="115"/>
+      <c r="G102" s="113"/>
       <c r="H102" s="96"/>
-      <c r="I102" s="101">
+      <c r="I102" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="191"/>
+    </row>
+    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="45">
         <v>73</v>
       </c>
@@ -60244,17 +60406,18 @@
       <c r="E103" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="104">
+      <c r="F103" s="103">
         <v>1</v>
       </c>
-      <c r="G103" s="115"/>
+      <c r="G103" s="113"/>
       <c r="H103" s="96"/>
-      <c r="I103" s="101">
+      <c r="I103" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="191"/>
+    </row>
+    <row r="104" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A104" s="45">
         <v>74</v>
       </c>
@@ -60270,19 +60433,19 @@
       <c r="E104" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="F104" s="105">
+      <c r="F104" s="104">
         <v>6</v>
       </c>
-      <c r="G104" s="115">
+      <c r="G104" s="113">
         <v>6</v>
       </c>
       <c r="H104" s="96"/>
-      <c r="I104" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="196"/>
+      <c r="J104" s="191" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="45">
         <v>75</v>
       </c>
@@ -60298,19 +60461,19 @@
       <c r="E105" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="F105" s="105">
+      <c r="F105" s="104">
         <v>1</v>
       </c>
-      <c r="G105" s="115">
+      <c r="G105" s="113">
         <v>1</v>
       </c>
       <c r="H105" s="96"/>
-      <c r="I105" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="196"/>
+      <c r="J105" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
         <v>76</v>
       </c>
@@ -60326,17 +60489,18 @@
       <c r="E106" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="F106" s="105">
+      <c r="F106" s="104">
         <v>1</v>
       </c>
-      <c r="G106" s="115"/>
+      <c r="G106" s="113"/>
       <c r="H106" s="96"/>
-      <c r="I106" s="101">
+      <c r="I106" s="196">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="191"/>
+    </row>
+    <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="45">
         <v>77</v>
       </c>
@@ -60352,19 +60516,19 @@
       <c r="E107" s="74" t="s">
         <v>432</v>
       </c>
-      <c r="F107" s="105">
+      <c r="F107" s="104">
         <v>1</v>
       </c>
-      <c r="G107" s="115">
+      <c r="G107" s="113">
         <v>1</v>
       </c>
       <c r="H107" s="96"/>
-      <c r="I107" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="196"/>
+      <c r="J107" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="45">
         <v>78</v>
       </c>
@@ -60380,19 +60544,22 @@
       <c r="E108" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="F108" s="105">
+      <c r="F108" s="104">
         <v>20</v>
       </c>
-      <c r="G108" s="115">
+      <c r="G108" s="113">
         <v>3</v>
       </c>
       <c r="H108" s="96"/>
-      <c r="I108" s="101">
+      <c r="I108" s="196">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="45">
         <v>79</v>
       </c>
@@ -60408,19 +60575,19 @@
       <c r="E109" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="F109" s="105">
+      <c r="F109" s="104">
         <v>1</v>
       </c>
-      <c r="G109" s="115">
+      <c r="G109" s="113">
         <v>1</v>
       </c>
       <c r="H109" s="96"/>
-      <c r="I109" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I109" s="196"/>
+      <c r="J109" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="45">
         <v>80</v>
       </c>
@@ -60436,16 +60603,17 @@
       <c r="E110" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="F110" s="106">
+      <c r="F110" s="105">
         <v>0</v>
       </c>
-      <c r="G110" s="115"/>
+      <c r="G110" s="113"/>
       <c r="H110" s="96">
         <v>10</v>
       </c>
-      <c r="I110" s="101"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I110" s="196"/>
+      <c r="J110" s="192"/>
+    </row>
+    <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="45">
         <v>81</v>
       </c>
@@ -60461,19 +60629,19 @@
       <c r="E111" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="F111" s="106">
+      <c r="F111" s="105">
         <v>280</v>
       </c>
-      <c r="G111" s="115">
+      <c r="G111" s="113">
         <v>280</v>
       </c>
       <c r="H111" s="96"/>
-      <c r="I111" s="101">
-        <f>F111-(G111+H111)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I111" s="196"/>
+      <c r="J111" s="192" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="45">
         <v>82</v>
       </c>
@@ -60489,17 +60657,18 @@
       <c r="E112" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="F112" s="106">
+      <c r="F112" s="105">
         <v>2</v>
       </c>
-      <c r="G112" s="115"/>
+      <c r="G112" s="113"/>
       <c r="H112" s="96"/>
-      <c r="I112" s="101">
+      <c r="I112" s="196">
         <f>F112-(G112+H112)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="192"/>
+    </row>
+    <row r="113" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="45">
         <v>83</v>
       </c>
@@ -60515,19 +60684,19 @@
       <c r="E113" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="F113" s="106">
+      <c r="F113" s="105">
         <v>1</v>
       </c>
-      <c r="G113" s="115">
+      <c r="G113" s="113">
         <v>1</v>
       </c>
       <c r="H113" s="96"/>
-      <c r="I113" s="101">
-        <f>F113-(G113+H113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="196"/>
+      <c r="J113" s="192" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="45">
         <v>84</v>
       </c>
@@ -60543,17 +60712,15 @@
       <c r="E114" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F114" s="106">
+      <c r="F114" s="105">
         <v>0</v>
       </c>
-      <c r="G114" s="115"/>
+      <c r="G114" s="113"/>
       <c r="H114" s="96"/>
-      <c r="I114" s="101">
-        <f>F114-(G114+H114)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="196"/>
+      <c r="J114" s="191"/>
+    </row>
+    <row r="115" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="45">
         <v>85</v>
       </c>
@@ -60569,16 +60736,19 @@
       <c r="E115" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="F115" s="106">
+      <c r="F115" s="105">
         <v>0</v>
       </c>
-      <c r="G115" s="115">
+      <c r="G115" s="113">
         <v>8</v>
       </c>
       <c r="H115" s="96"/>
-      <c r="I115" s="101"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="196"/>
+      <c r="J115" s="192" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="45">
         <v>86</v>
       </c>
@@ -60594,17 +60764,15 @@
       <c r="E116" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F116" s="106">
+      <c r="F116" s="105">
         <v>0</v>
       </c>
-      <c r="G116" s="115"/>
+      <c r="G116" s="113"/>
       <c r="H116" s="96"/>
-      <c r="I116" s="101">
-        <f t="shared" ref="I116:I135" si="3">F116-(G116+H116)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="196"/>
+      <c r="J116" s="191"/>
+    </row>
+    <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>87</v>
       </c>
@@ -60620,17 +60788,15 @@
       <c r="E117" s="76" t="s">
         <v>647</v>
       </c>
-      <c r="F117" s="106">
+      <c r="F117" s="105">
         <v>0</v>
       </c>
-      <c r="G117" s="115"/>
+      <c r="G117" s="113"/>
       <c r="H117" s="96"/>
-      <c r="I117" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="196"/>
+      <c r="J117" s="192"/>
+    </row>
+    <row r="118" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
         <v>88</v>
       </c>
@@ -60646,17 +60812,15 @@
       <c r="E118" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="F118" s="106">
+      <c r="F118" s="105">
         <v>0</v>
       </c>
-      <c r="G118" s="115"/>
+      <c r="G118" s="113"/>
       <c r="H118" s="96"/>
-      <c r="I118" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I118" s="196"/>
+      <c r="J118" s="192"/>
+    </row>
+    <row r="119" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="45">
         <v>89</v>
       </c>
@@ -60672,19 +60836,19 @@
       <c r="E119" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="F119" s="106">
+      <c r="F119" s="105">
         <v>560</v>
       </c>
-      <c r="G119" s="115">
+      <c r="G119" s="113">
         <v>560</v>
       </c>
       <c r="H119" s="96"/>
-      <c r="I119" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I119" s="196"/>
+      <c r="J119" s="192" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="45">
         <v>90</v>
       </c>
@@ -60700,16 +60864,19 @@
       <c r="E120" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F120" s="106">
+      <c r="F120" s="105">
         <v>40</v>
       </c>
-      <c r="G120" s="115">
+      <c r="G120" s="113">
         <v>50</v>
       </c>
       <c r="H120" s="96"/>
-      <c r="I120" s="101"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I120" s="196"/>
+      <c r="J120" s="192" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="45">
         <v>91</v>
       </c>
@@ -60725,17 +60892,20 @@
       <c r="E121" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F121" s="107">
+      <c r="F121" s="106">
         <v>80</v>
       </c>
-      <c r="G121" s="115"/>
+      <c r="G121" s="113"/>
       <c r="H121" s="96"/>
-      <c r="I121" s="101">
-        <f t="shared" si="3"/>
+      <c r="I121" s="196">
+        <f t="shared" ref="I121:I131" si="3">F121-(G121+H121)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="197" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="45">
         <v>92</v>
       </c>
@@ -60751,17 +60921,18 @@
       <c r="E122" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="F122" s="107">
+      <c r="F122" s="106">
         <v>280</v>
       </c>
-      <c r="G122" s="115"/>
+      <c r="G122" s="113"/>
       <c r="H122" s="96"/>
-      <c r="I122" s="101">
+      <c r="I122" s="196">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="191"/>
+    </row>
+    <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="45">
         <v>93</v>
       </c>
@@ -60777,17 +60948,18 @@
       <c r="E123" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F123" s="107">
+      <c r="F123" s="106">
         <v>1</v>
       </c>
-      <c r="G123" s="115"/>
+      <c r="G123" s="113"/>
       <c r="H123" s="96"/>
-      <c r="I123" s="101">
+      <c r="I123" s="196">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="191"/>
+    </row>
+    <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="45">
         <v>94</v>
       </c>
@@ -60803,17 +60975,15 @@
       <c r="E124" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="F124" s="107">
+      <c r="F124" s="106">
         <v>0</v>
       </c>
-      <c r="G124" s="115"/>
+      <c r="G124" s="113"/>
       <c r="H124" s="96"/>
-      <c r="I124" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I124" s="196"/>
+      <c r="J124" s="191"/>
+    </row>
+    <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="45">
         <v>95</v>
       </c>
@@ -60829,17 +60999,18 @@
       <c r="E125" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="F125" s="107">
+      <c r="F125" s="106">
         <v>17</v>
       </c>
-      <c r="G125" s="115"/>
+      <c r="G125" s="113"/>
       <c r="H125" s="96"/>
-      <c r="I125" s="101">
+      <c r="I125" s="196">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="191"/>
+    </row>
+    <row r="126" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="45">
         <v>96</v>
       </c>
@@ -60855,19 +61026,22 @@
       <c r="E126" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="F126" s="107">
+      <c r="F126" s="106">
         <v>17</v>
       </c>
-      <c r="G126" s="115">
+      <c r="G126" s="113">
         <v>8</v>
       </c>
       <c r="H126" s="96"/>
-      <c r="I126" s="101">
+      <c r="I126" s="196">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="191" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>97</v>
       </c>
@@ -60883,19 +61057,17 @@
       <c r="E127" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="F127" s="107">
+      <c r="F127" s="106">
         <v>17</v>
       </c>
-      <c r="G127" s="115"/>
+      <c r="G127" s="113"/>
       <c r="H127" s="96">
         <v>17</v>
       </c>
-      <c r="I127" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="196"/>
+      <c r="J127" s="191"/>
+    </row>
+    <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="45">
         <v>98</v>
       </c>
@@ -60911,17 +61083,18 @@
       <c r="E128" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F128" s="107">
+      <c r="F128" s="106">
         <v>20</v>
       </c>
-      <c r="G128" s="115"/>
+      <c r="G128" s="113"/>
       <c r="H128" s="96"/>
-      <c r="I128" s="101">
+      <c r="I128" s="196">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="191"/>
+    </row>
+    <row r="129" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="45">
         <v>99</v>
       </c>
@@ -60937,17 +61110,18 @@
       <c r="E129" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="F129" s="107">
+      <c r="F129" s="106">
         <v>17</v>
       </c>
-      <c r="G129" s="115"/>
+      <c r="G129" s="113"/>
       <c r="H129" s="96"/>
-      <c r="I129" s="101">
+      <c r="I129" s="196">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="191"/>
+    </row>
+    <row r="130" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
         <v>100</v>
       </c>
@@ -60963,17 +61137,15 @@
       <c r="E130" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="F130" s="107">
+      <c r="F130" s="106">
         <v>0</v>
       </c>
-      <c r="G130" s="115"/>
+      <c r="G130" s="113"/>
       <c r="H130" s="96"/>
-      <c r="I130" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="196"/>
+      <c r="J130" s="191"/>
+    </row>
+    <row r="131" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="45">
         <v>101</v>
       </c>
@@ -60989,17 +61161,18 @@
       <c r="E131" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="F131" s="107">
+      <c r="F131" s="106">
         <v>4</v>
       </c>
-      <c r="G131" s="115"/>
+      <c r="G131" s="113"/>
       <c r="H131" s="96"/>
-      <c r="I131" s="101">
+      <c r="I131" s="196">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="191"/>
+    </row>
+    <row r="132" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="45">
         <v>102</v>
       </c>
@@ -61015,19 +61188,19 @@
       <c r="E132" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="F132" s="107">
+      <c r="F132" s="106">
         <v>3</v>
       </c>
-      <c r="G132" s="115">
+      <c r="G132" s="113">
         <v>3</v>
       </c>
       <c r="H132" s="96"/>
-      <c r="I132" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="196"/>
+      <c r="J132" s="191" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="45">
         <v>103</v>
       </c>
@@ -61043,19 +61216,19 @@
       <c r="E133" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="F133" s="107">
+      <c r="F133" s="106">
         <v>3</v>
       </c>
-      <c r="G133" s="115">
+      <c r="G133" s="113">
         <v>3</v>
       </c>
       <c r="H133" s="96"/>
-      <c r="I133" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I133" s="196"/>
+      <c r="J133" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="45">
         <v>104</v>
       </c>
@@ -61071,17 +61244,19 @@
       <c r="E134" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F134" s="107">
+      <c r="F134" s="106">
         <v>3</v>
       </c>
-      <c r="G134" s="115"/>
+      <c r="G134" s="113">
+        <v>3</v>
+      </c>
       <c r="H134" s="96"/>
-      <c r="I134" s="101">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="196"/>
+      <c r="J134" s="191" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="45">
         <v>105</v>
       </c>
@@ -61097,19 +61272,19 @@
       <c r="E135" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="F135" s="107">
+      <c r="F135" s="106">
         <v>5</v>
       </c>
-      <c r="G135" s="115">
+      <c r="G135" s="113">
         <v>5</v>
       </c>
       <c r="H135" s="96"/>
-      <c r="I135" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="196"/>
+      <c r="J135" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A136" s="45">
         <v>106</v>
       </c>
@@ -61125,16 +61300,19 @@
       <c r="E136" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F136" s="107">
+      <c r="F136" s="106">
         <v>72</v>
       </c>
-      <c r="G136" s="115">
+      <c r="G136" s="113">
         <v>77</v>
       </c>
       <c r="H136" s="96"/>
-      <c r="I136" s="101"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I136" s="196"/>
+      <c r="J136" s="191" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="45">
         <v>107</v>
       </c>
@@ -61150,19 +61328,19 @@
       <c r="E137" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="F137" s="107">
+      <c r="F137" s="106">
         <v>10</v>
       </c>
-      <c r="G137" s="115">
+      <c r="G137" s="113">
         <v>10</v>
       </c>
       <c r="H137" s="96"/>
-      <c r="I137" s="101">
-        <f t="shared" ref="I137:I149" si="4">F137-(G137+H137)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I137" s="196"/>
+      <c r="J137" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A138" s="45">
         <v>108</v>
       </c>
@@ -61178,19 +61356,22 @@
       <c r="E138" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="F138" s="107">
+      <c r="F138" s="106">
         <v>300</v>
       </c>
-      <c r="G138" s="115">
+      <c r="G138" s="113">
         <v>231</v>
       </c>
       <c r="H138" s="96"/>
-      <c r="I138" s="101">
-        <f t="shared" si="4"/>
+      <c r="I138" s="196">
+        <f t="shared" ref="I138:I149" si="4">F138-(G138+H138)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="191" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="45">
         <v>109</v>
       </c>
@@ -61206,17 +61387,18 @@
       <c r="E139" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="F139" s="107">
+      <c r="F139" s="106">
         <v>1</v>
       </c>
-      <c r="G139" s="115"/>
+      <c r="G139" s="113"/>
       <c r="H139" s="96"/>
-      <c r="I139" s="101">
+      <c r="I139" s="196">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="191"/>
+    </row>
+    <row r="140" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <v>110</v>
       </c>
@@ -61232,17 +61414,18 @@
       <c r="E140" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="F140" s="107">
+      <c r="F140" s="106">
         <v>1</v>
       </c>
-      <c r="G140" s="115"/>
+      <c r="G140" s="113"/>
       <c r="H140" s="96"/>
-      <c r="I140" s="101">
+      <c r="I140" s="196">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="191"/>
+    </row>
+    <row r="141" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="45">
         <v>111</v>
       </c>
@@ -61258,17 +61441,18 @@
       <c r="E141" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="F141" s="107">
+      <c r="F141" s="106">
         <v>1</v>
       </c>
-      <c r="G141" s="115"/>
+      <c r="G141" s="113"/>
       <c r="H141" s="96"/>
-      <c r="I141" s="101">
+      <c r="I141" s="196">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="191"/>
+    </row>
+    <row r="142" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
         <v>112</v>
       </c>
@@ -61284,17 +61468,18 @@
       <c r="E142" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="F142" s="107">
+      <c r="F142" s="106">
         <v>3</v>
       </c>
-      <c r="G142" s="115"/>
+      <c r="G142" s="113"/>
       <c r="H142" s="96"/>
-      <c r="I142" s="101">
+      <c r="I142" s="196">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="191"/>
+    </row>
+    <row r="143" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="45">
         <v>113</v>
       </c>
@@ -61310,19 +61495,19 @@
       <c r="E143" s="79" t="s">
         <v>364</v>
       </c>
-      <c r="F143" s="107">
+      <c r="F143" s="106">
         <v>3</v>
       </c>
-      <c r="G143" s="115">
+      <c r="G143" s="113">
         <v>3</v>
       </c>
       <c r="H143" s="96"/>
-      <c r="I143" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I143" s="196"/>
+      <c r="J143" s="191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="45">
         <v>114</v>
       </c>
@@ -61338,19 +61523,19 @@
       <c r="E144" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="F144" s="107">
+      <c r="F144" s="106">
         <v>3</v>
       </c>
-      <c r="G144" s="115">
+      <c r="G144" s="113">
         <v>3</v>
       </c>
       <c r="H144" s="96"/>
-      <c r="I144" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I144" s="196"/>
+      <c r="J144" s="191" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="45">
         <v>115</v>
       </c>
@@ -61366,17 +61551,18 @@
       <c r="E145" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="F145" s="107">
+      <c r="F145" s="106">
         <v>1</v>
       </c>
-      <c r="G145" s="115"/>
+      <c r="G145" s="113"/>
       <c r="H145" s="96"/>
-      <c r="I145" s="101">
+      <c r="I145" s="196">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="191"/>
+    </row>
+    <row r="146" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="45">
         <v>116</v>
       </c>
@@ -61392,19 +61578,19 @@
       <c r="E146" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="F146" s="107">
+      <c r="F146" s="106">
         <v>3</v>
       </c>
-      <c r="G146" s="115">
+      <c r="G146" s="113">
         <v>3</v>
       </c>
       <c r="H146" s="96"/>
-      <c r="I146" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I146" s="196"/>
+      <c r="J146" s="191" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="45">
         <v>117</v>
       </c>
@@ -61420,19 +61606,19 @@
       <c r="E147" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="F147" s="107">
+      <c r="F147" s="106">
         <v>1</v>
       </c>
-      <c r="G147" s="115">
+      <c r="G147" s="113">
         <v>1</v>
       </c>
       <c r="H147" s="96"/>
-      <c r="I147" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I147" s="196"/>
+      <c r="J147" s="191" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="45">
         <v>118</v>
       </c>
@@ -61448,19 +61634,19 @@
       <c r="E148" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F148" s="107">
+      <c r="F148" s="106">
         <v>2</v>
       </c>
-      <c r="G148" s="115">
+      <c r="G148" s="113">
         <v>2</v>
       </c>
       <c r="H148" s="96"/>
-      <c r="I148" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I148" s="196"/>
+      <c r="J148" s="191" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="45">
         <v>119</v>
       </c>
@@ -61476,17 +61662,18 @@
       <c r="E149" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="F149" s="107">
+      <c r="F149" s="106">
         <v>180</v>
       </c>
-      <c r="G149" s="115"/>
+      <c r="G149" s="113"/>
       <c r="H149" s="96"/>
-      <c r="I149" s="101">
+      <c r="I149" s="196">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="191"/>
+    </row>
+    <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="45">
         <v>120</v>
       </c>
@@ -61502,16 +61689,19 @@
       <c r="E150" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="F150" s="108">
+      <c r="F150" s="107">
         <v>0</v>
       </c>
-      <c r="G150" s="115">
+      <c r="G150" s="113">
         <v>14</v>
       </c>
       <c r="H150" s="96"/>
-      <c r="I150" s="101"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I150" s="196"/>
+      <c r="J150" s="192" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="45">
         <v>121</v>
       </c>
@@ -61527,19 +61717,19 @@
       <c r="E151" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="F151" s="108">
+      <c r="F151" s="107">
         <v>1</v>
       </c>
-      <c r="G151" s="115">
+      <c r="G151" s="113">
         <v>1</v>
       </c>
       <c r="H151" s="96"/>
-      <c r="I151" s="101">
-        <f t="shared" ref="I151:I163" si="5">F151-(G151+H151)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I151" s="196"/>
+      <c r="J151" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="45">
         <v>122</v>
       </c>
@@ -61555,17 +61745,15 @@
       <c r="E152" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="F152" s="108">
+      <c r="F152" s="107">
         <v>0</v>
       </c>
-      <c r="G152" s="115"/>
+      <c r="G152" s="113"/>
       <c r="H152" s="96"/>
-      <c r="I152" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I152" s="196"/>
+      <c r="J152" s="192"/>
+    </row>
+    <row r="153" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="45">
         <v>123</v>
       </c>
@@ -61581,19 +61769,19 @@
       <c r="E153" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="F153" s="108">
+      <c r="F153" s="107">
         <v>1</v>
       </c>
-      <c r="G153" s="115">
+      <c r="G153" s="113">
         <v>1</v>
       </c>
       <c r="H153" s="96"/>
-      <c r="I153" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I153" s="196"/>
+      <c r="J153" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="45">
         <v>124</v>
       </c>
@@ -61609,19 +61797,19 @@
       <c r="E154" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="F154" s="108">
+      <c r="F154" s="107">
         <v>1</v>
       </c>
-      <c r="G154" s="115">
+      <c r="G154" s="113">
         <v>1</v>
       </c>
       <c r="H154" s="96"/>
-      <c r="I154" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I154" s="196"/>
+      <c r="J154" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="45">
         <v>125</v>
       </c>
@@ -61637,17 +61825,18 @@
       <c r="E155" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F155" s="108">
+      <c r="F155" s="107">
         <v>17</v>
       </c>
-      <c r="G155" s="115"/>
+      <c r="G155" s="113"/>
       <c r="H155" s="96"/>
-      <c r="I155" s="101">
-        <f t="shared" si="5"/>
+      <c r="I155" s="196">
+        <f t="shared" ref="I155:I162" si="5">F155-(G155+H155)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="193"/>
+    </row>
+    <row r="156" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="45">
         <v>126</v>
       </c>
@@ -61663,17 +61852,18 @@
       <c r="E156" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="F156" s="108">
+      <c r="F156" s="107">
         <v>1</v>
       </c>
-      <c r="G156" s="115"/>
+      <c r="G156" s="113"/>
       <c r="H156" s="96"/>
-      <c r="I156" s="101">
+      <c r="I156" s="196">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="191"/>
+    </row>
+    <row r="157" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="45">
         <v>127</v>
       </c>
@@ -61689,19 +61879,19 @@
       <c r="E157" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F157" s="108">
+      <c r="F157" s="107">
         <v>3</v>
       </c>
-      <c r="G157" s="115">
+      <c r="G157" s="113">
         <v>3</v>
       </c>
       <c r="H157" s="96"/>
-      <c r="I157" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I157" s="196"/>
+      <c r="J157" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="45">
         <v>128</v>
       </c>
@@ -61717,19 +61907,19 @@
       <c r="E158" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F158" s="108">
+      <c r="F158" s="107">
         <v>2</v>
       </c>
-      <c r="G158" s="115">
+      <c r="G158" s="113">
         <v>2</v>
       </c>
       <c r="H158" s="96"/>
-      <c r="I158" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I158" s="196"/>
+      <c r="J158" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="45">
         <v>129</v>
       </c>
@@ -61745,19 +61935,19 @@
       <c r="E159" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="F159" s="108">
+      <c r="F159" s="107">
         <v>2</v>
       </c>
-      <c r="G159" s="115">
+      <c r="G159" s="113">
         <v>2</v>
       </c>
       <c r="H159" s="96"/>
-      <c r="I159" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I159" s="196"/>
+      <c r="J159" s="192" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="45">
         <v>130</v>
       </c>
@@ -61776,16 +61966,19 @@
       <c r="F160" s="97">
         <v>16</v>
       </c>
-      <c r="G160" s="115">
+      <c r="G160" s="113">
         <v>8</v>
       </c>
       <c r="H160" s="96"/>
-      <c r="I160" s="101">
+      <c r="I160" s="196">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="45">
         <v>131</v>
       </c>
@@ -61804,16 +61997,14 @@
       <c r="F161" s="97">
         <v>16</v>
       </c>
-      <c r="G161" s="115"/>
+      <c r="G161" s="113"/>
       <c r="H161" s="96">
         <v>16</v>
       </c>
-      <c r="I161" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I161" s="196"/>
+      <c r="J161" s="192"/>
+    </row>
+    <row r="162" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="45">
         <v>132</v>
       </c>
@@ -61832,16 +62023,19 @@
       <c r="F162" s="97">
         <v>32</v>
       </c>
-      <c r="G162" s="115">
+      <c r="G162" s="113">
         <v>16</v>
       </c>
       <c r="H162" s="96"/>
-      <c r="I162" s="101">
+      <c r="I162" s="196">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="45">
         <v>133</v>
       </c>
@@ -61860,16 +62054,16 @@
       <c r="F163" s="97">
         <v>17</v>
       </c>
-      <c r="G163" s="115">
+      <c r="G163" s="113">
         <v>17</v>
       </c>
       <c r="H163" s="96"/>
-      <c r="I163" s="101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I163" s="196"/>
+      <c r="J163" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="45">
         <v>134</v>
       </c>
@@ -61888,13 +62082,16 @@
       <c r="F164" s="97">
         <v>1</v>
       </c>
-      <c r="G164" s="115">
+      <c r="G164" s="113">
         <v>17</v>
       </c>
       <c r="H164" s="96"/>
-      <c r="I164" s="101"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I164" s="196"/>
+      <c r="J164" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="45">
         <v>135</v>
       </c>
@@ -61913,14 +62110,15 @@
       <c r="F165" s="97">
         <v>1</v>
       </c>
-      <c r="G165" s="115"/>
+      <c r="G165" s="113"/>
       <c r="H165" s="96"/>
-      <c r="I165" s="101">
+      <c r="I165" s="196">
         <f>F165-(G165+H165)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="191"/>
+    </row>
+    <row r="166" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
         <v>136</v>
       </c>
@@ -61939,14 +62137,15 @@
       <c r="F166" s="97">
         <v>17</v>
       </c>
-      <c r="G166" s="115"/>
+      <c r="G166" s="113"/>
       <c r="H166" s="96"/>
-      <c r="I166" s="101">
+      <c r="I166" s="196">
         <f>F166-(G166+H166)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="191"/>
+    </row>
+    <row r="167" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="45">
         <v>137</v>
       </c>
@@ -61965,14 +62164,15 @@
       <c r="F167" s="97">
         <v>1</v>
       </c>
-      <c r="G167" s="115"/>
+      <c r="G167" s="113"/>
       <c r="H167" s="96"/>
-      <c r="I167" s="101">
+      <c r="I167" s="196">
         <f>F167-(G167+H167)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="191"/>
+    </row>
+    <row r="168" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="45">
         <v>138</v>
       </c>
@@ -61991,16 +62191,16 @@
       <c r="F168" s="97">
         <v>17</v>
       </c>
-      <c r="G168" s="115">
+      <c r="G168" s="113">
         <v>17</v>
       </c>
       <c r="H168" s="96"/>
-      <c r="I168" s="101">
-        <f>F168-(G168+H168)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I168" s="196"/>
+      <c r="J168" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="45">
         <v>139</v>
       </c>
@@ -62019,13 +62219,16 @@
       <c r="F169" s="97">
         <v>0</v>
       </c>
-      <c r="G169" s="115">
+      <c r="G169" s="113">
         <v>2</v>
       </c>
       <c r="H169" s="96"/>
-      <c r="I169" s="101"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I169" s="196"/>
+      <c r="J169" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="45">
         <v>140</v>
       </c>
@@ -62044,14 +62247,15 @@
       <c r="F170" s="97">
         <v>5</v>
       </c>
-      <c r="G170" s="115"/>
+      <c r="G170" s="113"/>
       <c r="H170" s="96"/>
-      <c r="I170" s="101">
+      <c r="I170" s="196">
         <f t="shared" ref="I170:I179" si="6">F170-(G170+H170)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="191"/>
+    </row>
+    <row r="171" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="45">
         <v>141</v>
       </c>
@@ -62070,16 +62274,19 @@
       <c r="F171" s="97">
         <v>12</v>
       </c>
-      <c r="G171" s="115">
+      <c r="G171" s="113">
         <v>8</v>
       </c>
       <c r="H171" s="96"/>
-      <c r="I171" s="101">
+      <c r="I171" s="196">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="45">
         <v>142</v>
       </c>
@@ -62098,16 +62305,19 @@
       <c r="F172" s="97">
         <v>12</v>
       </c>
-      <c r="G172" s="115">
+      <c r="G172" s="113">
         <v>8</v>
       </c>
       <c r="H172" s="96"/>
-      <c r="I172" s="101">
+      <c r="I172" s="196">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="45">
         <v>143</v>
       </c>
@@ -62126,14 +62336,15 @@
       <c r="F173" s="97">
         <v>12</v>
       </c>
-      <c r="G173" s="115"/>
+      <c r="G173" s="113"/>
       <c r="H173" s="96"/>
-      <c r="I173" s="101">
+      <c r="I173" s="196">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="191"/>
+    </row>
+    <row r="174" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="45">
         <v>144</v>
       </c>
@@ -62152,16 +62363,16 @@
       <c r="F174" s="97">
         <v>2</v>
       </c>
-      <c r="G174" s="115">
+      <c r="G174" s="113">
         <v>2</v>
       </c>
       <c r="H174" s="96"/>
-      <c r="I174" s="101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I174" s="196"/>
+      <c r="J174" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="45">
         <v>145</v>
       </c>
@@ -62180,16 +62391,16 @@
       <c r="F175" s="97">
         <v>17</v>
       </c>
-      <c r="G175" s="115">
+      <c r="G175" s="113">
         <v>17</v>
       </c>
       <c r="H175" s="96"/>
-      <c r="I175" s="101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I175" s="196"/>
+      <c r="J175" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="45">
         <v>146</v>
       </c>
@@ -62208,16 +62419,16 @@
       <c r="F176" s="97">
         <v>1</v>
       </c>
-      <c r="G176" s="115">
+      <c r="G176" s="113">
         <v>1</v>
       </c>
       <c r="H176" s="96"/>
-      <c r="I176" s="101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I176" s="196"/>
+      <c r="J176" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="45">
         <v>147</v>
       </c>
@@ -62236,14 +62447,15 @@
       <c r="F177" s="97">
         <v>1</v>
       </c>
-      <c r="G177" s="115"/>
+      <c r="G177" s="113"/>
       <c r="H177" s="96"/>
-      <c r="I177" s="101">
+      <c r="I177" s="196">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="191"/>
+    </row>
+    <row r="178" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="45">
         <v>148</v>
       </c>
@@ -62262,14 +62474,12 @@
       <c r="F178" s="97">
         <v>0</v>
       </c>
-      <c r="G178" s="115"/>
+      <c r="G178" s="113"/>
       <c r="H178" s="96"/>
-      <c r="I178" s="101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I178" s="196"/>
+      <c r="J178" s="191"/>
+    </row>
+    <row r="179" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="45">
         <v>149</v>
       </c>
@@ -62288,14 +62498,15 @@
       <c r="F179" s="97">
         <v>10</v>
       </c>
-      <c r="G179" s="115"/>
+      <c r="G179" s="113"/>
       <c r="H179" s="96"/>
-      <c r="I179" s="101">
+      <c r="I179" s="196">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="191"/>
+    </row>
+    <row r="180" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="45">
         <v>150</v>
       </c>
@@ -62314,13 +62525,16 @@
       <c r="F180" s="97">
         <v>5</v>
       </c>
-      <c r="G180" s="115">
+      <c r="G180" s="113">
         <v>9</v>
       </c>
       <c r="H180" s="96"/>
-      <c r="I180" s="101"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I180" s="196"/>
+      <c r="J180" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="45">
         <v>151</v>
       </c>
@@ -62339,13 +62553,16 @@
       <c r="F181" s="97">
         <v>5</v>
       </c>
-      <c r="G181" s="115">
+      <c r="G181" s="113">
         <v>9</v>
       </c>
       <c r="H181" s="96"/>
-      <c r="I181" s="101"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I181" s="196"/>
+      <c r="J181" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="45">
         <v>152</v>
       </c>
@@ -62364,13 +62581,16 @@
       <c r="F182" s="97">
         <v>5</v>
       </c>
-      <c r="G182" s="115">
+      <c r="G182" s="113">
         <v>9</v>
       </c>
       <c r="H182" s="96"/>
-      <c r="I182" s="101"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I182" s="196"/>
+      <c r="J182" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="45">
         <v>153</v>
       </c>
@@ -62389,14 +62609,15 @@
       <c r="F183" s="97">
         <v>13</v>
       </c>
-      <c r="G183" s="115"/>
+      <c r="G183" s="113"/>
       <c r="H183" s="96"/>
-      <c r="I183" s="101">
-        <f t="shared" ref="I183:I194" si="7">F183-(G183+H183)</f>
+      <c r="I183" s="196">
+        <f t="shared" ref="I183:I190" si="7">F183-(G183+H183)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="191"/>
+    </row>
+    <row r="184" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="45">
         <v>154</v>
       </c>
@@ -62415,16 +62636,16 @@
       <c r="F184" s="97">
         <v>2</v>
       </c>
-      <c r="G184" s="115">
+      <c r="G184" s="113">
         <v>2</v>
       </c>
       <c r="H184" s="96"/>
-      <c r="I184" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I184" s="196"/>
+      <c r="J184" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="45">
         <v>155</v>
       </c>
@@ -62443,14 +62664,15 @@
       <c r="F185" s="97">
         <v>2</v>
       </c>
-      <c r="G185" s="115"/>
+      <c r="G185" s="113"/>
       <c r="H185" s="96"/>
-      <c r="I185" s="101">
+      <c r="I185" s="196">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="191"/>
+    </row>
+    <row r="186" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="45">
         <v>156</v>
       </c>
@@ -62469,14 +62691,12 @@
       <c r="F186" s="97">
         <v>0</v>
       </c>
-      <c r="G186" s="115"/>
+      <c r="G186" s="113"/>
       <c r="H186" s="96"/>
-      <c r="I186" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I186" s="196"/>
+      <c r="J186" s="191"/>
+    </row>
+    <row r="187" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="45">
         <v>157</v>
       </c>
@@ -62495,14 +62715,12 @@
       <c r="F187" s="97">
         <v>0</v>
       </c>
-      <c r="G187" s="115"/>
+      <c r="G187" s="113"/>
       <c r="H187" s="96"/>
-      <c r="I187" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I187" s="196"/>
+      <c r="J187" s="192"/>
+    </row>
+    <row r="188" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="45">
         <v>158</v>
       </c>
@@ -62521,14 +62739,16 @@
       <c r="F188" s="97">
         <v>1</v>
       </c>
-      <c r="G188" s="115"/>
+      <c r="G188" s="113">
+        <v>1</v>
+      </c>
       <c r="H188" s="96"/>
-      <c r="I188" s="101">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I188" s="196"/>
+      <c r="J188" s="191" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="45">
         <v>159</v>
       </c>
@@ -62547,16 +62767,16 @@
       <c r="F189" s="97">
         <v>1</v>
       </c>
-      <c r="G189" s="115">
+      <c r="G189" s="113">
         <v>1</v>
       </c>
       <c r="H189" s="96"/>
-      <c r="I189" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I189" s="196"/>
+      <c r="J189" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="45">
         <v>160</v>
       </c>
@@ -62575,16 +62795,19 @@
       <c r="F190" s="97">
         <v>13</v>
       </c>
-      <c r="G190" s="115">
+      <c r="G190" s="113">
         <v>8</v>
       </c>
       <c r="H190" s="96"/>
-      <c r="I190" s="101">
+      <c r="I190" s="196">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="45">
         <v>161</v>
       </c>
@@ -62603,16 +62826,16 @@
       <c r="F191" s="97">
         <v>2</v>
       </c>
-      <c r="G191" s="115">
+      <c r="G191" s="113">
         <v>2</v>
       </c>
       <c r="H191" s="96"/>
-      <c r="I191" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I191" s="196"/>
+      <c r="J191" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="45">
         <v>162</v>
       </c>
@@ -62631,16 +62854,16 @@
       <c r="F192" s="97">
         <v>2</v>
       </c>
-      <c r="G192" s="115">
+      <c r="G192" s="113">
         <v>2</v>
       </c>
       <c r="H192" s="96"/>
-      <c r="I192" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I192" s="196"/>
+      <c r="J192" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="45">
         <v>163</v>
       </c>
@@ -62659,16 +62882,16 @@
       <c r="F193" s="97">
         <v>2</v>
       </c>
-      <c r="G193" s="115">
+      <c r="G193" s="113">
         <v>2</v>
       </c>
       <c r="H193" s="96"/>
-      <c r="I193" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I193" s="196"/>
+      <c r="J193" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="45">
         <v>164</v>
       </c>
@@ -62687,16 +62910,16 @@
       <c r="F194" s="97">
         <v>10</v>
       </c>
-      <c r="G194" s="115">
+      <c r="G194" s="113">
         <v>10</v>
       </c>
       <c r="H194" s="96"/>
-      <c r="I194" s="101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I194" s="196"/>
+      <c r="J194" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="45">
         <v>165</v>
       </c>
@@ -62715,13 +62938,16 @@
       <c r="F195" s="97">
         <v>0</v>
       </c>
-      <c r="G195" s="115">
+      <c r="G195" s="113">
         <v>1</v>
       </c>
       <c r="H195" s="96"/>
-      <c r="I195" s="101"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I195" s="196"/>
+      <c r="J195" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="45">
         <v>166</v>
       </c>
@@ -62740,13 +62966,16 @@
       <c r="F196" s="97">
         <v>0</v>
       </c>
-      <c r="G196" s="115">
+      <c r="G196" s="113">
         <v>1</v>
       </c>
       <c r="H196" s="96"/>
-      <c r="I196" s="101"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I196" s="196"/>
+      <c r="J196" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="45">
         <v>167</v>
       </c>
@@ -62765,16 +62994,16 @@
       <c r="F197" s="97">
         <v>4</v>
       </c>
-      <c r="G197" s="115">
+      <c r="G197" s="113">
         <v>4</v>
       </c>
       <c r="H197" s="96"/>
-      <c r="I197" s="101">
-        <f t="shared" ref="I197:I208" si="8">F197-(G197+H197)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I197" s="196"/>
+      <c r="J197" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="45">
         <v>168</v>
       </c>
@@ -62793,16 +63022,16 @@
       <c r="F198" s="97">
         <v>4</v>
       </c>
-      <c r="G198" s="115">
+      <c r="G198" s="113">
         <v>4</v>
       </c>
       <c r="H198" s="96"/>
-      <c r="I198" s="101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I198" s="196"/>
+      <c r="J198" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="45">
         <v>169</v>
       </c>
@@ -62821,14 +63050,15 @@
       <c r="F199" s="97">
         <v>1</v>
       </c>
-      <c r="G199" s="115"/>
+      <c r="G199" s="113"/>
       <c r="H199" s="96"/>
-      <c r="I199" s="101">
-        <f t="shared" si="8"/>
+      <c r="I199" s="196">
+        <f t="shared" ref="I199:I208" si="8">F199-(G199+H199)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="191"/>
+    </row>
+    <row r="200" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="45">
         <v>170</v>
       </c>
@@ -62847,14 +63077,15 @@
       <c r="F200" s="97">
         <v>2</v>
       </c>
-      <c r="G200" s="115"/>
+      <c r="G200" s="113"/>
       <c r="H200" s="96"/>
-      <c r="I200" s="101">
+      <c r="I200" s="196">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="191"/>
+    </row>
+    <row r="201" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="45">
         <v>171</v>
       </c>
@@ -62873,14 +63104,14 @@
       <c r="F201" s="97">
         <v>13</v>
       </c>
-      <c r="G201" s="115"/>
-      <c r="H201" s="96"/>
-      <c r="I201" s="101">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G201" s="113"/>
+      <c r="H201" s="96">
+        <v>17</v>
+      </c>
+      <c r="I201" s="196"/>
+      <c r="J201" s="194"/>
+    </row>
+    <row r="202" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="45">
         <v>172</v>
       </c>
@@ -62899,16 +63130,19 @@
       <c r="F202" s="97">
         <v>24</v>
       </c>
-      <c r="G202" s="115">
+      <c r="G202" s="113">
         <v>16</v>
       </c>
       <c r="H202" s="96"/>
-      <c r="I202" s="101">
+      <c r="I202" s="196">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="45">
         <v>173</v>
       </c>
@@ -62927,18 +63161,18 @@
       <c r="F203" s="97">
         <v>24</v>
       </c>
-      <c r="G203" s="115">
+      <c r="G203" s="113">
         <v>16</v>
       </c>
       <c r="H203" s="96">
         <v>8</v>
       </c>
-      <c r="I203" s="101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I203" s="196"/>
+      <c r="J203" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="45">
         <v>174</v>
       </c>
@@ -62957,14 +63191,15 @@
       <c r="F204" s="97">
         <v>24</v>
       </c>
-      <c r="G204" s="115"/>
+      <c r="G204" s="113"/>
       <c r="H204" s="96"/>
-      <c r="I204" s="101">
+      <c r="I204" s="196">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="191"/>
+    </row>
+    <row r="205" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="45">
         <v>175</v>
       </c>
@@ -62983,14 +63218,15 @@
       <c r="F205" s="97">
         <v>24</v>
       </c>
-      <c r="G205" s="115"/>
+      <c r="G205" s="113"/>
       <c r="H205" s="96"/>
-      <c r="I205" s="101">
+      <c r="I205" s="196">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="191"/>
+    </row>
+    <row r="206" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="45">
         <v>176</v>
       </c>
@@ -63009,16 +63245,19 @@
       <c r="F206" s="97">
         <v>24</v>
       </c>
-      <c r="G206" s="115">
+      <c r="G206" s="113">
         <v>16</v>
       </c>
       <c r="H206" s="96"/>
-      <c r="I206" s="101">
+      <c r="I206" s="196">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="45">
         <v>177</v>
       </c>
@@ -63037,14 +63276,15 @@
       <c r="F207" s="97">
         <v>26</v>
       </c>
-      <c r="G207" s="115"/>
+      <c r="G207" s="113"/>
       <c r="H207" s="96"/>
-      <c r="I207" s="101">
+      <c r="I207" s="196">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="191"/>
+    </row>
+    <row r="208" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="45">
         <v>178</v>
       </c>
@@ -63063,16 +63303,19 @@
       <c r="F208" s="97">
         <v>24</v>
       </c>
-      <c r="G208" s="115">
+      <c r="G208" s="113">
         <v>16</v>
       </c>
       <c r="H208" s="96"/>
-      <c r="I208" s="101">
+      <c r="I208" s="196">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="45">
         <v>179</v>
       </c>
@@ -63091,13 +63334,16 @@
       <c r="F209" s="97">
         <v>1</v>
       </c>
-      <c r="G209" s="115">
+      <c r="G209" s="113">
         <v>9</v>
       </c>
       <c r="H209" s="96"/>
-      <c r="I209" s="101"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I209" s="196"/>
+      <c r="J209" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="45">
         <v>180</v>
       </c>
@@ -63116,18 +63362,18 @@
       <c r="F210" s="97">
         <v>24</v>
       </c>
-      <c r="G210" s="115">
+      <c r="G210" s="113">
         <v>16</v>
       </c>
       <c r="H210" s="96">
         <v>8</v>
       </c>
-      <c r="I210" s="101">
-        <f t="shared" ref="I210:I218" si="9">F210-(G210+H210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I210" s="196"/>
+      <c r="J210" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>181</v>
       </c>
@@ -63146,202 +63392,216 @@
       <c r="F211" s="97">
         <v>24</v>
       </c>
-      <c r="G211" s="115"/>
+      <c r="G211" s="113"/>
       <c r="H211" s="96"/>
-      <c r="I211" s="101">
+      <c r="I211" s="196">
+        <f t="shared" ref="I211:I218" si="9">F211-(G211+H211)</f>
+        <v>24</v>
+      </c>
+      <c r="J211" s="191"/>
+    </row>
+    <row r="212" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A212" s="45">
+        <v>182</v>
+      </c>
+      <c r="B212" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C212" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E212" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F212" s="97">
+        <v>5</v>
+      </c>
+      <c r="G212" s="113"/>
+      <c r="H212" s="96"/>
+      <c r="I212" s="196">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J212" s="191"/>
+    </row>
+    <row r="213" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A213" s="45">
+        <v>183</v>
+      </c>
+      <c r="B213" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E213" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="F213" s="97">
+        <v>24</v>
+      </c>
+      <c r="G213" s="113">
+        <v>16</v>
+      </c>
+      <c r="H213" s="96"/>
+      <c r="I213" s="196">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J213" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A214" s="45">
+        <v>184</v>
+      </c>
+      <c r="B214" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C214" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D214" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E214" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F214" s="97">
+        <v>1</v>
+      </c>
+      <c r="G214" s="113"/>
+      <c r="H214" s="96"/>
+      <c r="I214" s="196">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J214" s="191"/>
+    </row>
+    <row r="215" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A215" s="45">
+        <v>185</v>
+      </c>
+      <c r="B215" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C215" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D215" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E215" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="F215" s="97">
+        <v>24</v>
+      </c>
+      <c r="G215" s="113">
+        <v>16</v>
+      </c>
+      <c r="H215" s="96"/>
+      <c r="I215" s="196">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J215" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A216" s="45">
+        <v>186</v>
+      </c>
+      <c r="B216" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C216" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E216" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F216" s="97">
+        <v>1</v>
+      </c>
+      <c r="G216" s="113"/>
+      <c r="H216" s="96"/>
+      <c r="I216" s="196">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J216" s="191"/>
+    </row>
+    <row r="217" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A217" s="45">
+        <v>187</v>
+      </c>
+      <c r="B217" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D217" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E217" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F217" s="97">
+        <v>24</v>
+      </c>
+      <c r="G217" s="113">
+        <v>16</v>
+      </c>
+      <c r="H217" s="96"/>
+      <c r="I217" s="196">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J217" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A218" s="45">
+        <v>188</v>
+      </c>
+      <c r="B218" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C218" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D218" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E218" s="83" t="s">
+        <v>592</v>
+      </c>
+      <c r="F218" s="97">
+        <v>24</v>
+      </c>
+      <c r="G218" s="113"/>
+      <c r="H218" s="96"/>
+      <c r="I218" s="196">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="45">
-        <v>182</v>
-      </c>
-      <c r="B212" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C212" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D212" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E212" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="F212" s="97">
-        <v>5</v>
-      </c>
-      <c r="G212" s="115"/>
-      <c r="H212" s="96"/>
-      <c r="I212" s="101">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="45">
-        <v>183</v>
-      </c>
-      <c r="B213" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C213" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D213" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E213" s="83" t="s">
-        <v>409</v>
-      </c>
-      <c r="F213" s="97">
-        <v>24</v>
-      </c>
-      <c r="G213" s="115">
-        <v>16</v>
-      </c>
-      <c r="H213" s="96"/>
-      <c r="I213" s="101">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="45">
-        <v>184</v>
-      </c>
-      <c r="B214" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C214" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D214" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="E214" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="F214" s="97">
-        <v>1</v>
-      </c>
-      <c r="G214" s="115"/>
-      <c r="H214" s="96"/>
-      <c r="I214" s="101">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="45">
-        <v>185</v>
-      </c>
-      <c r="B215" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C215" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D215" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E215" s="83" t="s">
-        <v>410</v>
-      </c>
-      <c r="F215" s="97">
-        <v>24</v>
-      </c>
-      <c r="G215" s="115">
-        <v>16</v>
-      </c>
-      <c r="H215" s="96"/>
-      <c r="I215" s="101">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="45">
-        <v>186</v>
-      </c>
-      <c r="B216" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C216" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D216" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E216" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F216" s="97">
-        <v>1</v>
-      </c>
-      <c r="G216" s="115"/>
-      <c r="H216" s="96"/>
-      <c r="I216" s="101">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="45">
-        <v>187</v>
-      </c>
-      <c r="B217" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C217" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D217" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E217" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="F217" s="97">
-        <v>24</v>
-      </c>
-      <c r="G217" s="115">
-        <v>16</v>
-      </c>
-      <c r="H217" s="96"/>
-      <c r="I217" s="101">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="45">
-        <v>188</v>
-      </c>
-      <c r="B218" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C218" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D218" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="E218" s="83" t="s">
-        <v>592</v>
-      </c>
-      <c r="F218" s="97">
-        <v>24</v>
-      </c>
-      <c r="G218" s="115"/>
-      <c r="H218" s="96"/>
-      <c r="I218" s="101">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="191"/>
+    </row>
+    <row r="219" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="45">
         <v>189</v>
       </c>
@@ -63360,13 +63620,16 @@
       <c r="F219" s="97">
         <v>0</v>
       </c>
-      <c r="G219" s="115">
+      <c r="G219" s="113">
         <v>2</v>
       </c>
       <c r="H219" s="96"/>
-      <c r="I219" s="101"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I219" s="196"/>
+      <c r="J219" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="45">
         <v>190</v>
       </c>
@@ -63385,16 +63648,19 @@
       <c r="F220" s="97">
         <v>24</v>
       </c>
-      <c r="G220" s="115">
+      <c r="G220" s="113">
         <v>16</v>
       </c>
       <c r="H220" s="96"/>
-      <c r="I220" s="101">
+      <c r="I220" s="196">
         <f t="shared" ref="I220:I227" si="10">F220-(G220+H220)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="45">
         <v>191</v>
       </c>
@@ -63413,14 +63679,15 @@
       <c r="F221" s="97">
         <v>1</v>
       </c>
-      <c r="G221" s="115"/>
+      <c r="G221" s="113"/>
       <c r="H221" s="96"/>
-      <c r="I221" s="101">
+      <c r="I221" s="196">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="191"/>
+    </row>
+    <row r="222" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="45">
         <v>192</v>
       </c>
@@ -63439,18 +63706,18 @@
       <c r="F222" s="97">
         <v>24</v>
       </c>
-      <c r="G222" s="115">
+      <c r="G222" s="113">
         <v>16</v>
       </c>
       <c r="H222" s="96">
         <v>8</v>
       </c>
-      <c r="I222" s="101">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I222" s="196"/>
+      <c r="J222" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="45">
         <v>193</v>
       </c>
@@ -63469,16 +63736,19 @@
       <c r="F223" s="97">
         <v>24</v>
       </c>
-      <c r="G223" s="115">
+      <c r="G223" s="113">
         <v>16</v>
       </c>
       <c r="H223" s="96"/>
-      <c r="I223" s="101">
+      <c r="I223" s="196">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="45">
         <v>194</v>
       </c>
@@ -63497,14 +63767,15 @@
       <c r="F224" s="97">
         <v>1</v>
       </c>
-      <c r="G224" s="115"/>
+      <c r="G224" s="113"/>
       <c r="H224" s="96"/>
-      <c r="I224" s="101">
+      <c r="I224" s="196">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="191"/>
+    </row>
+    <row r="225" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="45">
         <v>195</v>
       </c>
@@ -63523,14 +63794,15 @@
       <c r="F225" s="97">
         <v>24</v>
       </c>
-      <c r="G225" s="115"/>
+      <c r="G225" s="113"/>
       <c r="H225" s="96"/>
-      <c r="I225" s="101">
+      <c r="I225" s="196">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="191"/>
+    </row>
+    <row r="226" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="45">
         <v>196</v>
       </c>
@@ -63549,16 +63821,19 @@
       <c r="F226" s="97">
         <v>24</v>
       </c>
-      <c r="G226" s="115">
+      <c r="G226" s="113">
         <v>8</v>
       </c>
       <c r="H226" s="96"/>
-      <c r="I226" s="101">
+      <c r="I226" s="196">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="45">
         <v>197</v>
       </c>
@@ -63577,16 +63852,19 @@
       <c r="F227" s="97">
         <v>24</v>
       </c>
-      <c r="G227" s="115">
+      <c r="G227" s="113">
         <v>8</v>
       </c>
       <c r="H227" s="96"/>
-      <c r="I227" s="101">
+      <c r="I227" s="196">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="45">
         <v>198</v>
       </c>
@@ -63605,13 +63883,16 @@
       <c r="F228" s="97">
         <v>1</v>
       </c>
-      <c r="G228" s="115">
+      <c r="G228" s="113">
         <v>9</v>
       </c>
       <c r="H228" s="96"/>
-      <c r="I228" s="101"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I228" s="196"/>
+      <c r="J228" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="45">
         <v>199</v>
       </c>
@@ -63630,14 +63911,15 @@
       <c r="F229" s="97">
         <v>1</v>
       </c>
-      <c r="G229" s="115"/>
+      <c r="G229" s="113"/>
       <c r="H229" s="96"/>
-      <c r="I229" s="101">
+      <c r="I229" s="196">
         <f t="shared" ref="I229:I234" si="11">F229-(G229+H229)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="193"/>
+    </row>
+    <row r="230" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="45">
         <v>200</v>
       </c>
@@ -63656,14 +63938,15 @@
       <c r="F230" s="97">
         <v>24</v>
       </c>
-      <c r="G230" s="115"/>
+      <c r="G230" s="113"/>
       <c r="H230" s="96"/>
-      <c r="I230" s="101">
+      <c r="I230" s="196">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="193"/>
+    </row>
+    <row r="231" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="45">
         <v>201</v>
       </c>
@@ -63682,14 +63965,12 @@
       <c r="F231" s="97">
         <v>0</v>
       </c>
-      <c r="G231" s="115"/>
+      <c r="G231" s="113"/>
       <c r="H231" s="96"/>
-      <c r="I231" s="101">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I231" s="196"/>
+      <c r="J231" s="193"/>
+    </row>
+    <row r="232" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="45">
         <v>202</v>
       </c>
@@ -63708,16 +63989,19 @@
       <c r="F232" s="97">
         <v>24</v>
       </c>
-      <c r="G232" s="115">
+      <c r="G232" s="113">
         <v>8</v>
       </c>
       <c r="H232" s="96"/>
-      <c r="I232" s="101">
+      <c r="I232" s="196">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="45">
         <v>203</v>
       </c>
@@ -63736,14 +64020,15 @@
       <c r="F233" s="97">
         <v>12</v>
       </c>
-      <c r="G233" s="115"/>
+      <c r="G233" s="113"/>
       <c r="H233" s="96"/>
-      <c r="I233" s="101">
+      <c r="I233" s="196">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="191"/>
+    </row>
+    <row r="234" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="45">
         <v>204</v>
       </c>
@@ -63762,14 +64047,15 @@
       <c r="F234" s="97">
         <v>12</v>
       </c>
-      <c r="G234" s="115"/>
+      <c r="G234" s="113"/>
       <c r="H234" s="96"/>
-      <c r="I234" s="101">
+      <c r="I234" s="196">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="191"/>
+    </row>
+    <row r="235" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="45">
         <v>205</v>
       </c>
@@ -63788,13 +64074,16 @@
       <c r="F235" s="97">
         <v>1</v>
       </c>
-      <c r="G235" s="115">
+      <c r="G235" s="113">
         <v>9</v>
       </c>
       <c r="H235" s="96"/>
-      <c r="I235" s="101"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I235" s="196"/>
+      <c r="J235" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="45">
         <v>206</v>
       </c>
@@ -63813,14 +64102,15 @@
       <c r="F236" s="97">
         <v>12</v>
       </c>
-      <c r="G236" s="115"/>
+      <c r="G236" s="113"/>
       <c r="H236" s="96"/>
-      <c r="I236" s="101">
+      <c r="I236" s="196">
         <f t="shared" ref="I236:I241" si="12">F236-(G236+H236)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="191"/>
+    </row>
+    <row r="237" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="45">
         <v>207</v>
       </c>
@@ -63839,16 +64129,19 @@
       <c r="F237" s="97">
         <v>48</v>
       </c>
-      <c r="G237" s="115">
+      <c r="G237" s="113">
         <v>24</v>
       </c>
       <c r="H237" s="96"/>
-      <c r="I237" s="101">
+      <c r="I237" s="196">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="45">
         <v>208</v>
       </c>
@@ -63867,16 +64160,19 @@
       <c r="F238" s="97">
         <v>12</v>
       </c>
-      <c r="G238" s="115">
+      <c r="G238" s="113">
         <v>8</v>
       </c>
       <c r="H238" s="96"/>
-      <c r="I238" s="101">
+      <c r="I238" s="196">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="45">
         <v>209</v>
       </c>
@@ -63895,14 +64191,15 @@
       <c r="F239" s="97">
         <v>5</v>
       </c>
-      <c r="G239" s="115"/>
+      <c r="G239" s="113"/>
       <c r="H239" s="96"/>
-      <c r="I239" s="101">
+      <c r="I239" s="196">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="191"/>
+    </row>
+    <row r="240" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="45">
         <v>210</v>
       </c>
@@ -63921,14 +64218,15 @@
       <c r="F240" s="97">
         <v>12</v>
       </c>
-      <c r="G240" s="115"/>
+      <c r="G240" s="113"/>
       <c r="H240" s="96"/>
-      <c r="I240" s="101">
+      <c r="I240" s="196">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="191"/>
+    </row>
+    <row r="241" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="45">
         <v>211</v>
       </c>
@@ -63947,16 +64245,19 @@
       <c r="F241" s="97">
         <v>12</v>
       </c>
-      <c r="G241" s="115">
+      <c r="G241" s="113">
         <v>8</v>
       </c>
       <c r="H241" s="96"/>
-      <c r="I241" s="101">
+      <c r="I241" s="196">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="45">
         <v>212</v>
       </c>
@@ -63975,13 +64276,16 @@
       <c r="F242" s="97">
         <v>12</v>
       </c>
-      <c r="G242" s="115">
+      <c r="G242" s="113">
         <v>17</v>
       </c>
       <c r="H242" s="96"/>
-      <c r="I242" s="101"/>
-    </row>
-    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="I242" s="196"/>
+      <c r="J242" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A243" s="45">
         <v>213</v>
       </c>
@@ -64000,16 +64304,19 @@
       <c r="F243" s="97">
         <v>12</v>
       </c>
-      <c r="G243" s="115">
+      <c r="G243" s="113">
         <v>8</v>
       </c>
       <c r="H243" s="96"/>
-      <c r="I243" s="101">
+      <c r="I243" s="196">
         <f>F243-(G243+H243)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="45">
         <v>214</v>
       </c>
@@ -64028,13 +64335,16 @@
       <c r="F244" s="97">
         <v>12</v>
       </c>
-      <c r="G244" s="115">
+      <c r="G244" s="113">
         <v>17</v>
       </c>
       <c r="H244" s="96"/>
-      <c r="I244" s="101"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I244" s="196"/>
+      <c r="J244" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="45">
         <v>215</v>
       </c>
@@ -64053,14 +64363,15 @@
       <c r="F245" s="97">
         <v>12</v>
       </c>
-      <c r="G245" s="115"/>
+      <c r="G245" s="113"/>
       <c r="H245" s="96"/>
-      <c r="I245" s="101">
+      <c r="I245" s="196">
         <f>F245-(G245+H245)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="191"/>
+    </row>
+    <row r="246" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="45">
         <v>216</v>
       </c>
@@ -64079,13 +64390,16 @@
       <c r="F246" s="97">
         <v>12</v>
       </c>
-      <c r="G246" s="115">
+      <c r="G246" s="113">
         <v>17</v>
       </c>
       <c r="H246" s="96"/>
-      <c r="I246" s="101"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I246" s="196"/>
+      <c r="J246" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="45">
         <v>217</v>
       </c>
@@ -64104,14 +64418,15 @@
       <c r="F247" s="97">
         <v>12</v>
       </c>
-      <c r="G247" s="115"/>
+      <c r="G247" s="113"/>
       <c r="H247" s="96"/>
-      <c r="I247" s="101">
+      <c r="I247" s="196">
         <f>F247-(G247+H247)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="191"/>
+    </row>
+    <row r="248" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="45">
         <v>218</v>
       </c>
@@ -64130,13 +64445,16 @@
       <c r="F248" s="97">
         <v>12</v>
       </c>
-      <c r="G248" s="115">
+      <c r="G248" s="113">
         <v>17</v>
       </c>
       <c r="H248" s="96"/>
-      <c r="I248" s="101"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I248" s="196"/>
+      <c r="J248" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="45">
         <v>219</v>
       </c>
@@ -64155,14 +64473,15 @@
       <c r="F249" s="97">
         <v>25</v>
       </c>
-      <c r="G249" s="115"/>
+      <c r="G249" s="113"/>
       <c r="H249" s="96"/>
-      <c r="I249" s="101">
+      <c r="I249" s="196">
         <f>F249-(G249+H249)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="191"/>
+    </row>
+    <row r="250" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="45">
         <v>220</v>
       </c>
@@ -64181,14 +64500,15 @@
       <c r="F250" s="97">
         <v>8</v>
       </c>
-      <c r="G250" s="115"/>
+      <c r="G250" s="113"/>
       <c r="H250" s="96"/>
-      <c r="I250" s="101">
+      <c r="I250" s="196">
         <f>F250-(G250+H250)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="191"/>
+    </row>
+    <row r="251" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="45">
         <v>221</v>
       </c>
@@ -64207,14 +64527,15 @@
       <c r="F251" s="97">
         <v>12</v>
       </c>
-      <c r="G251" s="115"/>
+      <c r="G251" s="113"/>
       <c r="H251" s="96"/>
-      <c r="I251" s="101">
+      <c r="I251" s="196">
         <f>F251-(G251+H251)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="191"/>
+    </row>
+    <row r="252" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="45">
         <v>222</v>
       </c>
@@ -64233,14 +64554,15 @@
       <c r="F252" s="97">
         <v>16</v>
       </c>
-      <c r="G252" s="115"/>
+      <c r="G252" s="113"/>
       <c r="H252" s="96"/>
-      <c r="I252" s="101">
+      <c r="I252" s="196">
         <f>F252-(G252+H252)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="191"/>
+    </row>
+    <row r="253" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="45">
         <v>223</v>
       </c>
@@ -64259,13 +64581,16 @@
       <c r="F253" s="97">
         <v>12</v>
       </c>
-      <c r="G253" s="115">
+      <c r="G253" s="113">
         <v>17</v>
       </c>
       <c r="H253" s="96"/>
-      <c r="I253" s="101"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I253" s="196"/>
+      <c r="J253" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="45">
         <v>224</v>
       </c>
@@ -64284,16 +64609,16 @@
       <c r="F254" s="97">
         <v>2</v>
       </c>
-      <c r="G254" s="115">
+      <c r="G254" s="113">
         <v>2</v>
       </c>
       <c r="H254" s="96"/>
-      <c r="I254" s="101">
-        <f t="shared" ref="I254:I271" si="13">F254-(G254+H254)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I254" s="196"/>
+      <c r="J254" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="45">
         <v>225</v>
       </c>
@@ -64312,122 +64637,125 @@
       <c r="F255" s="97">
         <v>2</v>
       </c>
-      <c r="G255" s="115"/>
+      <c r="G255" s="113"/>
       <c r="H255" s="96"/>
-      <c r="I255" s="101">
+      <c r="I255" s="196">
+        <f t="shared" ref="I255:I271" si="13">F255-(G255+H255)</f>
+        <v>2</v>
+      </c>
+      <c r="J255" s="191"/>
+    </row>
+    <row r="256" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A256" s="45">
+        <v>226</v>
+      </c>
+      <c r="B256" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C256" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D256" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E256" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F256" s="97">
+        <v>2</v>
+      </c>
+      <c r="G256" s="113"/>
+      <c r="H256" s="96"/>
+      <c r="I256" s="196">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A256" s="45">
-        <v>226</v>
-      </c>
-      <c r="B256" s="49" t="s">
+      <c r="J256" s="191"/>
+    </row>
+    <row r="257" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A257" s="45">
+        <v>227</v>
+      </c>
+      <c r="B257" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C256" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D256" s="82" t="s">
+      <c r="C257" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D257" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E257" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="F257" s="97">
+        <v>2</v>
+      </c>
+      <c r="G257" s="113">
+        <v>2</v>
+      </c>
+      <c r="H257" s="96"/>
+      <c r="I257" s="196"/>
+      <c r="J257" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A258" s="45">
+        <v>228</v>
+      </c>
+      <c r="B258" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C258" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D258" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E258" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F258" s="97">
+        <v>2</v>
+      </c>
+      <c r="G258" s="113">
+        <v>2</v>
+      </c>
+      <c r="H258" s="96"/>
+      <c r="I258" s="196"/>
+      <c r="J258" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A259" s="45">
+        <v>229</v>
+      </c>
+      <c r="B259" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C259" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D259" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="E256" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="F256" s="97">
+      <c r="E259" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="F259" s="97">
         <v>2</v>
       </c>
-      <c r="G256" s="115"/>
-      <c r="H256" s="96"/>
-      <c r="I256" s="101">
+      <c r="G259" s="113"/>
+      <c r="H259" s="96"/>
+      <c r="I259" s="196">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A257" s="45">
-        <v>227</v>
-      </c>
-      <c r="B257" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C257" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D257" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E257" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="F257" s="97">
-        <v>2</v>
-      </c>
-      <c r="G257" s="115">
-        <v>2</v>
-      </c>
-      <c r="H257" s="96"/>
-      <c r="I257" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A258" s="45">
-        <v>228</v>
-      </c>
-      <c r="B258" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C258" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D258" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E258" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="F258" s="97">
-        <v>2</v>
-      </c>
-      <c r="G258" s="115">
-        <v>2</v>
-      </c>
-      <c r="H258" s="96"/>
-      <c r="I258" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="45">
-        <v>229</v>
-      </c>
-      <c r="B259" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="C259" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D259" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="E259" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F259" s="97">
-        <v>2</v>
-      </c>
-      <c r="G259" s="115"/>
-      <c r="H259" s="96"/>
-      <c r="I259" s="101">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="191"/>
+    </row>
+    <row r="260" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="45">
         <v>230</v>
       </c>
@@ -64446,14 +64774,15 @@
       <c r="F260" s="97">
         <v>1</v>
       </c>
-      <c r="G260" s="115"/>
+      <c r="G260" s="113"/>
       <c r="H260" s="96"/>
-      <c r="I260" s="101">
+      <c r="I260" s="196">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="191"/>
+    </row>
+    <row r="261" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="45">
         <v>231</v>
       </c>
@@ -64472,16 +64801,16 @@
       <c r="F261" s="97">
         <v>1</v>
       </c>
-      <c r="G261" s="115">
+      <c r="G261" s="113">
         <v>1</v>
       </c>
       <c r="H261" s="96"/>
-      <c r="I261" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I261" s="196"/>
+      <c r="J261" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="45">
         <v>232</v>
       </c>
@@ -64500,16 +64829,16 @@
       <c r="F262" s="97">
         <v>1</v>
       </c>
-      <c r="G262" s="115">
+      <c r="G262" s="113">
         <v>1</v>
       </c>
       <c r="H262" s="96"/>
-      <c r="I262" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I262" s="196"/>
+      <c r="J262" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="45">
         <v>233</v>
       </c>
@@ -64528,16 +64857,16 @@
       <c r="F263" s="97">
         <v>32</v>
       </c>
-      <c r="G263" s="115">
+      <c r="G263" s="113">
         <v>32</v>
       </c>
       <c r="H263" s="96"/>
-      <c r="I263" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I263" s="196"/>
+      <c r="J263" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="45">
         <v>234</v>
       </c>
@@ -64556,16 +64885,16 @@
       <c r="F264" s="97">
         <v>32</v>
       </c>
-      <c r="G264" s="115">
+      <c r="G264" s="113">
         <v>32</v>
       </c>
       <c r="H264" s="96"/>
-      <c r="I264" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I264" s="196"/>
+      <c r="J264" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="45">
         <v>235</v>
       </c>
@@ -64584,16 +64913,16 @@
       <c r="F265" s="97">
         <v>32</v>
       </c>
-      <c r="G265" s="115">
+      <c r="G265" s="113">
         <v>32</v>
       </c>
       <c r="H265" s="96"/>
-      <c r="I265" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I265" s="196"/>
+      <c r="J265" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="45">
         <v>236</v>
       </c>
@@ -64612,16 +64941,16 @@
       <c r="F266" s="97">
         <v>16</v>
       </c>
-      <c r="G266" s="115">
+      <c r="G266" s="113">
         <v>16</v>
       </c>
       <c r="H266" s="96"/>
-      <c r="I266" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I266" s="196"/>
+      <c r="J266" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="45">
         <v>237</v>
       </c>
@@ -64640,16 +64969,16 @@
       <c r="F267" s="97">
         <v>16</v>
       </c>
-      <c r="G267" s="115">
+      <c r="G267" s="113">
         <v>16</v>
       </c>
       <c r="H267" s="96"/>
-      <c r="I267" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I267" s="196"/>
+      <c r="J267" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="45">
         <v>238</v>
       </c>
@@ -64668,14 +64997,15 @@
       <c r="F268" s="97">
         <v>16</v>
       </c>
-      <c r="G268" s="115"/>
+      <c r="G268" s="113"/>
       <c r="H268" s="96"/>
-      <c r="I268" s="101">
+      <c r="I268" s="196">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="191"/>
+    </row>
+    <row r="269" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="45">
         <v>239</v>
       </c>
@@ -64694,16 +65024,16 @@
       <c r="F269" s="97">
         <v>16</v>
       </c>
-      <c r="G269" s="115">
+      <c r="G269" s="113">
         <v>16</v>
       </c>
       <c r="H269" s="96"/>
-      <c r="I269" s="101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I269" s="196"/>
+      <c r="J269" s="191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="45">
         <v>240</v>
       </c>
@@ -64722,14 +65052,15 @@
       <c r="F270" s="97">
         <v>16</v>
       </c>
-      <c r="G270" s="115"/>
+      <c r="G270" s="113"/>
       <c r="H270" s="96"/>
-      <c r="I270" s="101">
+      <c r="I270" s="196">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270" s="191"/>
+    </row>
+    <row r="271" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="45">
         <v>241</v>
       </c>
@@ -64748,41 +65079,42 @@
       <c r="F271" s="97">
         <v>16</v>
       </c>
-      <c r="G271" s="115"/>
+      <c r="G271" s="113"/>
       <c r="H271" s="96"/>
-      <c r="I271" s="101">
+      <c r="I271" s="196">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F272" s="109">
+      <c r="J271" s="195"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F272" s="108">
         <f t="shared" ref="F272" si="14">SUM(F31:F271)</f>
         <v>4050</v>
       </c>
-      <c r="G272" s="110">
+      <c r="G272" s="109">
         <f>SUM(G31:G271)</f>
-        <v>2101</v>
-      </c>
-      <c r="H272" s="110">
+        <v>2104</v>
+      </c>
+      <c r="H272" s="109">
         <f>SUM(H31:H271)</f>
-        <v>70</v>
-      </c>
-      <c r="I272" s="113">
+        <v>87</v>
+      </c>
+      <c r="I272" s="198">
         <f>SUM(I31:I271)</f>
-        <v>2013</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="273" spans="5:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G273" s="111" t="s">
+      <c r="G273" s="110" t="s">
+        <v>665</v>
+      </c>
+      <c r="H273" s="111">
+        <f>G272+H272</f>
+        <v>2191</v>
+      </c>
+      <c r="I273" s="112" t="s">
         <v>666</v>
-      </c>
-      <c r="H273" s="112">
-        <f>G272+H272</f>
-        <v>2171</v>
-      </c>
-      <c r="I273" s="114" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="276" spans="5:9" x14ac:dyDescent="0.2">
@@ -64822,6 +65154,37 @@
     <sortCondition ref="D43:D271"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -64838,38 +65201,22 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
+  <conditionalFormatting sqref="J111">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pendiente">
+      <formula>NOT(ISERROR(SEARCH("pendiente",J111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J202:J270 J162:J200 J31:J110 J112:J114 J116:J160">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pendiente">
+      <formula>NOT(ISERROR(SEARCH("pendiente",J31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pendiente">
+      <formula>NOT(ISERROR(SEARCH("pendiente",J115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>

--- a/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
+++ b/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\DAPRE\CDI-Apartadó\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8DFB3-CC44-4C37-A134-D735F9E3EAEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B9D68-0622-4D5A-9915-3435D7931635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FORMULACION!$A$2:$Q$1199</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MínimosRequeridos!$A$30:$J$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MínimosRequeridos!$A$30:$J$275</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">MínimosRequeridos!$A$1:$I$271</definedName>
     <definedName name="Clima">#REF!</definedName>
     <definedName name="Regional" localSheetId="2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8292" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="691">
   <si>
     <t>N°</t>
   </si>
@@ -2179,30 +2179,35 @@
     <t>Cantidad mínima pendiente por adquirir</t>
   </si>
   <si>
-    <t>Adquirido Dapre - Grandes Superficies. Dapre aquirió 6,  a través de Fundación Plan en el marco del convenio 007/16 se comprarán 2 unidades adicionales.</t>
-  </si>
-  <si>
     <t>Adquirido Dapre - AMP Dotación Escolar: 8 unidades</t>
   </si>
   <si>
-    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 77 mesas para aulas de tres puestos, pendiente adquirir 20 unidades adicionales.
-Se deben adquirir de las mismas características de las compradas por DAPRE.
-Pendiente adquirir 35 mesas adicionales para comedor de cuatro puestos.</t>
-  </si>
-  <si>
-    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 231 sillas para aulas, pendiente adquirir 60 unidades, se deben adquirir de la mismas características de las compradas por el DAPRE. Plan también debe adquirir 150 sillas para comedor.</t>
-  </si>
-  <si>
-    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 3, Plan comprará 1</t>
-  </si>
-  <si>
-    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 2, Plan comprará 10</t>
-  </si>
-  <si>
     <t>Adquirido Dapre - AMP Elementos para emergencias . Metros de área construida 2028</t>
   </si>
   <si>
     <t>El profesional de la Consejería  Presidencial para la Primera Infancia que hizo el acompañamiento del proyecto y que conoce las estufas industriales que el contratista de obra instaló afirma que para este proyecto NO SE REQUIERE ESTUFA ENANA DE 1 PUESTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquirido Dapre - Grandes Superficies. </t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 77 mesas  de tres puestos para aulas , pendiente adquirir 20 unidades adicionales.
+Se deben adquirir de las mismas características de las compradas por DAPRE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquirido Dapre - AMP Dotación Escolar. Dapre adquirió 231 sillas para aulas, pendiente adquirir 60 unidades, se deben adquirir de la mismas características de las compradas por el DAPRE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquirido Dapre - AMP Dotación Escolar. </t>
+  </si>
+  <si>
+    <t>Se sugiere la adquisición de 35 mesas para comedor de cuatro puestos.</t>
+  </si>
+  <si>
+    <t>Se sugiere la adqiuisición de 150 sillas para comedor.</t>
+  </si>
+  <si>
+    <t>Adquirido Dapre - Grandes Superficies. Las Aulas cuentan con ventilación tal vez no se requieran los 20 ventiladores.</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2218,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -2914,7 +2919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3252,6 +3257,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3284,6 +3338,123 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3339,15 +3510,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3357,140 +3519,8 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5934,7 +5964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -6307,25 +6337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="143" t="s">
         <v>485</v>
       </c>
       <c r="H1" s="53"/>
@@ -6347,18 +6377,18 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="136" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="125"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="144"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6377,25 +6407,25 @@
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="N2" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="139" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="118"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="126"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="145"/>
       <c r="H3" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -6420,13 +6450,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="121"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="140"/>
       <c r="P3" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q3" s="119"/>
+      <c r="Q3" s="138"/>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -58024,14 +58054,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Hoja3">
+  <sheetPr codeName="Hoja3" filterMode="1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="E39" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58045,7 +58075,7 @@
     <col min="7" max="7" width="14.140625" style="42" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="42" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" style="188" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" style="117" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
@@ -58058,352 +58088,352 @@
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="186" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="188" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="192" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="163" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="183" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176">
+      <c r="B8" s="184"/>
+      <c r="C8" s="185">
         <f ca="1">TODAY()</f>
         <v>43481</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="149" t="s">
         <v>649</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="179" t="s">
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="149" t="s">
         <v>491</v>
       </c>
-      <c r="F9" s="180"/>
+      <c r="F9" s="150"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="203"/>
       <c r="D10" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="138"/>
+      <c r="F10" s="196"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="177" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="91" t="s">
         <v>657</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="140"/>
+      <c r="F11" s="198"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="204" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="140"/>
+      <c r="F12" s="198"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="140"/>
+      <c r="F13" s="198"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="174" t="s">
         <v>648</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
       <c r="D14" s="92" t="s">
         <v>656</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="200"/>
     </row>
     <row r="15" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="177" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="J15" s="189"/>
+      <c r="F15" s="198"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="177" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="91">
         <v>2028</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="197" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="J16" s="189"/>
+      <c r="F16" s="198"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="93">
         <v>1690</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="J17" s="189"/>
+      <c r="F17" s="194"/>
+      <c r="J17" s="118"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="169" t="s">
         <v>652</v>
       </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="J18" s="189"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="152" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="164" t="s">
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="170" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="J19" s="189"/>
+      <c r="F19" s="171"/>
+      <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="166">
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="172">
         <v>47</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="J20" s="189"/>
+      <c r="F20" s="173"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="156">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="161">
         <v>725</v>
       </c>
-      <c r="F21" s="157"/>
-      <c r="J21" s="189"/>
+      <c r="F21" s="162"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="155" t="s">
         <v>654</v>
       </c>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="156">
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="161">
         <v>4</v>
       </c>
-      <c r="F22" s="157"/>
-      <c r="J22" s="189"/>
+      <c r="F22" s="162"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="156">
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="161">
         <v>30</v>
       </c>
-      <c r="F23" s="157"/>
-      <c r="J23" s="189"/>
+      <c r="F23" s="162"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="155" t="s">
         <v>659</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="156">
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="161">
         <v>883</v>
       </c>
-      <c r="F24" s="157"/>
-      <c r="J24" s="189"/>
+      <c r="F24" s="162"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="155" t="s">
         <v>655</v>
       </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="156">
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="161">
         <v>1285</v>
       </c>
-      <c r="F25" s="157"/>
-      <c r="J25" s="189"/>
+      <c r="F25" s="162"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="156">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="161">
         <v>1048</v>
       </c>
-      <c r="F26" s="157"/>
-      <c r="J26" s="189"/>
+      <c r="F26" s="162"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="156">
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="161">
         <v>28</v>
       </c>
-      <c r="F27" s="157"/>
-      <c r="J27" s="189"/>
+      <c r="F27" s="162"/>
+      <c r="J27" s="118"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="158">
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="167">
         <v>4050</v>
       </c>
-      <c r="F28" s="159"/>
-      <c r="J28" s="189"/>
+      <c r="F28" s="168"/>
+      <c r="J28" s="118"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="147" t="s">
         <v>653</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="J29" s="189"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="J29" s="118"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
@@ -58433,11 +58463,11 @@
       <c r="I30" s="100" t="s">
         <v>680</v>
       </c>
-      <c r="J30" s="190" t="s">
+      <c r="J30" s="119" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>1</v>
       </c>
@@ -58458,11 +58488,11 @@
       </c>
       <c r="G31" s="113"/>
       <c r="H31" s="96"/>
-      <c r="I31" s="196">
+      <c r="I31" s="125">
         <f>F31-(G31+H31)</f>
         <v>3</v>
       </c>
-      <c r="J31" s="191"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
@@ -58487,8 +58517,8 @@
         <v>3</v>
       </c>
       <c r="H32" s="96"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="191" t="s">
+      <c r="I32" s="125"/>
+      <c r="J32" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -58515,8 +58545,8 @@
         <v>2</v>
       </c>
       <c r="H33" s="96"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="191" t="s">
+      <c r="I33" s="125"/>
+      <c r="J33" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -58543,8 +58573,8 @@
         <v>2</v>
       </c>
       <c r="H34" s="96"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="191" t="s">
+      <c r="I34" s="125"/>
+      <c r="J34" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -58571,12 +58601,12 @@
         <v>2</v>
       </c>
       <c r="H35" s="96"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="191" t="s">
+      <c r="I35" s="125"/>
+      <c r="J35" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>6</v>
       </c>
@@ -58597,15 +58627,15 @@
       </c>
       <c r="G36" s="113"/>
       <c r="H36" s="96"/>
-      <c r="I36" s="196">
+      <c r="I36" s="125">
         <f t="shared" ref="I36:I51" si="0">F36-(G36+H36)</f>
         <v>15</v>
       </c>
-      <c r="J36" s="197" t="s">
+      <c r="J36" s="126" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>7</v>
       </c>
@@ -58626,13 +58656,13 @@
       </c>
       <c r="G37" s="113"/>
       <c r="H37" s="96"/>
-      <c r="I37" s="196">
+      <c r="I37" s="125">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J37" s="191"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J37" s="120"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>8</v>
       </c>
@@ -58653,11 +58683,11 @@
       </c>
       <c r="G38" s="113"/>
       <c r="H38" s="96"/>
-      <c r="I38" s="196">
+      <c r="I38" s="125">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J38" s="191"/>
+      <c r="J38" s="120"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="45">
@@ -58682,8 +58712,8 @@
         <v>2</v>
       </c>
       <c r="H39" s="96"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="191" t="s">
+      <c r="I39" s="125"/>
+      <c r="J39" s="120" t="s">
         <v>672</v>
       </c>
     </row>
@@ -58710,8 +58740,8 @@
         <v>2</v>
       </c>
       <c r="H40" s="96"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="191" t="s">
+      <c r="I40" s="125"/>
+      <c r="J40" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -58738,8 +58768,8 @@
         <v>2</v>
       </c>
       <c r="H41" s="96"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="191" t="s">
+      <c r="I41" s="125"/>
+      <c r="J41" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -58766,12 +58796,12 @@
         <v>2</v>
       </c>
       <c r="H42" s="96"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="191" t="s">
+      <c r="I42" s="125"/>
+      <c r="J42" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>13</v>
       </c>
@@ -58790,14 +58820,14 @@
       <c r="F43" s="102">
         <v>1</v>
       </c>
-      <c r="G43" s="113">
+      <c r="G43" s="113"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="125">
         <v>1</v>
       </c>
-      <c r="H43" s="96"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="191"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J43" s="120"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>14</v>
       </c>
@@ -58818,11 +58848,11 @@
       </c>
       <c r="G44" s="113"/>
       <c r="H44" s="96"/>
-      <c r="I44" s="196">
+      <c r="I44" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J44" s="191"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
@@ -58847,12 +58877,12 @@
         <v>2</v>
       </c>
       <c r="H45" s="96"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="191" t="s">
+      <c r="I45" s="125"/>
+      <c r="J45" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>16</v>
       </c>
@@ -58873,13 +58903,13 @@
       </c>
       <c r="G46" s="113"/>
       <c r="H46" s="96"/>
-      <c r="I46" s="196">
+      <c r="I46" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J46" s="191"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J46" s="120"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>17</v>
       </c>
@@ -58900,13 +58930,13 @@
       </c>
       <c r="G47" s="113"/>
       <c r="H47" s="96"/>
-      <c r="I47" s="196">
+      <c r="I47" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J47" s="191"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J47" s="120"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>18</v>
       </c>
@@ -58927,13 +58957,13 @@
       </c>
       <c r="G48" s="113"/>
       <c r="H48" s="96"/>
-      <c r="I48" s="196">
+      <c r="I48" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J48" s="191"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J48" s="120"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>19</v>
       </c>
@@ -58954,13 +58984,13 @@
       </c>
       <c r="G49" s="113"/>
       <c r="H49" s="96"/>
-      <c r="I49" s="196">
+      <c r="I49" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J49" s="191"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J49" s="120"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>20</v>
       </c>
@@ -58981,13 +59011,13 @@
       </c>
       <c r="G50" s="113"/>
       <c r="H50" s="96"/>
-      <c r="I50" s="196">
+      <c r="I50" s="125">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J50" s="191"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J50" s="120"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>21</v>
       </c>
@@ -59008,11 +59038,11 @@
       </c>
       <c r="G51" s="113"/>
       <c r="H51" s="96"/>
-      <c r="I51" s="196">
+      <c r="I51" s="125">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="J51" s="191"/>
+      <c r="J51" s="120"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
@@ -59037,12 +59067,12 @@
         <v>82</v>
       </c>
       <c r="H52" s="96"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="191" t="s">
+      <c r="I52" s="125"/>
+      <c r="J52" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>23</v>
       </c>
@@ -59063,10 +59093,10 @@
       </c>
       <c r="G53" s="113"/>
       <c r="H53" s="96"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="191"/>
-    </row>
-    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I53" s="125"/>
+      <c r="J53" s="120"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>24</v>
       </c>
@@ -59087,11 +59117,11 @@
       </c>
       <c r="G54" s="113"/>
       <c r="H54" s="96"/>
-      <c r="I54" s="196">
+      <c r="I54" s="125">
         <f t="shared" ref="I54:I84" si="1">F54-(G54+H54)</f>
         <v>20</v>
       </c>
-      <c r="J54" s="191"/>
+      <c r="J54" s="120"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
@@ -59116,12 +59146,12 @@
         <v>1</v>
       </c>
       <c r="H55" s="96"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="191" t="s">
+      <c r="I55" s="125"/>
+      <c r="J55" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>26</v>
       </c>
@@ -59142,14 +59172,14 @@
       </c>
       <c r="G56" s="113"/>
       <c r="H56" s="96"/>
-      <c r="I56" s="196">
+      <c r="I56" s="125">
         <v>1</v>
       </c>
-      <c r="J56" s="191" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J56" s="120" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="45">
         <v>27</v>
       </c>
@@ -59170,8 +59200,8 @@
       </c>
       <c r="G57" s="113"/>
       <c r="H57" s="96"/>
-      <c r="I57" s="196"/>
-      <c r="J57" s="191"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="120"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
@@ -59196,12 +59226,12 @@
         <v>1</v>
       </c>
       <c r="H58" s="96"/>
-      <c r="I58" s="196"/>
-      <c r="J58" s="191" t="s">
+      <c r="I58" s="125"/>
+      <c r="J58" s="126" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>29</v>
       </c>
@@ -59222,10 +59252,10 @@
       </c>
       <c r="G59" s="113"/>
       <c r="H59" s="96"/>
-      <c r="I59" s="196"/>
-      <c r="J59" s="191"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I59" s="125"/>
+      <c r="J59" s="120"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>30</v>
       </c>
@@ -59246,11 +59276,11 @@
       </c>
       <c r="G60" s="113"/>
       <c r="H60" s="96"/>
-      <c r="I60" s="196">
+      <c r="I60" s="125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J60" s="191"/>
+      <c r="J60" s="120"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="45">
@@ -59275,8 +59305,8 @@
         <v>1</v>
       </c>
       <c r="H61" s="96"/>
-      <c r="I61" s="196"/>
-      <c r="J61" s="191" t="s">
+      <c r="I61" s="125"/>
+      <c r="J61" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -59303,8 +59333,8 @@
         <v>1</v>
       </c>
       <c r="H62" s="96"/>
-      <c r="I62" s="196"/>
-      <c r="J62" s="191" t="s">
+      <c r="I62" s="125"/>
+      <c r="J62" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -59331,12 +59361,12 @@
         <v>1</v>
       </c>
       <c r="H63" s="96"/>
-      <c r="I63" s="196"/>
-      <c r="J63" s="191" t="s">
+      <c r="I63" s="125"/>
+      <c r="J63" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>34</v>
       </c>
@@ -59357,13 +59387,13 @@
       </c>
       <c r="G64" s="113"/>
       <c r="H64" s="96"/>
-      <c r="I64" s="196">
+      <c r="I64" s="125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J64" s="191"/>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J64" s="120"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>35</v>
       </c>
@@ -59384,13 +59414,13 @@
       </c>
       <c r="G65" s="113"/>
       <c r="H65" s="96"/>
-      <c r="I65" s="196">
+      <c r="I65" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J65" s="191"/>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J65" s="120"/>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>36</v>
       </c>
@@ -59413,10 +59443,10 @@
       <c r="H66" s="96">
         <v>1</v>
       </c>
-      <c r="I66" s="196"/>
-      <c r="J66" s="191"/>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I66" s="125"/>
+      <c r="J66" s="120"/>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>37</v>
       </c>
@@ -59437,8 +59467,8 @@
       </c>
       <c r="G67" s="113"/>
       <c r="H67" s="96"/>
-      <c r="I67" s="196"/>
-      <c r="J67" s="191"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="45">
@@ -59463,12 +59493,12 @@
         <v>1</v>
       </c>
       <c r="H68" s="96"/>
-      <c r="I68" s="196"/>
-      <c r="J68" s="191" t="s">
+      <c r="I68" s="125"/>
+      <c r="J68" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>39</v>
       </c>
@@ -59489,13 +59519,13 @@
       </c>
       <c r="G69" s="113"/>
       <c r="H69" s="96"/>
-      <c r="I69" s="196">
+      <c r="I69" s="125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J69" s="191"/>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J69" s="120"/>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>40</v>
       </c>
@@ -59506,7 +59536,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E70" s="70" t="s">
         <v>334</v>
@@ -59518,10 +59548,10 @@
       <c r="H70" s="96">
         <v>2</v>
       </c>
-      <c r="I70" s="196"/>
-      <c r="J70" s="191"/>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I70" s="125"/>
+      <c r="J70" s="120"/>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>41</v>
       </c>
@@ -59532,7 +59562,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71" s="70" t="s">
         <v>390</v>
@@ -59542,11 +59572,11 @@
       </c>
       <c r="G71" s="113"/>
       <c r="H71" s="96"/>
-      <c r="I71" s="196">
+      <c r="I71" s="125">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J71" s="191"/>
+      <c r="J71" s="120"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
@@ -59571,12 +59601,12 @@
         <v>4</v>
       </c>
       <c r="H72" s="96"/>
-      <c r="I72" s="196"/>
-      <c r="J72" s="191" t="s">
+      <c r="I72" s="125"/>
+      <c r="J72" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>43</v>
       </c>
@@ -59597,13 +59627,13 @@
       </c>
       <c r="G73" s="113"/>
       <c r="H73" s="96"/>
-      <c r="I73" s="196">
+      <c r="I73" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J73" s="191"/>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J73" s="120"/>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>44</v>
       </c>
@@ -59624,13 +59654,13 @@
       </c>
       <c r="G74" s="113"/>
       <c r="H74" s="96"/>
-      <c r="I74" s="196">
+      <c r="I74" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J74" s="191"/>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J74" s="120"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>45</v>
       </c>
@@ -59651,13 +59681,13 @@
       </c>
       <c r="G75" s="113"/>
       <c r="H75" s="96"/>
-      <c r="I75" s="196">
+      <c r="I75" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J75" s="191"/>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J75" s="120"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>46</v>
       </c>
@@ -59678,13 +59708,13 @@
       </c>
       <c r="G76" s="113"/>
       <c r="H76" s="96"/>
-      <c r="I76" s="196">
+      <c r="I76" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J76" s="191"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J76" s="120"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="45">
         <v>47</v>
       </c>
@@ -59705,13 +59735,13 @@
       </c>
       <c r="G77" s="113"/>
       <c r="H77" s="96"/>
-      <c r="I77" s="196">
+      <c r="I77" s="125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J77" s="191"/>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J77" s="120"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>48</v>
       </c>
@@ -59732,11 +59762,11 @@
       </c>
       <c r="G78" s="113"/>
       <c r="H78" s="96"/>
-      <c r="I78" s="196">
+      <c r="I78" s="125">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J78" s="191"/>
+      <c r="J78" s="120"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="45">
@@ -59761,12 +59791,12 @@
         <v>4</v>
       </c>
       <c r="H79" s="96"/>
-      <c r="I79" s="196"/>
-      <c r="J79" s="191" t="s">
+      <c r="I79" s="125"/>
+      <c r="J79" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>50</v>
       </c>
@@ -59787,13 +59817,13 @@
       </c>
       <c r="G80" s="113"/>
       <c r="H80" s="96"/>
-      <c r="I80" s="196">
+      <c r="I80" s="125">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J80" s="191"/>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J80" s="120"/>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>51</v>
       </c>
@@ -59814,13 +59844,13 @@
       </c>
       <c r="G81" s="113"/>
       <c r="H81" s="96"/>
-      <c r="I81" s="196">
+      <c r="I81" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J81" s="191"/>
-    </row>
-    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J81" s="120"/>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>52</v>
       </c>
@@ -59841,13 +59871,13 @@
       </c>
       <c r="G82" s="113"/>
       <c r="H82" s="96"/>
-      <c r="I82" s="196">
+      <c r="I82" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J82" s="191"/>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J82" s="120"/>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>53</v>
       </c>
@@ -59868,13 +59898,13 @@
       </c>
       <c r="G83" s="113"/>
       <c r="H83" s="96"/>
-      <c r="I83" s="196">
+      <c r="I83" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J83" s="191"/>
-    </row>
-    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J83" s="120"/>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>54</v>
       </c>
@@ -59895,13 +59925,13 @@
       </c>
       <c r="G84" s="113"/>
       <c r="H84" s="96"/>
-      <c r="I84" s="196">
+      <c r="I84" s="125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J84" s="191"/>
-    </row>
-    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J84" s="120"/>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>55</v>
       </c>
@@ -59922,13 +59952,13 @@
       </c>
       <c r="G85" s="113"/>
       <c r="H85" s="96"/>
-      <c r="I85" s="196">
+      <c r="I85" s="125">
         <f t="shared" ref="I85:I108" si="2">F85-(G85+H85)</f>
         <v>2</v>
       </c>
-      <c r="J85" s="191"/>
-    </row>
-    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J85" s="120"/>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>56</v>
       </c>
@@ -59949,13 +59979,13 @@
       </c>
       <c r="G86" s="113"/>
       <c r="H86" s="96"/>
-      <c r="I86" s="196">
+      <c r="I86" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J86" s="191"/>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J86" s="120"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="45">
         <v>57</v>
       </c>
@@ -59976,13 +60006,13 @@
       </c>
       <c r="G87" s="113"/>
       <c r="H87" s="96"/>
-      <c r="I87" s="196">
+      <c r="I87" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J87" s="191"/>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J87" s="120"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="45">
         <v>58</v>
       </c>
@@ -60003,13 +60033,13 @@
       </c>
       <c r="G88" s="113"/>
       <c r="H88" s="96"/>
-      <c r="I88" s="196">
+      <c r="I88" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J88" s="191"/>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J88" s="120"/>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="45">
         <v>59</v>
       </c>
@@ -60030,13 +60060,13 @@
       </c>
       <c r="G89" s="113"/>
       <c r="H89" s="96"/>
-      <c r="I89" s="196">
+      <c r="I89" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J89" s="191"/>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J89" s="120"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
         <v>60</v>
       </c>
@@ -60057,13 +60087,13 @@
       </c>
       <c r="G90" s="113"/>
       <c r="H90" s="96"/>
-      <c r="I90" s="196">
+      <c r="I90" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J90" s="191"/>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J90" s="120"/>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="45">
         <v>61</v>
       </c>
@@ -60084,11 +60114,11 @@
       </c>
       <c r="G91" s="113"/>
       <c r="H91" s="96"/>
-      <c r="I91" s="196">
+      <c r="I91" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J91" s="191"/>
+      <c r="J91" s="120"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="45">
@@ -60113,12 +60143,12 @@
         <v>2</v>
       </c>
       <c r="H92" s="96"/>
-      <c r="I92" s="196"/>
-      <c r="J92" s="191" t="s">
+      <c r="I92" s="125"/>
+      <c r="J92" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="45">
         <v>63</v>
       </c>
@@ -60139,13 +60169,13 @@
       </c>
       <c r="G93" s="113"/>
       <c r="H93" s="96"/>
-      <c r="I93" s="196">
+      <c r="I93" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J93" s="191"/>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J93" s="120"/>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
         <v>64</v>
       </c>
@@ -60166,11 +60196,11 @@
       </c>
       <c r="G94" s="113"/>
       <c r="H94" s="96"/>
-      <c r="I94" s="196">
+      <c r="I94" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J94" s="191"/>
+      <c r="J94" s="120"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="45">
@@ -60195,12 +60225,12 @@
         <v>2</v>
       </c>
       <c r="H95" s="96"/>
-      <c r="I95" s="196"/>
-      <c r="J95" s="191" t="s">
+      <c r="I95" s="125"/>
+      <c r="J95" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>66</v>
       </c>
@@ -60221,13 +60251,13 @@
       </c>
       <c r="G96" s="113"/>
       <c r="H96" s="96"/>
-      <c r="I96" s="196">
+      <c r="I96" s="125">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J96" s="191"/>
-    </row>
-    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J96" s="120"/>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>67</v>
       </c>
@@ -60248,11 +60278,11 @@
       </c>
       <c r="G97" s="113"/>
       <c r="H97" s="96"/>
-      <c r="I97" s="196">
+      <c r="I97" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J97" s="191"/>
+      <c r="J97" s="120"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="45">
@@ -60277,12 +60307,12 @@
         <v>5</v>
       </c>
       <c r="H98" s="96"/>
-      <c r="I98" s="196"/>
-      <c r="J98" s="191" t="s">
+      <c r="I98" s="125"/>
+      <c r="J98" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="45">
         <v>69</v>
       </c>
@@ -60303,13 +60333,13 @@
       </c>
       <c r="G99" s="113"/>
       <c r="H99" s="96"/>
-      <c r="I99" s="196">
+      <c r="I99" s="125">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="J99" s="191"/>
-    </row>
-    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J99" s="120"/>
+    </row>
+    <row r="100" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>70</v>
       </c>
@@ -60330,13 +60360,13 @@
       </c>
       <c r="G100" s="113"/>
       <c r="H100" s="96"/>
-      <c r="I100" s="196">
+      <c r="I100" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J100" s="191"/>
-    </row>
-    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J100" s="120"/>
+    </row>
+    <row r="101" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="45">
         <v>71</v>
       </c>
@@ -60357,13 +60387,13 @@
       </c>
       <c r="G101" s="113"/>
       <c r="H101" s="96"/>
-      <c r="I101" s="196">
+      <c r="I101" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J101" s="191"/>
-    </row>
-    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J101" s="120"/>
+    </row>
+    <row r="102" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
         <v>72</v>
       </c>
@@ -60384,13 +60414,13 @@
       </c>
       <c r="G102" s="113"/>
       <c r="H102" s="96"/>
-      <c r="I102" s="196">
+      <c r="I102" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J102" s="191"/>
-    </row>
-    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J102" s="120"/>
+    </row>
+    <row r="103" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="45">
         <v>73</v>
       </c>
@@ -60411,13 +60441,13 @@
       </c>
       <c r="G103" s="113"/>
       <c r="H103" s="96"/>
-      <c r="I103" s="196">
+      <c r="I103" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J103" s="191"/>
-    </row>
-    <row r="104" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+      <c r="J103" s="120"/>
+    </row>
+    <row r="104" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="45">
         <v>74</v>
       </c>
@@ -60440,9 +60470,9 @@
         <v>6</v>
       </c>
       <c r="H104" s="96"/>
-      <c r="I104" s="196"/>
-      <c r="J104" s="191" t="s">
-        <v>681</v>
+      <c r="I104" s="125"/>
+      <c r="J104" s="120" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -60468,12 +60498,12 @@
         <v>1</v>
       </c>
       <c r="H105" s="96"/>
-      <c r="I105" s="196"/>
-      <c r="J105" s="191" t="s">
+      <c r="I105" s="125"/>
+      <c r="J105" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
         <v>76</v>
       </c>
@@ -60494,11 +60524,11 @@
       </c>
       <c r="G106" s="113"/>
       <c r="H106" s="96"/>
-      <c r="I106" s="196">
+      <c r="I106" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J106" s="191"/>
+      <c r="J106" s="120"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="45">
@@ -60523,12 +60553,12 @@
         <v>1</v>
       </c>
       <c r="H107" s="96"/>
-      <c r="I107" s="196"/>
-      <c r="J107" s="191" t="s">
+      <c r="I107" s="125"/>
+      <c r="J107" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="45">
         <v>78</v>
       </c>
@@ -60551,12 +60581,12 @@
         <v>3</v>
       </c>
       <c r="H108" s="96"/>
-      <c r="I108" s="196">
+      <c r="I108" s="125">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J108" s="191" t="s">
-        <v>671</v>
+      <c r="J108" s="120" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -60582,12 +60612,12 @@
         <v>1</v>
       </c>
       <c r="H109" s="96"/>
-      <c r="I109" s="196"/>
-      <c r="J109" s="191" t="s">
+      <c r="I109" s="125"/>
+      <c r="J109" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="45">
         <v>80</v>
       </c>
@@ -60610,8 +60640,8 @@
       <c r="H110" s="96">
         <v>10</v>
       </c>
-      <c r="I110" s="196"/>
-      <c r="J110" s="192"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="121"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="45">
@@ -60636,12 +60666,12 @@
         <v>280</v>
       </c>
       <c r="H111" s="96"/>
-      <c r="I111" s="196"/>
-      <c r="J111" s="192" t="s">
+      <c r="I111" s="125"/>
+      <c r="J111" s="121" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="45">
         <v>82</v>
       </c>
@@ -60662,11 +60692,11 @@
       </c>
       <c r="G112" s="113"/>
       <c r="H112" s="96"/>
-      <c r="I112" s="196">
+      <c r="I112" s="125">
         <f>F112-(G112+H112)</f>
         <v>2</v>
       </c>
-      <c r="J112" s="192"/>
+      <c r="J112" s="121"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="45">
@@ -60691,12 +60721,12 @@
         <v>1</v>
       </c>
       <c r="H113" s="96"/>
-      <c r="I113" s="196"/>
-      <c r="J113" s="192" t="s">
+      <c r="I113" s="125"/>
+      <c r="J113" s="121" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="45">
         <v>84</v>
       </c>
@@ -60717,8 +60747,8 @@
       </c>
       <c r="G114" s="113"/>
       <c r="H114" s="96"/>
-      <c r="I114" s="196"/>
-      <c r="J114" s="191"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="120"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="45">
@@ -60743,12 +60773,12 @@
         <v>8</v>
       </c>
       <c r="H115" s="96"/>
-      <c r="I115" s="196"/>
-      <c r="J115" s="192" t="s">
+      <c r="I115" s="125"/>
+      <c r="J115" s="121" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="45">
         <v>86</v>
       </c>
@@ -60769,10 +60799,10 @@
       </c>
       <c r="G116" s="113"/>
       <c r="H116" s="96"/>
-      <c r="I116" s="196"/>
-      <c r="J116" s="191"/>
-    </row>
-    <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I116" s="125"/>
+      <c r="J116" s="120"/>
+    </row>
+    <row r="117" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>87</v>
       </c>
@@ -60793,10 +60823,10 @@
       </c>
       <c r="G117" s="113"/>
       <c r="H117" s="96"/>
-      <c r="I117" s="196"/>
-      <c r="J117" s="192"/>
-    </row>
-    <row r="118" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I117" s="125"/>
+      <c r="J117" s="121"/>
+    </row>
+    <row r="118" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
         <v>88</v>
       </c>
@@ -60817,8 +60847,8 @@
       </c>
       <c r="G118" s="113"/>
       <c r="H118" s="96"/>
-      <c r="I118" s="196"/>
-      <c r="J118" s="192"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="121"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="45">
@@ -60843,8 +60873,8 @@
         <v>560</v>
       </c>
       <c r="H119" s="96"/>
-      <c r="I119" s="196"/>
-      <c r="J119" s="192" t="s">
+      <c r="I119" s="125"/>
+      <c r="J119" s="121" t="s">
         <v>674</v>
       </c>
     </row>
@@ -60871,12 +60901,12 @@
         <v>50</v>
       </c>
       <c r="H120" s="96"/>
-      <c r="I120" s="196"/>
-      <c r="J120" s="192" t="s">
+      <c r="I120" s="125"/>
+      <c r="J120" s="121" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="45">
         <v>91</v>
       </c>
@@ -60897,15 +60927,15 @@
       </c>
       <c r="G121" s="113"/>
       <c r="H121" s="96"/>
-      <c r="I121" s="196">
+      <c r="I121" s="125">
         <f t="shared" ref="I121:I131" si="3">F121-(G121+H121)</f>
         <v>80</v>
       </c>
-      <c r="J121" s="197" t="s">
+      <c r="J121" s="126" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="45">
         <v>92</v>
       </c>
@@ -60926,13 +60956,13 @@
       </c>
       <c r="G122" s="113"/>
       <c r="H122" s="96"/>
-      <c r="I122" s="196">
+      <c r="I122" s="125">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="J122" s="191"/>
-    </row>
-    <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J122" s="120"/>
+    </row>
+    <row r="123" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="45">
         <v>93</v>
       </c>
@@ -60953,13 +60983,13 @@
       </c>
       <c r="G123" s="113"/>
       <c r="H123" s="96"/>
-      <c r="I123" s="196">
+      <c r="I123" s="125">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J123" s="191"/>
-    </row>
-    <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J123" s="120"/>
+    </row>
+    <row r="124" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="45">
         <v>94</v>
       </c>
@@ -60980,10 +61010,10 @@
       </c>
       <c r="G124" s="113"/>
       <c r="H124" s="96"/>
-      <c r="I124" s="196"/>
-      <c r="J124" s="191"/>
-    </row>
-    <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I124" s="125"/>
+      <c r="J124" s="120"/>
+    </row>
+    <row r="125" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="45">
         <v>95</v>
       </c>
@@ -61004,11 +61034,11 @@
       </c>
       <c r="G125" s="113"/>
       <c r="H125" s="96"/>
-      <c r="I125" s="196">
+      <c r="I125" s="125">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J125" s="191"/>
+      <c r="J125" s="120"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="45">
@@ -61033,15 +61063,15 @@
         <v>8</v>
       </c>
       <c r="H126" s="96"/>
-      <c r="I126" s="196">
+      <c r="I126" s="125">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J126" s="191" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J126" s="120" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>97</v>
       </c>
@@ -61064,10 +61094,10 @@
       <c r="H127" s="96">
         <v>17</v>
       </c>
-      <c r="I127" s="196"/>
-      <c r="J127" s="191"/>
-    </row>
-    <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I127" s="125"/>
+      <c r="J127" s="120"/>
+    </row>
+    <row r="128" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="45">
         <v>98</v>
       </c>
@@ -61088,13 +61118,13 @@
       </c>
       <c r="G128" s="113"/>
       <c r="H128" s="96"/>
-      <c r="I128" s="196">
+      <c r="I128" s="125">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J128" s="191"/>
-    </row>
-    <row r="129" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J128" s="120"/>
+    </row>
+    <row r="129" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="45">
         <v>99</v>
       </c>
@@ -61115,13 +61145,13 @@
       </c>
       <c r="G129" s="113"/>
       <c r="H129" s="96"/>
-      <c r="I129" s="196">
+      <c r="I129" s="125">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J129" s="191"/>
-    </row>
-    <row r="130" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J129" s="120"/>
+    </row>
+    <row r="130" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
         <v>100</v>
       </c>
@@ -61142,10 +61172,10 @@
       </c>
       <c r="G130" s="113"/>
       <c r="H130" s="96"/>
-      <c r="I130" s="196"/>
-      <c r="J130" s="191"/>
-    </row>
-    <row r="131" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I130" s="125"/>
+      <c r="J130" s="120"/>
+    </row>
+    <row r="131" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="45">
         <v>101</v>
       </c>
@@ -61166,11 +61196,11 @@
       </c>
       <c r="G131" s="113"/>
       <c r="H131" s="96"/>
-      <c r="I131" s="196">
+      <c r="I131" s="125">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J131" s="191"/>
+      <c r="J131" s="120"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="45">
@@ -61195,8 +61225,8 @@
         <v>3</v>
       </c>
       <c r="H132" s="96"/>
-      <c r="I132" s="196"/>
-      <c r="J132" s="191" t="s">
+      <c r="I132" s="125"/>
+      <c r="J132" s="120" t="s">
         <v>672</v>
       </c>
     </row>
@@ -61223,8 +61253,8 @@
         <v>3</v>
       </c>
       <c r="H133" s="96"/>
-      <c r="I133" s="196"/>
-      <c r="J133" s="191" t="s">
+      <c r="I133" s="125"/>
+      <c r="J133" s="120" t="s">
         <v>671</v>
       </c>
     </row>
@@ -61251,8 +61281,8 @@
         <v>3</v>
       </c>
       <c r="H134" s="96"/>
-      <c r="I134" s="196"/>
-      <c r="J134" s="191" t="s">
+      <c r="I134" s="125"/>
+      <c r="J134" s="126" t="s">
         <v>673</v>
       </c>
     </row>
@@ -61279,12 +61309,12 @@
         <v>5</v>
       </c>
       <c r="H135" s="96"/>
-      <c r="I135" s="196"/>
-      <c r="J135" s="191" t="s">
+      <c r="I135" s="125"/>
+      <c r="J135" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>106</v>
       </c>
@@ -61297,19 +61327,19 @@
       <c r="D136" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="E136" s="79" t="s">
+      <c r="E136" s="135" t="s">
         <v>90</v>
       </c>
       <c r="F136" s="106">
         <v>72</v>
       </c>
-      <c r="G136" s="113">
+      <c r="G136" s="132">
         <v>77</v>
       </c>
-      <c r="H136" s="96"/>
-      <c r="I136" s="196"/>
-      <c r="J136" s="191" t="s">
-        <v>683</v>
+      <c r="H136" s="133"/>
+      <c r="I136" s="134"/>
+      <c r="J136" s="207" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -61335,12 +61365,12 @@
         <v>10</v>
       </c>
       <c r="H137" s="96"/>
-      <c r="I137" s="196"/>
-      <c r="J137" s="191" t="s">
+      <c r="I137" s="125"/>
+      <c r="J137" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A138" s="45">
         <v>108</v>
       </c>
@@ -61353,7 +61383,7 @@
       <c r="D138" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="E138" s="79" t="s">
+      <c r="E138" s="135" t="s">
         <v>360</v>
       </c>
       <c r="F138" s="106">
@@ -61363,15 +61393,15 @@
         <v>231</v>
       </c>
       <c r="H138" s="96"/>
-      <c r="I138" s="196">
+      <c r="I138" s="125">
         <f t="shared" ref="I138:I149" si="4">F138-(G138+H138)</f>
         <v>69</v>
       </c>
-      <c r="J138" s="191" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J138" s="120" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="45">
         <v>109</v>
       </c>
@@ -61392,13 +61422,13 @@
       </c>
       <c r="G139" s="113"/>
       <c r="H139" s="96"/>
-      <c r="I139" s="196">
+      <c r="I139" s="125">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J139" s="191"/>
-    </row>
-    <row r="140" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J139" s="120"/>
+    </row>
+    <row r="140" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <v>110</v>
       </c>
@@ -61419,13 +61449,13 @@
       </c>
       <c r="G140" s="113"/>
       <c r="H140" s="96"/>
-      <c r="I140" s="196">
+      <c r="I140" s="125">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J140" s="191"/>
-    </row>
-    <row r="141" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J140" s="120"/>
+    </row>
+    <row r="141" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="45">
         <v>111</v>
       </c>
@@ -61446,13 +61476,13 @@
       </c>
       <c r="G141" s="113"/>
       <c r="H141" s="96"/>
-      <c r="I141" s="196">
+      <c r="I141" s="125">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J141" s="191"/>
-    </row>
-    <row r="142" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J141" s="120"/>
+    </row>
+    <row r="142" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
         <v>112</v>
       </c>
@@ -61473,11 +61503,11 @@
       </c>
       <c r="G142" s="113"/>
       <c r="H142" s="96"/>
-      <c r="I142" s="196">
+      <c r="I142" s="125">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J142" s="191"/>
+      <c r="J142" s="120"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="45">
@@ -61502,12 +61532,12 @@
         <v>3</v>
       </c>
       <c r="H143" s="96"/>
-      <c r="I143" s="196"/>
-      <c r="J143" s="191" t="s">
+      <c r="I143" s="125"/>
+      <c r="J143" s="120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="45">
         <v>114</v>
       </c>
@@ -61530,12 +61560,12 @@
         <v>3</v>
       </c>
       <c r="H144" s="96"/>
-      <c r="I144" s="196"/>
-      <c r="J144" s="191" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I144" s="125"/>
+      <c r="J144" s="120" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="45">
         <v>115</v>
       </c>
@@ -61556,11 +61586,11 @@
       </c>
       <c r="G145" s="113"/>
       <c r="H145" s="96"/>
-      <c r="I145" s="196">
+      <c r="I145" s="125">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J145" s="191"/>
+      <c r="J145" s="120"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="45">
@@ -61585,8 +61615,8 @@
         <v>3</v>
       </c>
       <c r="H146" s="96"/>
-      <c r="I146" s="196"/>
-      <c r="J146" s="191" t="s">
+      <c r="I146" s="125"/>
+      <c r="J146" s="120" t="s">
         <v>672</v>
       </c>
     </row>
@@ -61613,12 +61643,12 @@
         <v>1</v>
       </c>
       <c r="H147" s="96"/>
-      <c r="I147" s="196"/>
-      <c r="J147" s="191" t="s">
+      <c r="I147" s="125"/>
+      <c r="J147" s="120" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="45">
         <v>118</v>
       </c>
@@ -61641,12 +61671,12 @@
         <v>2</v>
       </c>
       <c r="H148" s="96"/>
-      <c r="I148" s="196"/>
-      <c r="J148" s="191" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I148" s="125"/>
+      <c r="J148" s="120" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="45">
         <v>119</v>
       </c>
@@ -61667,11 +61697,11 @@
       </c>
       <c r="G149" s="113"/>
       <c r="H149" s="96"/>
-      <c r="I149" s="196">
+      <c r="I149" s="125">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="J149" s="191"/>
+      <c r="J149" s="120"/>
     </row>
     <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="45">
@@ -61696,9 +61726,9 @@
         <v>14</v>
       </c>
       <c r="H150" s="96"/>
-      <c r="I150" s="196"/>
-      <c r="J150" s="192" t="s">
-        <v>687</v>
+      <c r="I150" s="125"/>
+      <c r="J150" s="121" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -61724,12 +61754,12 @@
         <v>1</v>
       </c>
       <c r="H151" s="96"/>
-      <c r="I151" s="196"/>
-      <c r="J151" s="192" t="s">
+      <c r="I151" s="125"/>
+      <c r="J151" s="121" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="45">
         <v>122</v>
       </c>
@@ -61750,8 +61780,8 @@
       </c>
       <c r="G152" s="113"/>
       <c r="H152" s="96"/>
-      <c r="I152" s="196"/>
-      <c r="J152" s="192"/>
+      <c r="I152" s="125"/>
+      <c r="J152" s="121"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="45">
@@ -61776,8 +61806,8 @@
         <v>1</v>
       </c>
       <c r="H153" s="96"/>
-      <c r="I153" s="196"/>
-      <c r="J153" s="192" t="s">
+      <c r="I153" s="125"/>
+      <c r="J153" s="121" t="s">
         <v>675</v>
       </c>
     </row>
@@ -61804,12 +61834,12 @@
         <v>1</v>
       </c>
       <c r="H154" s="96"/>
-      <c r="I154" s="196"/>
-      <c r="J154" s="192" t="s">
+      <c r="I154" s="125"/>
+      <c r="J154" s="121" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="45">
         <v>125</v>
       </c>
@@ -61830,13 +61860,13 @@
       </c>
       <c r="G155" s="113"/>
       <c r="H155" s="96"/>
-      <c r="I155" s="196">
+      <c r="I155" s="125">
         <f t="shared" ref="I155:I162" si="5">F155-(G155+H155)</f>
         <v>17</v>
       </c>
-      <c r="J155" s="193"/>
-    </row>
-    <row r="156" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J155" s="122"/>
+    </row>
+    <row r="156" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="45">
         <v>126</v>
       </c>
@@ -61857,11 +61887,11 @@
       </c>
       <c r="G156" s="113"/>
       <c r="H156" s="96"/>
-      <c r="I156" s="196">
+      <c r="I156" s="125">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J156" s="191"/>
+      <c r="J156" s="120"/>
     </row>
     <row r="157" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="45">
@@ -61886,8 +61916,8 @@
         <v>3</v>
       </c>
       <c r="H157" s="96"/>
-      <c r="I157" s="196"/>
-      <c r="J157" s="192" t="s">
+      <c r="I157" s="125"/>
+      <c r="J157" s="121" t="s">
         <v>675</v>
       </c>
     </row>
@@ -61914,8 +61944,8 @@
         <v>2</v>
       </c>
       <c r="H158" s="96"/>
-      <c r="I158" s="196"/>
-      <c r="J158" s="192" t="s">
+      <c r="I158" s="125"/>
+      <c r="J158" s="121" t="s">
         <v>675</v>
       </c>
     </row>
@@ -61942,8 +61972,8 @@
         <v>2</v>
       </c>
       <c r="H159" s="96"/>
-      <c r="I159" s="196"/>
-      <c r="J159" s="192" t="s">
+      <c r="I159" s="125"/>
+      <c r="J159" s="121" t="s">
         <v>675</v>
       </c>
     </row>
@@ -61970,15 +62000,15 @@
         <v>8</v>
       </c>
       <c r="H160" s="96"/>
-      <c r="I160" s="196">
+      <c r="I160" s="125">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J160" s="191" t="s">
+      <c r="J160" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="45">
         <v>131</v>
       </c>
@@ -62001,8 +62031,8 @@
       <c r="H161" s="96">
         <v>16</v>
       </c>
-      <c r="I161" s="196"/>
-      <c r="J161" s="192"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="121"/>
     </row>
     <row r="162" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="45">
@@ -62027,11 +62057,11 @@
         <v>16</v>
       </c>
       <c r="H162" s="96"/>
-      <c r="I162" s="196">
+      <c r="I162" s="125">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J162" s="191" t="s">
+      <c r="J162" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62058,8 +62088,8 @@
         <v>17</v>
       </c>
       <c r="H163" s="96"/>
-      <c r="I163" s="196"/>
-      <c r="J163" s="191" t="s">
+      <c r="I163" s="125"/>
+      <c r="J163" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62086,12 +62116,12 @@
         <v>17</v>
       </c>
       <c r="H164" s="96"/>
-      <c r="I164" s="196"/>
-      <c r="J164" s="191" t="s">
+      <c r="I164" s="125"/>
+      <c r="J164" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45">
         <v>135</v>
       </c>
@@ -62112,13 +62142,13 @@
       </c>
       <c r="G165" s="113"/>
       <c r="H165" s="96"/>
-      <c r="I165" s="196">
+      <c r="I165" s="125">
         <f>F165-(G165+H165)</f>
         <v>1</v>
       </c>
-      <c r="J165" s="191"/>
-    </row>
-    <row r="166" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J165" s="120"/>
+    </row>
+    <row r="166" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
         <v>136</v>
       </c>
@@ -62139,13 +62169,13 @@
       </c>
       <c r="G166" s="113"/>
       <c r="H166" s="96"/>
-      <c r="I166" s="196">
+      <c r="I166" s="125">
         <f>F166-(G166+H166)</f>
         <v>17</v>
       </c>
-      <c r="J166" s="191"/>
-    </row>
-    <row r="167" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J166" s="120"/>
+    </row>
+    <row r="167" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="45">
         <v>137</v>
       </c>
@@ -62166,11 +62196,11 @@
       </c>
       <c r="G167" s="113"/>
       <c r="H167" s="96"/>
-      <c r="I167" s="196">
+      <c r="I167" s="125">
         <f>F167-(G167+H167)</f>
         <v>1</v>
       </c>
-      <c r="J167" s="191"/>
+      <c r="J167" s="120"/>
     </row>
     <row r="168" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="45">
@@ -62195,8 +62225,8 @@
         <v>17</v>
       </c>
       <c r="H168" s="96"/>
-      <c r="I168" s="196"/>
-      <c r="J168" s="191" t="s">
+      <c r="I168" s="125"/>
+      <c r="J168" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62223,12 +62253,12 @@
         <v>2</v>
       </c>
       <c r="H169" s="96"/>
-      <c r="I169" s="196"/>
-      <c r="J169" s="191" t="s">
+      <c r="I169" s="125"/>
+      <c r="J169" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45">
         <v>140</v>
       </c>
@@ -62249,11 +62279,11 @@
       </c>
       <c r="G170" s="113"/>
       <c r="H170" s="96"/>
-      <c r="I170" s="196">
+      <c r="I170" s="125">
         <f t="shared" ref="I170:I179" si="6">F170-(G170+H170)</f>
         <v>5</v>
       </c>
-      <c r="J170" s="191"/>
+      <c r="J170" s="120"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="45">
@@ -62278,11 +62308,11 @@
         <v>8</v>
       </c>
       <c r="H171" s="96"/>
-      <c r="I171" s="196">
+      <c r="I171" s="125">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J171" s="191" t="s">
+      <c r="J171" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62309,15 +62339,15 @@
         <v>8</v>
       </c>
       <c r="H172" s="96"/>
-      <c r="I172" s="196">
+      <c r="I172" s="125">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J172" s="191" t="s">
+      <c r="J172" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45">
         <v>143</v>
       </c>
@@ -62338,11 +62368,11 @@
       </c>
       <c r="G173" s="113"/>
       <c r="H173" s="96"/>
-      <c r="I173" s="196">
+      <c r="I173" s="125">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J173" s="191"/>
+      <c r="J173" s="120"/>
     </row>
     <row r="174" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="45">
@@ -62367,8 +62397,8 @@
         <v>2</v>
       </c>
       <c r="H174" s="96"/>
-      <c r="I174" s="196"/>
-      <c r="J174" s="191" t="s">
+      <c r="I174" s="125"/>
+      <c r="J174" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62395,8 +62425,8 @@
         <v>17</v>
       </c>
       <c r="H175" s="96"/>
-      <c r="I175" s="196"/>
-      <c r="J175" s="191" t="s">
+      <c r="I175" s="125"/>
+      <c r="J175" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62423,12 +62453,12 @@
         <v>1</v>
       </c>
       <c r="H176" s="96"/>
-      <c r="I176" s="196"/>
-      <c r="J176" s="191" t="s">
+      <c r="I176" s="125"/>
+      <c r="J176" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="45">
         <v>147</v>
       </c>
@@ -62449,13 +62479,13 @@
       </c>
       <c r="G177" s="113"/>
       <c r="H177" s="96"/>
-      <c r="I177" s="196">
+      <c r="I177" s="125">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J177" s="191"/>
-    </row>
-    <row r="178" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J177" s="120"/>
+    </row>
+    <row r="178" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="45">
         <v>148</v>
       </c>
@@ -62476,10 +62506,10 @@
       </c>
       <c r="G178" s="113"/>
       <c r="H178" s="96"/>
-      <c r="I178" s="196"/>
-      <c r="J178" s="191"/>
-    </row>
-    <row r="179" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I178" s="125"/>
+      <c r="J178" s="120"/>
+    </row>
+    <row r="179" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="45">
         <v>149</v>
       </c>
@@ -62500,11 +62530,11 @@
       </c>
       <c r="G179" s="113"/>
       <c r="H179" s="96"/>
-      <c r="I179" s="196">
+      <c r="I179" s="125">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J179" s="191"/>
+      <c r="J179" s="120"/>
     </row>
     <row r="180" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="45">
@@ -62529,8 +62559,8 @@
         <v>9</v>
       </c>
       <c r="H180" s="96"/>
-      <c r="I180" s="196"/>
-      <c r="J180" s="191" t="s">
+      <c r="I180" s="125"/>
+      <c r="J180" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62557,8 +62587,8 @@
         <v>9</v>
       </c>
       <c r="H181" s="96"/>
-      <c r="I181" s="196"/>
-      <c r="J181" s="191" t="s">
+      <c r="I181" s="125"/>
+      <c r="J181" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62585,12 +62615,12 @@
         <v>9</v>
       </c>
       <c r="H182" s="96"/>
-      <c r="I182" s="196"/>
-      <c r="J182" s="191" t="s">
+      <c r="I182" s="125"/>
+      <c r="J182" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="45">
         <v>153</v>
       </c>
@@ -62611,11 +62641,11 @@
       </c>
       <c r="G183" s="113"/>
       <c r="H183" s="96"/>
-      <c r="I183" s="196">
+      <c r="I183" s="125">
         <f t="shared" ref="I183:I190" si="7">F183-(G183+H183)</f>
         <v>13</v>
       </c>
-      <c r="J183" s="191"/>
+      <c r="J183" s="120"/>
     </row>
     <row r="184" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="45">
@@ -62640,12 +62670,12 @@
         <v>2</v>
       </c>
       <c r="H184" s="96"/>
-      <c r="I184" s="196"/>
-      <c r="J184" s="191" t="s">
+      <c r="I184" s="125"/>
+      <c r="J184" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="45">
         <v>155</v>
       </c>
@@ -62666,13 +62696,13 @@
       </c>
       <c r="G185" s="113"/>
       <c r="H185" s="96"/>
-      <c r="I185" s="196">
+      <c r="I185" s="125">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="J185" s="191"/>
-    </row>
-    <row r="186" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J185" s="120"/>
+    </row>
+    <row r="186" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="45">
         <v>156</v>
       </c>
@@ -62693,10 +62723,10 @@
       </c>
       <c r="G186" s="113"/>
       <c r="H186" s="96"/>
-      <c r="I186" s="196"/>
-      <c r="J186" s="191"/>
-    </row>
-    <row r="187" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I186" s="125"/>
+      <c r="J186" s="120"/>
+    </row>
+    <row r="187" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="45">
         <v>157</v>
       </c>
@@ -62717,8 +62747,8 @@
       </c>
       <c r="G187" s="113"/>
       <c r="H187" s="96"/>
-      <c r="I187" s="196"/>
-      <c r="J187" s="192"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="121"/>
     </row>
     <row r="188" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="45">
@@ -62743,8 +62773,8 @@
         <v>1</v>
       </c>
       <c r="H188" s="96"/>
-      <c r="I188" s="196"/>
-      <c r="J188" s="191" t="s">
+      <c r="I188" s="125"/>
+      <c r="J188" s="126" t="s">
         <v>673</v>
       </c>
     </row>
@@ -62771,8 +62801,8 @@
         <v>1</v>
       </c>
       <c r="H189" s="96"/>
-      <c r="I189" s="196"/>
-      <c r="J189" s="191" t="s">
+      <c r="I189" s="125"/>
+      <c r="J189" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62799,11 +62829,11 @@
         <v>8</v>
       </c>
       <c r="H190" s="96"/>
-      <c r="I190" s="196">
+      <c r="I190" s="125">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J190" s="191" t="s">
+      <c r="J190" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62830,8 +62860,8 @@
         <v>2</v>
       </c>
       <c r="H191" s="96"/>
-      <c r="I191" s="196"/>
-      <c r="J191" s="191" t="s">
+      <c r="I191" s="125"/>
+      <c r="J191" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62858,8 +62888,8 @@
         <v>2</v>
       </c>
       <c r="H192" s="96"/>
-      <c r="I192" s="196"/>
-      <c r="J192" s="191" t="s">
+      <c r="I192" s="125"/>
+      <c r="J192" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62886,8 +62916,8 @@
         <v>2</v>
       </c>
       <c r="H193" s="96"/>
-      <c r="I193" s="196"/>
-      <c r="J193" s="191" t="s">
+      <c r="I193" s="125"/>
+      <c r="J193" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62914,8 +62944,8 @@
         <v>10</v>
       </c>
       <c r="H194" s="96"/>
-      <c r="I194" s="196"/>
-      <c r="J194" s="191" t="s">
+      <c r="I194" s="125"/>
+      <c r="J194" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62942,8 +62972,8 @@
         <v>1</v>
       </c>
       <c r="H195" s="96"/>
-      <c r="I195" s="196"/>
-      <c r="J195" s="191" t="s">
+      <c r="I195" s="125"/>
+      <c r="J195" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62970,8 +63000,8 @@
         <v>1</v>
       </c>
       <c r="H196" s="96"/>
-      <c r="I196" s="196"/>
-      <c r="J196" s="191" t="s">
+      <c r="I196" s="125"/>
+      <c r="J196" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -62998,8 +63028,8 @@
         <v>4</v>
       </c>
       <c r="H197" s="96"/>
-      <c r="I197" s="196"/>
-      <c r="J197" s="191" t="s">
+      <c r="I197" s="125"/>
+      <c r="J197" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63026,12 +63056,12 @@
         <v>4</v>
       </c>
       <c r="H198" s="96"/>
-      <c r="I198" s="196"/>
-      <c r="J198" s="191" t="s">
+      <c r="I198" s="125"/>
+      <c r="J198" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45">
         <v>169</v>
       </c>
@@ -63052,13 +63082,13 @@
       </c>
       <c r="G199" s="113"/>
       <c r="H199" s="96"/>
-      <c r="I199" s="196">
+      <c r="I199" s="125">
         <f t="shared" ref="I199:I208" si="8">F199-(G199+H199)</f>
         <v>1</v>
       </c>
-      <c r="J199" s="191"/>
-    </row>
-    <row r="200" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J199" s="120"/>
+    </row>
+    <row r="200" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="45">
         <v>170</v>
       </c>
@@ -63079,13 +63109,13 @@
       </c>
       <c r="G200" s="113"/>
       <c r="H200" s="96"/>
-      <c r="I200" s="196">
+      <c r="I200" s="125">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J200" s="191"/>
-    </row>
-    <row r="201" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J200" s="120"/>
+    </row>
+    <row r="201" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="45">
         <v>171</v>
       </c>
@@ -63108,8 +63138,8 @@
       <c r="H201" s="96">
         <v>17</v>
       </c>
-      <c r="I201" s="196"/>
-      <c r="J201" s="194"/>
+      <c r="I201" s="125"/>
+      <c r="J201" s="123"/>
     </row>
     <row r="202" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="45">
@@ -63134,11 +63164,11 @@
         <v>16</v>
       </c>
       <c r="H202" s="96"/>
-      <c r="I202" s="196">
+      <c r="I202" s="125">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J202" s="191" t="s">
+      <c r="J202" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63167,12 +63197,12 @@
       <c r="H203" s="96">
         <v>8</v>
       </c>
-      <c r="I203" s="196"/>
-      <c r="J203" s="191" t="s">
+      <c r="I203" s="125"/>
+      <c r="J203" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="45">
         <v>174</v>
       </c>
@@ -63193,13 +63223,13 @@
       </c>
       <c r="G204" s="113"/>
       <c r="H204" s="96"/>
-      <c r="I204" s="196">
+      <c r="I204" s="125">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="J204" s="191"/>
-    </row>
-    <row r="205" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J204" s="120"/>
+    </row>
+    <row r="205" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="45">
         <v>175</v>
       </c>
@@ -63220,11 +63250,11 @@
       </c>
       <c r="G205" s="113"/>
       <c r="H205" s="96"/>
-      <c r="I205" s="196">
+      <c r="I205" s="125">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="J205" s="191"/>
+      <c r="J205" s="120"/>
     </row>
     <row r="206" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="45">
@@ -63249,15 +63279,15 @@
         <v>16</v>
       </c>
       <c r="H206" s="96"/>
-      <c r="I206" s="196">
+      <c r="I206" s="125">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J206" s="191" t="s">
+      <c r="J206" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="45">
         <v>177</v>
       </c>
@@ -63278,11 +63308,11 @@
       </c>
       <c r="G207" s="113"/>
       <c r="H207" s="96"/>
-      <c r="I207" s="196">
+      <c r="I207" s="125">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="J207" s="191"/>
+      <c r="J207" s="120"/>
     </row>
     <row r="208" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="45">
@@ -63307,11 +63337,11 @@
         <v>16</v>
       </c>
       <c r="H208" s="96"/>
-      <c r="I208" s="196">
+      <c r="I208" s="125">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J208" s="191" t="s">
+      <c r="J208" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63338,8 +63368,8 @@
         <v>9</v>
       </c>
       <c r="H209" s="96"/>
-      <c r="I209" s="196"/>
-      <c r="J209" s="191" t="s">
+      <c r="I209" s="125"/>
+      <c r="J209" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63368,12 +63398,12 @@
       <c r="H210" s="96">
         <v>8</v>
       </c>
-      <c r="I210" s="196"/>
-      <c r="J210" s="191" t="s">
+      <c r="I210" s="125"/>
+      <c r="J210" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>181</v>
       </c>
@@ -63394,13 +63424,13 @@
       </c>
       <c r="G211" s="113"/>
       <c r="H211" s="96"/>
-      <c r="I211" s="196">
+      <c r="I211" s="125">
         <f t="shared" ref="I211:I218" si="9">F211-(G211+H211)</f>
         <v>24</v>
       </c>
-      <c r="J211" s="191"/>
-    </row>
-    <row r="212" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J211" s="120"/>
+    </row>
+    <row r="212" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="45">
         <v>182</v>
       </c>
@@ -63421,11 +63451,11 @@
       </c>
       <c r="G212" s="113"/>
       <c r="H212" s="96"/>
-      <c r="I212" s="196">
+      <c r="I212" s="125">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J212" s="191"/>
+      <c r="J212" s="120"/>
     </row>
     <row r="213" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="45">
@@ -63450,15 +63480,15 @@
         <v>16</v>
       </c>
       <c r="H213" s="96"/>
-      <c r="I213" s="196">
+      <c r="I213" s="125">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J213" s="191" t="s">
+      <c r="J213" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="45">
         <v>184</v>
       </c>
@@ -63479,11 +63509,11 @@
       </c>
       <c r="G214" s="113"/>
       <c r="H214" s="96"/>
-      <c r="I214" s="196">
+      <c r="I214" s="125">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J214" s="191"/>
+      <c r="J214" s="120"/>
     </row>
     <row r="215" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="45">
@@ -63508,15 +63538,15 @@
         <v>16</v>
       </c>
       <c r="H215" s="96"/>
-      <c r="I215" s="196">
+      <c r="I215" s="125">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J215" s="191" t="s">
+      <c r="J215" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="45">
         <v>186</v>
       </c>
@@ -63537,11 +63567,11 @@
       </c>
       <c r="G216" s="113"/>
       <c r="H216" s="96"/>
-      <c r="I216" s="196">
+      <c r="I216" s="125">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J216" s="191"/>
+      <c r="J216" s="120"/>
     </row>
     <row r="217" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="45">
@@ -63566,15 +63596,15 @@
         <v>16</v>
       </c>
       <c r="H217" s="96"/>
-      <c r="I217" s="196">
+      <c r="I217" s="125">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J217" s="191" t="s">
+      <c r="J217" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="45">
         <v>188</v>
       </c>
@@ -63595,11 +63625,11 @@
       </c>
       <c r="G218" s="113"/>
       <c r="H218" s="96"/>
-      <c r="I218" s="196">
+      <c r="I218" s="125">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="J218" s="191"/>
+      <c r="J218" s="120"/>
     </row>
     <row r="219" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="45">
@@ -63624,8 +63654,8 @@
         <v>2</v>
       </c>
       <c r="H219" s="96"/>
-      <c r="I219" s="196"/>
-      <c r="J219" s="191" t="s">
+      <c r="I219" s="125"/>
+      <c r="J219" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63652,15 +63682,15 @@
         <v>16</v>
       </c>
       <c r="H220" s="96"/>
-      <c r="I220" s="196">
+      <c r="I220" s="125">
         <f t="shared" ref="I220:I227" si="10">F220-(G220+H220)</f>
         <v>8</v>
       </c>
-      <c r="J220" s="191" t="s">
+      <c r="J220" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="45">
         <v>191</v>
       </c>
@@ -63681,11 +63711,11 @@
       </c>
       <c r="G221" s="113"/>
       <c r="H221" s="96"/>
-      <c r="I221" s="196">
+      <c r="I221" s="125">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J221" s="191"/>
+      <c r="J221" s="120"/>
     </row>
     <row r="222" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="45">
@@ -63712,8 +63742,8 @@
       <c r="H222" s="96">
         <v>8</v>
       </c>
-      <c r="I222" s="196"/>
-      <c r="J222" s="191" t="s">
+      <c r="I222" s="125"/>
+      <c r="J222" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63740,15 +63770,15 @@
         <v>16</v>
       </c>
       <c r="H223" s="96"/>
-      <c r="I223" s="196">
+      <c r="I223" s="125">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="J223" s="191" t="s">
+      <c r="J223" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="45">
         <v>194</v>
       </c>
@@ -63769,13 +63799,13 @@
       </c>
       <c r="G224" s="113"/>
       <c r="H224" s="96"/>
-      <c r="I224" s="196">
+      <c r="I224" s="125">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J224" s="191"/>
-    </row>
-    <row r="225" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J224" s="120"/>
+    </row>
+    <row r="225" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="45">
         <v>195</v>
       </c>
@@ -63796,11 +63826,11 @@
       </c>
       <c r="G225" s="113"/>
       <c r="H225" s="96"/>
-      <c r="I225" s="196">
+      <c r="I225" s="125">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="J225" s="191"/>
+      <c r="J225" s="120"/>
     </row>
     <row r="226" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="45">
@@ -63825,11 +63855,11 @@
         <v>8</v>
       </c>
       <c r="H226" s="96"/>
-      <c r="I226" s="196">
+      <c r="I226" s="125">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="J226" s="191" t="s">
+      <c r="J226" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63856,11 +63886,11 @@
         <v>8</v>
       </c>
       <c r="H227" s="96"/>
-      <c r="I227" s="196">
+      <c r="I227" s="125">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="J227" s="191" t="s">
+      <c r="J227" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -63887,12 +63917,12 @@
         <v>9</v>
       </c>
       <c r="H228" s="96"/>
-      <c r="I228" s="196"/>
-      <c r="J228" s="191" t="s">
+      <c r="I228" s="125"/>
+      <c r="J228" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="45">
         <v>199</v>
       </c>
@@ -63913,13 +63943,13 @@
       </c>
       <c r="G229" s="113"/>
       <c r="H229" s="96"/>
-      <c r="I229" s="196">
+      <c r="I229" s="125">
         <f t="shared" ref="I229:I234" si="11">F229-(G229+H229)</f>
         <v>1</v>
       </c>
-      <c r="J229" s="193"/>
-    </row>
-    <row r="230" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J229" s="122"/>
+    </row>
+    <row r="230" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="45">
         <v>200</v>
       </c>
@@ -63940,13 +63970,13 @@
       </c>
       <c r="G230" s="113"/>
       <c r="H230" s="96"/>
-      <c r="I230" s="196">
+      <c r="I230" s="125">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="J230" s="193"/>
-    </row>
-    <row r="231" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J230" s="122"/>
+    </row>
+    <row r="231" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="45">
         <v>201</v>
       </c>
@@ -63967,8 +63997,8 @@
       </c>
       <c r="G231" s="113"/>
       <c r="H231" s="96"/>
-      <c r="I231" s="196"/>
-      <c r="J231" s="193"/>
+      <c r="I231" s="125"/>
+      <c r="J231" s="122"/>
     </row>
     <row r="232" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="45">
@@ -63993,15 +64023,15 @@
         <v>8</v>
       </c>
       <c r="H232" s="96"/>
-      <c r="I232" s="196">
+      <c r="I232" s="125">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="J232" s="191" t="s">
+      <c r="J232" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="45">
         <v>203</v>
       </c>
@@ -64022,13 +64052,13 @@
       </c>
       <c r="G233" s="113"/>
       <c r="H233" s="96"/>
-      <c r="I233" s="196">
+      <c r="I233" s="125">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="J233" s="191"/>
-    </row>
-    <row r="234" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J233" s="120"/>
+    </row>
+    <row r="234" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="45">
         <v>204</v>
       </c>
@@ -64049,11 +64079,11 @@
       </c>
       <c r="G234" s="113"/>
       <c r="H234" s="96"/>
-      <c r="I234" s="196">
+      <c r="I234" s="125">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="J234" s="191"/>
+      <c r="J234" s="120"/>
     </row>
     <row r="235" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="45">
@@ -64078,12 +64108,12 @@
         <v>9</v>
       </c>
       <c r="H235" s="96"/>
-      <c r="I235" s="196"/>
-      <c r="J235" s="191" t="s">
+      <c r="I235" s="125"/>
+      <c r="J235" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="45">
         <v>206</v>
       </c>
@@ -64104,11 +64134,11 @@
       </c>
       <c r="G236" s="113"/>
       <c r="H236" s="96"/>
-      <c r="I236" s="196">
+      <c r="I236" s="125">
         <f t="shared" ref="I236:I241" si="12">F236-(G236+H236)</f>
         <v>12</v>
       </c>
-      <c r="J236" s="191"/>
+      <c r="J236" s="120"/>
     </row>
     <row r="237" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="45">
@@ -64133,11 +64163,11 @@
         <v>24</v>
       </c>
       <c r="H237" s="96"/>
-      <c r="I237" s="196">
+      <c r="I237" s="125">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="J237" s="191" t="s">
+      <c r="J237" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64164,15 +64194,15 @@
         <v>8</v>
       </c>
       <c r="H238" s="96"/>
-      <c r="I238" s="196">
+      <c r="I238" s="125">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J238" s="191" t="s">
+      <c r="J238" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="45">
         <v>209</v>
       </c>
@@ -64193,13 +64223,13 @@
       </c>
       <c r="G239" s="113"/>
       <c r="H239" s="96"/>
-      <c r="I239" s="196">
+      <c r="I239" s="125">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="J239" s="191"/>
-    </row>
-    <row r="240" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J239" s="120"/>
+    </row>
+    <row r="240" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="45">
         <v>210</v>
       </c>
@@ -64220,11 +64250,11 @@
       </c>
       <c r="G240" s="113"/>
       <c r="H240" s="96"/>
-      <c r="I240" s="196">
+      <c r="I240" s="125">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="J240" s="191"/>
+      <c r="J240" s="120"/>
     </row>
     <row r="241" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="45">
@@ -64249,11 +64279,11 @@
         <v>8</v>
       </c>
       <c r="H241" s="96"/>
-      <c r="I241" s="196">
+      <c r="I241" s="125">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J241" s="191" t="s">
+      <c r="J241" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64280,8 +64310,8 @@
         <v>17</v>
       </c>
       <c r="H242" s="96"/>
-      <c r="I242" s="196"/>
-      <c r="J242" s="191" t="s">
+      <c r="I242" s="125"/>
+      <c r="J242" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64308,11 +64338,11 @@
         <v>8</v>
       </c>
       <c r="H243" s="96"/>
-      <c r="I243" s="196">
+      <c r="I243" s="125">
         <f>F243-(G243+H243)</f>
         <v>4</v>
       </c>
-      <c r="J243" s="191" t="s">
+      <c r="J243" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64339,12 +64369,12 @@
         <v>17</v>
       </c>
       <c r="H244" s="96"/>
-      <c r="I244" s="196"/>
-      <c r="J244" s="191" t="s">
+      <c r="I244" s="125"/>
+      <c r="J244" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="45">
         <v>215</v>
       </c>
@@ -64365,11 +64395,11 @@
       </c>
       <c r="G245" s="113"/>
       <c r="H245" s="96"/>
-      <c r="I245" s="196">
+      <c r="I245" s="125">
         <f>F245-(G245+H245)</f>
         <v>12</v>
       </c>
-      <c r="J245" s="191"/>
+      <c r="J245" s="120"/>
     </row>
     <row r="246" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="45">
@@ -64394,12 +64424,12 @@
         <v>17</v>
       </c>
       <c r="H246" s="96"/>
-      <c r="I246" s="196"/>
-      <c r="J246" s="191" t="s">
+      <c r="I246" s="125"/>
+      <c r="J246" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="45">
         <v>217</v>
       </c>
@@ -64420,11 +64450,11 @@
       </c>
       <c r="G247" s="113"/>
       <c r="H247" s="96"/>
-      <c r="I247" s="196">
+      <c r="I247" s="125">
         <f>F247-(G247+H247)</f>
         <v>12</v>
       </c>
-      <c r="J247" s="191"/>
+      <c r="J247" s="120"/>
     </row>
     <row r="248" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="45">
@@ -64449,12 +64479,12 @@
         <v>17</v>
       </c>
       <c r="H248" s="96"/>
-      <c r="I248" s="196"/>
-      <c r="J248" s="191" t="s">
+      <c r="I248" s="125"/>
+      <c r="J248" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="45">
         <v>219</v>
       </c>
@@ -64475,13 +64505,13 @@
       </c>
       <c r="G249" s="113"/>
       <c r="H249" s="96"/>
-      <c r="I249" s="196">
+      <c r="I249" s="125">
         <f>F249-(G249+H249)</f>
         <v>25</v>
       </c>
-      <c r="J249" s="191"/>
-    </row>
-    <row r="250" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J249" s="120"/>
+    </row>
+    <row r="250" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="45">
         <v>220</v>
       </c>
@@ -64502,13 +64532,13 @@
       </c>
       <c r="G250" s="113"/>
       <c r="H250" s="96"/>
-      <c r="I250" s="196">
+      <c r="I250" s="125">
         <f>F250-(G250+H250)</f>
         <v>8</v>
       </c>
-      <c r="J250" s="191"/>
-    </row>
-    <row r="251" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J250" s="120"/>
+    </row>
+    <row r="251" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="45">
         <v>221</v>
       </c>
@@ -64529,13 +64559,13 @@
       </c>
       <c r="G251" s="113"/>
       <c r="H251" s="96"/>
-      <c r="I251" s="196">
+      <c r="I251" s="125">
         <f>F251-(G251+H251)</f>
         <v>12</v>
       </c>
-      <c r="J251" s="191"/>
-    </row>
-    <row r="252" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J251" s="120"/>
+    </row>
+    <row r="252" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="45">
         <v>222</v>
       </c>
@@ -64556,11 +64586,11 @@
       </c>
       <c r="G252" s="113"/>
       <c r="H252" s="96"/>
-      <c r="I252" s="196">
+      <c r="I252" s="125">
         <f>F252-(G252+H252)</f>
         <v>16</v>
       </c>
-      <c r="J252" s="191"/>
+      <c r="J252" s="120"/>
     </row>
     <row r="253" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="45">
@@ -64585,8 +64615,8 @@
         <v>17</v>
       </c>
       <c r="H253" s="96"/>
-      <c r="I253" s="196"/>
-      <c r="J253" s="191" t="s">
+      <c r="I253" s="125"/>
+      <c r="J253" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64613,12 +64643,12 @@
         <v>2</v>
       </c>
       <c r="H254" s="96"/>
-      <c r="I254" s="196"/>
-      <c r="J254" s="191" t="s">
+      <c r="I254" s="125"/>
+      <c r="J254" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="45">
         <v>225</v>
       </c>
@@ -64639,13 +64669,13 @@
       </c>
       <c r="G255" s="113"/>
       <c r="H255" s="96"/>
-      <c r="I255" s="196">
+      <c r="I255" s="125">
         <f t="shared" ref="I255:I271" si="13">F255-(G255+H255)</f>
         <v>2</v>
       </c>
-      <c r="J255" s="191"/>
-    </row>
-    <row r="256" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J255" s="120"/>
+    </row>
+    <row r="256" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="45">
         <v>226</v>
       </c>
@@ -64666,11 +64696,11 @@
       </c>
       <c r="G256" s="113"/>
       <c r="H256" s="96"/>
-      <c r="I256" s="196">
+      <c r="I256" s="125">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="J256" s="191"/>
+      <c r="J256" s="120"/>
     </row>
     <row r="257" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="45">
@@ -64695,8 +64725,8 @@
         <v>2</v>
       </c>
       <c r="H257" s="96"/>
-      <c r="I257" s="196"/>
-      <c r="J257" s="191" t="s">
+      <c r="I257" s="125"/>
+      <c r="J257" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64723,12 +64753,12 @@
         <v>2</v>
       </c>
       <c r="H258" s="96"/>
-      <c r="I258" s="196"/>
-      <c r="J258" s="191" t="s">
+      <c r="I258" s="125"/>
+      <c r="J258" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="45">
         <v>229</v>
       </c>
@@ -64749,13 +64779,13 @@
       </c>
       <c r="G259" s="113"/>
       <c r="H259" s="96"/>
-      <c r="I259" s="196">
+      <c r="I259" s="125">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="J259" s="191"/>
-    </row>
-    <row r="260" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J259" s="120"/>
+    </row>
+    <row r="260" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="45">
         <v>230</v>
       </c>
@@ -64776,11 +64806,11 @@
       </c>
       <c r="G260" s="113"/>
       <c r="H260" s="96"/>
-      <c r="I260" s="196">
+      <c r="I260" s="125">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J260" s="191"/>
+      <c r="J260" s="120"/>
     </row>
     <row r="261" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="45">
@@ -64805,8 +64835,8 @@
         <v>1</v>
       </c>
       <c r="H261" s="96"/>
-      <c r="I261" s="196"/>
-      <c r="J261" s="191" t="s">
+      <c r="I261" s="125"/>
+      <c r="J261" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64833,8 +64863,8 @@
         <v>1</v>
       </c>
       <c r="H262" s="96"/>
-      <c r="I262" s="196"/>
-      <c r="J262" s="191" t="s">
+      <c r="I262" s="125"/>
+      <c r="J262" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64861,8 +64891,8 @@
         <v>32</v>
       </c>
       <c r="H263" s="96"/>
-      <c r="I263" s="196"/>
-      <c r="J263" s="191" t="s">
+      <c r="I263" s="125"/>
+      <c r="J263" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64889,8 +64919,8 @@
         <v>32</v>
       </c>
       <c r="H264" s="96"/>
-      <c r="I264" s="196"/>
-      <c r="J264" s="191" t="s">
+      <c r="I264" s="125"/>
+      <c r="J264" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64917,8 +64947,8 @@
         <v>32</v>
       </c>
       <c r="H265" s="96"/>
-      <c r="I265" s="196"/>
-      <c r="J265" s="191" t="s">
+      <c r="I265" s="125"/>
+      <c r="J265" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64945,8 +64975,8 @@
         <v>16</v>
       </c>
       <c r="H266" s="96"/>
-      <c r="I266" s="196"/>
-      <c r="J266" s="191" t="s">
+      <c r="I266" s="125"/>
+      <c r="J266" s="120" t="s">
         <v>676</v>
       </c>
     </row>
@@ -64973,12 +65003,12 @@
         <v>16</v>
       </c>
       <c r="H267" s="96"/>
-      <c r="I267" s="196"/>
-      <c r="J267" s="191" t="s">
+      <c r="I267" s="125"/>
+      <c r="J267" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="45">
         <v>238</v>
       </c>
@@ -64999,11 +65029,11 @@
       </c>
       <c r="G268" s="113"/>
       <c r="H268" s="96"/>
-      <c r="I268" s="196">
+      <c r="I268" s="125">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="J268" s="191"/>
+      <c r="J268" s="120"/>
     </row>
     <row r="269" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="45">
@@ -65028,12 +65058,12 @@
         <v>16</v>
       </c>
       <c r="H269" s="96"/>
-      <c r="I269" s="196"/>
-      <c r="J269" s="191" t="s">
+      <c r="I269" s="125"/>
+      <c r="J269" s="120" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="45">
         <v>240</v>
       </c>
@@ -65054,13 +65084,13 @@
       </c>
       <c r="G270" s="113"/>
       <c r="H270" s="96"/>
-      <c r="I270" s="196">
+      <c r="I270" s="125">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="J270" s="191"/>
-    </row>
-    <row r="271" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J270" s="120"/>
+    </row>
+    <row r="271" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="45">
         <v>241</v>
       </c>
@@ -65081,64 +65111,88 @@
       </c>
       <c r="G271" s="113"/>
       <c r="H271" s="96"/>
-      <c r="I271" s="196">
+      <c r="I271" s="125">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="J271" s="195"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F272" s="108">
-        <f t="shared" ref="F272" si="14">SUM(F31:F271)</f>
+      <c r="J271" s="124"/>
+    </row>
+    <row r="272" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="128"/>
+      <c r="B272" s="129"/>
+      <c r="C272" s="130"/>
+      <c r="F272" s="42"/>
+      <c r="G272" s="113"/>
+      <c r="H272" s="96"/>
+      <c r="I272" s="125"/>
+      <c r="J272" s="131" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="128"/>
+      <c r="B273" s="129"/>
+      <c r="C273" s="130"/>
+      <c r="F273" s="42"/>
+      <c r="G273" s="113"/>
+      <c r="H273" s="96"/>
+      <c r="I273" s="125"/>
+      <c r="J273" s="131" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F274" s="108">
+        <f t="shared" ref="F274" si="14">SUM(F31:F271)</f>
         <v>4050</v>
       </c>
-      <c r="G272" s="109">
+      <c r="G274" s="109">
         <f>SUM(G31:G271)</f>
-        <v>2104</v>
-      </c>
-      <c r="H272" s="109">
+        <v>2103</v>
+      </c>
+      <c r="H274" s="109">
         <f>SUM(H31:H271)</f>
         <v>87</v>
       </c>
-      <c r="I272" s="198">
+      <c r="I274" s="127">
         <f>SUM(I31:I271)</f>
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="273" spans="5:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G273" s="110" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G275" s="110" t="s">
         <v>665</v>
       </c>
-      <c r="H273" s="111">
-        <f>G272+H272</f>
-        <v>2191</v>
-      </c>
-      <c r="I273" s="112" t="s">
+      <c r="H275" s="111">
+        <f>G274+H274</f>
+        <v>2190</v>
+      </c>
+      <c r="I275" s="112" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="276" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E276" s="98" t="s">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E278" s="98" t="s">
         <v>662</v>
       </c>
-      <c r="F276" s="99">
+      <c r="F278" s="99">
         <v>3471</v>
       </c>
     </row>
-    <row r="277" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E277" s="98" t="s">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E279" s="98" t="s">
         <v>663</v>
       </c>
-      <c r="F277" s="99">
+      <c r="F279" s="99">
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E278" s="98" t="s">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E280" s="98" t="s">
         <v>664</v>
       </c>
-      <c r="F278" s="99">
-        <f>F276+F277</f>
+      <c r="F280" s="99">
+        <f>F278+F279</f>
         <v>4050</v>
       </c>
     </row>
@@ -65148,12 +65202,70 @@
     <protectedRange sqref="F9 F29" name="Rango1"/>
     <protectedRange sqref="D15:D17" name="Rango1_1"/>
   </protectedRanges>
+  <autoFilter ref="A30:J275" xr:uid="{CCEF9E83-E4E8-4F65-BC9C-F9A849D792B7}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="14"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="2"/>
+        <filter val="2103"/>
+        <filter val="231"/>
+        <filter val="24"/>
+        <filter val="280"/>
+        <filter val="3"/>
+        <filter val="32"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="50"/>
+        <filter val="560"/>
+        <filter val="6"/>
+        <filter val="77"/>
+        <filter val="8"/>
+        <filter val="82"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:F271">
     <sortCondition ref="B43:B271"/>
     <sortCondition ref="C43:C271"/>
     <sortCondition ref="D43:D271"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -65170,50 +65282,19 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="J111">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="pendiente">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="pendiente">
       <formula>NOT(ISERROR(SEARCH("pendiente",J111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J202:J270 J162:J200 J31:J110 J112:J114 J116:J160">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pendiente">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="pendiente">
       <formula>NOT(ISERROR(SEARCH("pendiente",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pendiente">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="pendiente">
       <formula>NOT(ISERROR(SEARCH("pendiente",J115)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
+++ b/5.GestionDotaciones/DAPRE/CDI-Apartadó/MinimosDotacion-ApartadoAntioquia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\DAPRE\CDI-Apartadó\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B9D68-0622-4D5A-9915-3435D7931635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2075F93-9B0A-4A07-BC16-2C884F863317}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3306,6 +3306,9 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3338,123 +3341,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3510,6 +3396,15 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3519,8 +3414,113 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3745,7 +3745,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43481.670332060188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="241" xr:uid="{F7CDCFFC-FBC5-4560-B771-145B9D2D715A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Ospina Patiño" refreshedDate="43486.4984625" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="241" xr:uid="{F7CDCFFC-FBC5-4560-B771-145B9D2D715A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C30:I271" sheet="MínimosRequeridos"/>
   </cacheSource>
@@ -3904,9 +3904,9 @@
     <s v="SI"/>
     <s v="OLLA PARA ZONA DE LACTANCIA"/>
     <n v="1"/>
-    <n v="1"/>
     <m/>
     <m/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -4144,7 +4144,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="SI"/>
+    <s v="NO"/>
     <s v="CANECA PLÁSTICA CON TAPA 60 LITROS"/>
     <n v="2"/>
     <m/>
@@ -4153,7 +4153,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="NO"/>
+    <s v="SI"/>
     <s v="CANECA PLÁSTICA CON TAPA 20 LITROS"/>
     <n v="4"/>
     <m/>
@@ -5964,7 +5964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C183AE2-5503-4590-9B62-ACEDAB66E532}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -6337,25 +6337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="144" t="s">
         <v>485</v>
       </c>
       <c r="H1" s="53"/>
@@ -6377,18 +6377,18 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q1" s="136" t="s">
+      <c r="Q1" s="137" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="144"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="145"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6407,25 +6407,25 @@
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="141" t="s">
+      <c r="N2" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="139" t="s">
+      <c r="O2" s="140" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="138"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="145"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="146"/>
       <c r="H3" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -6450,13 +6450,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="140"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="141"/>
       <c r="P3" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q3" s="138"/>
+      <c r="Q3" s="139"/>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -57936,7 +57936,7 @@
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57972,7 +57972,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="116">
         <v>3</v>
@@ -58041,7 +58041,7 @@
         <v>667</v>
       </c>
       <c r="B12" s="116">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C12" s="116">
         <v>87</v>
@@ -58054,14 +58054,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Hoja3" filterMode="1">
+  <sheetPr codeName="Hoja3">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58088,351 +58088,351 @@
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="148" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="154" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="172" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="194" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185">
+      <c r="B8" s="195"/>
+      <c r="C8" s="196">
         <f ca="1">TODAY()</f>
-        <v>43481</v>
-      </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
+        <v>43486</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="199" t="s">
         <v>649</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="149" t="s">
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="199" t="s">
         <v>491</v>
       </c>
-      <c r="F9" s="150"/>
+      <c r="F9" s="200"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201" t="s">
+      <c r="A10" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="203"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
       <c r="D10" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="195" t="s">
+      <c r="E10" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="196"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="166" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="179"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="91" t="s">
         <v>657</v>
       </c>
-      <c r="E11" s="197" t="s">
+      <c r="E11" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="198"/>
+      <c r="F11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="169" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="206"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E12" s="197" t="s">
+      <c r="E12" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="198"/>
+      <c r="F12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="E13" s="197" t="s">
+      <c r="E13" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="198"/>
+      <c r="F13" s="160"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="188" t="s">
         <v>648</v>
       </c>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="92" t="s">
         <v>656</v>
       </c>
-      <c r="E14" s="199" t="s">
+      <c r="E14" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="200"/>
+      <c r="F14" s="162"/>
     </row>
     <row r="15" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="179"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="197" t="s">
+      <c r="E15" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="198"/>
+      <c r="F15" s="160"/>
       <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="166" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="179"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="91">
         <v>2028</v>
       </c>
-      <c r="E16" s="197" t="s">
+      <c r="E16" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="198"/>
+      <c r="F16" s="160"/>
       <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="191" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="93">
         <v>1690</v>
       </c>
-      <c r="E17" s="193" t="s">
+      <c r="E17" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="194"/>
+      <c r="F17" s="156"/>
       <c r="J17" s="118"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="180" t="s">
         <v>652</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
       <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="202" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="170" t="s">
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="171"/>
+      <c r="F19" s="185"/>
       <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="181" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="172">
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="186">
         <v>47</v>
       </c>
-      <c r="F20" s="173"/>
+      <c r="F20" s="187"/>
       <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="161">
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="176">
         <v>725</v>
       </c>
-      <c r="F21" s="162"/>
+      <c r="F21" s="177"/>
       <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="181" t="s">
         <v>654</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="161">
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="176">
         <v>4</v>
       </c>
-      <c r="F22" s="162"/>
+      <c r="F22" s="177"/>
       <c r="J22" s="118"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="161">
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="176">
         <v>30</v>
       </c>
-      <c r="F23" s="162"/>
+      <c r="F23" s="177"/>
       <c r="J23" s="118"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="161">
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="176">
         <v>883</v>
       </c>
-      <c r="F24" s="162"/>
+      <c r="F24" s="177"/>
       <c r="J24" s="118"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="181" t="s">
         <v>655</v>
       </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="161">
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="176">
         <v>1285</v>
       </c>
-      <c r="F25" s="162"/>
+      <c r="F25" s="177"/>
       <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="161">
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="176">
         <v>1048</v>
       </c>
-      <c r="F26" s="162"/>
+      <c r="F26" s="177"/>
       <c r="J26" s="118"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="161">
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="176">
         <v>28</v>
       </c>
-      <c r="F27" s="162"/>
+      <c r="F27" s="177"/>
       <c r="J27" s="118"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="167">
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="178">
         <v>4050</v>
       </c>
-      <c r="F28" s="168"/>
+      <c r="F28" s="179"/>
       <c r="J28" s="118"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
       <c r="J29" s="118"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -58467,7 +58467,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>1</v>
       </c>
@@ -58606,7 +58606,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>6</v>
       </c>
@@ -58635,7 +58635,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>7</v>
       </c>
@@ -58662,7 +58662,7 @@
       </c>
       <c r="J37" s="120"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>8</v>
       </c>
@@ -58801,7 +58801,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>13</v>
       </c>
@@ -58827,7 +58827,7 @@
       </c>
       <c r="J43" s="120"/>
     </row>
-    <row r="44" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>14</v>
       </c>
@@ -58882,7 +58882,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>16</v>
       </c>
@@ -58909,7 +58909,7 @@
       </c>
       <c r="J46" s="120"/>
     </row>
-    <row r="47" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>17</v>
       </c>
@@ -58936,7 +58936,7 @@
       </c>
       <c r="J47" s="120"/>
     </row>
-    <row r="48" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>18</v>
       </c>
@@ -58963,7 +58963,7 @@
       </c>
       <c r="J48" s="120"/>
     </row>
-    <row r="49" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>19</v>
       </c>
@@ -58990,7 +58990,7 @@
       </c>
       <c r="J49" s="120"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>20</v>
       </c>
@@ -59017,7 +59017,7 @@
       </c>
       <c r="J50" s="120"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>21</v>
       </c>
@@ -59072,7 +59072,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>23</v>
       </c>
@@ -59096,7 +59096,7 @@
       <c r="I53" s="125"/>
       <c r="J53" s="120"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>24</v>
       </c>
@@ -59151,7 +59151,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>26</v>
       </c>
@@ -59179,7 +59179,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="45">
         <v>27</v>
       </c>
@@ -59231,7 +59231,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>29</v>
       </c>
@@ -59255,7 +59255,7 @@
       <c r="I59" s="125"/>
       <c r="J59" s="120"/>
     </row>
-    <row r="60" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>30</v>
       </c>
@@ -59366,7 +59366,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>34</v>
       </c>
@@ -59393,7 +59393,7 @@
       </c>
       <c r="J64" s="120"/>
     </row>
-    <row r="65" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>35</v>
       </c>
@@ -59420,7 +59420,7 @@
       </c>
       <c r="J65" s="120"/>
     </row>
-    <row r="66" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>36</v>
       </c>
@@ -59446,7 +59446,7 @@
       <c r="I66" s="125"/>
       <c r="J66" s="120"/>
     </row>
-    <row r="67" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>37</v>
       </c>
@@ -59498,7 +59498,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>39</v>
       </c>
@@ -59525,7 +59525,7 @@
       </c>
       <c r="J69" s="120"/>
     </row>
-    <row r="70" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>40</v>
       </c>
@@ -59551,7 +59551,7 @@
       <c r="I70" s="125"/>
       <c r="J70" s="120"/>
     </row>
-    <row r="71" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>41</v>
       </c>
@@ -59606,7 +59606,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>43</v>
       </c>
@@ -59633,7 +59633,7 @@
       </c>
       <c r="J73" s="120"/>
     </row>
-    <row r="74" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>44</v>
       </c>
@@ -59660,7 +59660,7 @@
       </c>
       <c r="J74" s="120"/>
     </row>
-    <row r="75" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>45</v>
       </c>
@@ -59687,7 +59687,7 @@
       </c>
       <c r="J75" s="120"/>
     </row>
-    <row r="76" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>46</v>
       </c>
@@ -59714,7 +59714,7 @@
       </c>
       <c r="J76" s="120"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="45">
         <v>47</v>
       </c>
@@ -59741,7 +59741,7 @@
       </c>
       <c r="J77" s="120"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>48</v>
       </c>
@@ -59796,7 +59796,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>50</v>
       </c>
@@ -59823,7 +59823,7 @@
       </c>
       <c r="J80" s="120"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>51</v>
       </c>
@@ -59850,7 +59850,7 @@
       </c>
       <c r="J81" s="120"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>52</v>
       </c>
@@ -59877,7 +59877,7 @@
       </c>
       <c r="J82" s="120"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>53</v>
       </c>
@@ -59904,7 +59904,7 @@
       </c>
       <c r="J83" s="120"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>54</v>
       </c>
@@ -59931,7 +59931,7 @@
       </c>
       <c r="J84" s="120"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>55</v>
       </c>
@@ -59958,7 +59958,7 @@
       </c>
       <c r="J85" s="120"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>56</v>
       </c>
@@ -59985,7 +59985,7 @@
       </c>
       <c r="J86" s="120"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="45">
         <v>57</v>
       </c>
@@ -60012,7 +60012,7 @@
       </c>
       <c r="J87" s="120"/>
     </row>
-    <row r="88" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="45">
         <v>58</v>
       </c>
@@ -60039,7 +60039,7 @@
       </c>
       <c r="J88" s="120"/>
     </row>
-    <row r="89" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="45">
         <v>59</v>
       </c>
@@ -60066,7 +60066,7 @@
       </c>
       <c r="J89" s="120"/>
     </row>
-    <row r="90" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
         <v>60</v>
       </c>
@@ -60093,7 +60093,7 @@
       </c>
       <c r="J90" s="120"/>
     </row>
-    <row r="91" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="45">
         <v>61</v>
       </c>
@@ -60148,7 +60148,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="45">
         <v>63</v>
       </c>
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J93" s="120"/>
     </row>
-    <row r="94" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
         <v>64</v>
       </c>
@@ -60230,7 +60230,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>66</v>
       </c>
@@ -60257,7 +60257,7 @@
       </c>
       <c r="J96" s="120"/>
     </row>
-    <row r="97" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>67</v>
       </c>
@@ -60312,7 +60312,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="45">
         <v>69</v>
       </c>
@@ -60339,7 +60339,7 @@
       </c>
       <c r="J99" s="120"/>
     </row>
-    <row r="100" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>70</v>
       </c>
@@ -60366,7 +60366,7 @@
       </c>
       <c r="J100" s="120"/>
     </row>
-    <row r="101" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="45">
         <v>71</v>
       </c>
@@ -60393,7 +60393,7 @@
       </c>
       <c r="J101" s="120"/>
     </row>
-    <row r="102" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
         <v>72</v>
       </c>
@@ -60420,7 +60420,7 @@
       </c>
       <c r="J102" s="120"/>
     </row>
-    <row r="103" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="45">
         <v>73</v>
       </c>
@@ -60503,7 +60503,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
         <v>76</v>
       </c>
@@ -60617,7 +60617,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="45">
         <v>80</v>
       </c>
@@ -60671,7 +60671,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="45">
         <v>82</v>
       </c>
@@ -60726,7 +60726,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="45">
         <v>84</v>
       </c>
@@ -60778,7 +60778,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="45">
         <v>86</v>
       </c>
@@ -60802,7 +60802,7 @@
       <c r="I116" s="125"/>
       <c r="J116" s="120"/>
     </row>
-    <row r="117" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>87</v>
       </c>
@@ -60826,7 +60826,7 @@
       <c r="I117" s="125"/>
       <c r="J117" s="121"/>
     </row>
-    <row r="118" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
         <v>88</v>
       </c>
@@ -60906,7 +60906,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="45">
         <v>91</v>
       </c>
@@ -60935,7 +60935,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="45">
         <v>92</v>
       </c>
@@ -60962,7 +60962,7 @@
       </c>
       <c r="J122" s="120"/>
     </row>
-    <row r="123" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="45">
         <v>93</v>
       </c>
@@ -60989,7 +60989,7 @@
       </c>
       <c r="J123" s="120"/>
     </row>
-    <row r="124" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="45">
         <v>94</v>
       </c>
@@ -61013,7 +61013,7 @@
       <c r="I124" s="125"/>
       <c r="J124" s="120"/>
     </row>
-    <row r="125" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="45">
         <v>95</v>
       </c>
@@ -61071,7 +61071,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>97</v>
       </c>
@@ -61097,7 +61097,7 @@
       <c r="I127" s="125"/>
       <c r="J127" s="120"/>
     </row>
-    <row r="128" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="45">
         <v>98</v>
       </c>
@@ -61124,7 +61124,7 @@
       </c>
       <c r="J128" s="120"/>
     </row>
-    <row r="129" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="45">
         <v>99</v>
       </c>
@@ -61151,7 +61151,7 @@
       </c>
       <c r="J129" s="120"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
         <v>100</v>
       </c>
@@ -61175,7 +61175,7 @@
       <c r="I130" s="125"/>
       <c r="J130" s="120"/>
     </row>
-    <row r="131" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="45">
         <v>101</v>
       </c>
@@ -61338,7 +61338,7 @@
       </c>
       <c r="H136" s="133"/>
       <c r="I136" s="134"/>
-      <c r="J136" s="207" t="s">
+      <c r="J136" s="136" t="s">
         <v>685</v>
       </c>
     </row>
@@ -61401,7 +61401,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="45">
         <v>109</v>
       </c>
@@ -61428,7 +61428,7 @@
       </c>
       <c r="J139" s="120"/>
     </row>
-    <row r="140" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <v>110</v>
       </c>
@@ -61455,7 +61455,7 @@
       </c>
       <c r="J140" s="120"/>
     </row>
-    <row r="141" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="45">
         <v>111</v>
       </c>
@@ -61482,7 +61482,7 @@
       </c>
       <c r="J141" s="120"/>
     </row>
-    <row r="142" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
         <v>112</v>
       </c>
@@ -61565,7 +61565,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="45">
         <v>115</v>
       </c>
@@ -61676,7 +61676,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="45">
         <v>119</v>
       </c>
@@ -61759,7 +61759,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="45">
         <v>122</v>
       </c>
@@ -61839,7 +61839,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="45">
         <v>125</v>
       </c>
@@ -61866,7 +61866,7 @@
       </c>
       <c r="J155" s="122"/>
     </row>
-    <row r="156" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="45">
         <v>126</v>
       </c>
@@ -62008,7 +62008,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="45">
         <v>131</v>
       </c>
@@ -62121,7 +62121,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="45">
         <v>135</v>
       </c>
@@ -62148,7 +62148,7 @@
       </c>
       <c r="J165" s="120"/>
     </row>
-    <row r="166" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
         <v>136</v>
       </c>
@@ -62175,7 +62175,7 @@
       </c>
       <c r="J166" s="120"/>
     </row>
-    <row r="167" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="45">
         <v>137</v>
       </c>
@@ -62258,7 +62258,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="45">
         <v>140</v>
       </c>
@@ -62347,7 +62347,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="45">
         <v>143</v>
       </c>
@@ -62458,7 +62458,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="45">
         <v>147</v>
       </c>
@@ -62485,7 +62485,7 @@
       </c>
       <c r="J177" s="120"/>
     </row>
-    <row r="178" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="45">
         <v>148</v>
       </c>
@@ -62509,7 +62509,7 @@
       <c r="I178" s="125"/>
       <c r="J178" s="120"/>
     </row>
-    <row r="179" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="45">
         <v>149</v>
       </c>
@@ -62620,7 +62620,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="45">
         <v>153</v>
       </c>
@@ -62675,7 +62675,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="45">
         <v>155</v>
       </c>
@@ -62702,7 +62702,7 @@
       </c>
       <c r="J185" s="120"/>
     </row>
-    <row r="186" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="45">
         <v>156</v>
       </c>
@@ -62726,7 +62726,7 @@
       <c r="I186" s="125"/>
       <c r="J186" s="120"/>
     </row>
-    <row r="187" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="45">
         <v>157</v>
       </c>
@@ -63061,7 +63061,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="45">
         <v>169</v>
       </c>
@@ -63088,7 +63088,7 @@
       </c>
       <c r="J199" s="120"/>
     </row>
-    <row r="200" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="45">
         <v>170</v>
       </c>
@@ -63115,7 +63115,7 @@
       </c>
       <c r="J200" s="120"/>
     </row>
-    <row r="201" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="45">
         <v>171</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="45">
         <v>174</v>
       </c>
@@ -63229,7 +63229,7 @@
       </c>
       <c r="J204" s="120"/>
     </row>
-    <row r="205" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="45">
         <v>175</v>
       </c>
@@ -63287,7 +63287,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="45">
         <v>177</v>
       </c>
@@ -63403,7 +63403,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>181</v>
       </c>
@@ -63430,7 +63430,7 @@
       </c>
       <c r="J211" s="120"/>
     </row>
-    <row r="212" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="45">
         <v>182</v>
       </c>
@@ -63488,7 +63488,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="45">
         <v>184</v>
       </c>
@@ -63546,7 +63546,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="45">
         <v>186</v>
       </c>
@@ -63604,7 +63604,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="45">
         <v>188</v>
       </c>
@@ -63690,7 +63690,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="45">
         <v>191</v>
       </c>
@@ -63778,7 +63778,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="45">
         <v>194</v>
       </c>
@@ -63805,7 +63805,7 @@
       </c>
       <c r="J224" s="120"/>
     </row>
-    <row r="225" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="45">
         <v>195</v>
       </c>
@@ -63922,7 +63922,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="45">
         <v>199</v>
       </c>
@@ -63949,7 +63949,7 @@
       </c>
       <c r="J229" s="122"/>
     </row>
-    <row r="230" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="45">
         <v>200</v>
       </c>
@@ -63976,7 +63976,7 @@
       </c>
       <c r="J230" s="122"/>
     </row>
-    <row r="231" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="45">
         <v>201</v>
       </c>
@@ -64031,7 +64031,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="45">
         <v>203</v>
       </c>
@@ -64058,7 +64058,7 @@
       </c>
       <c r="J233" s="120"/>
     </row>
-    <row r="234" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="45">
         <v>204</v>
       </c>
@@ -64113,7 +64113,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="45">
         <v>206</v>
       </c>
@@ -64202,7 +64202,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="45">
         <v>209</v>
       </c>
@@ -64229,7 +64229,7 @@
       </c>
       <c r="J239" s="120"/>
     </row>
-    <row r="240" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="45">
         <v>210</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="45">
         <v>215</v>
       </c>
@@ -64429,7 +64429,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="45">
         <v>217</v>
       </c>
@@ -64484,7 +64484,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="45">
         <v>219</v>
       </c>
@@ -64511,7 +64511,7 @@
       </c>
       <c r="J249" s="120"/>
     </row>
-    <row r="250" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="45">
         <v>220</v>
       </c>
@@ -64538,7 +64538,7 @@
       </c>
       <c r="J250" s="120"/>
     </row>
-    <row r="251" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="45">
         <v>221</v>
       </c>
@@ -64565,7 +64565,7 @@
       </c>
       <c r="J251" s="120"/>
     </row>
-    <row r="252" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="45">
         <v>222</v>
       </c>
@@ -64648,7 +64648,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="45">
         <v>225</v>
       </c>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="J255" s="120"/>
     </row>
-    <row r="256" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="45">
         <v>226</v>
       </c>
@@ -64758,7 +64758,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="45">
         <v>229</v>
       </c>
@@ -64785,7 +64785,7 @@
       </c>
       <c r="J259" s="120"/>
     </row>
-    <row r="260" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="45">
         <v>230</v>
       </c>
@@ -65008,7 +65008,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="45">
         <v>238</v>
       </c>
@@ -65063,7 +65063,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="45">
         <v>240</v>
       </c>
@@ -65090,7 +65090,7 @@
       </c>
       <c r="J270" s="120"/>
     </row>
-    <row r="271" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="45">
         <v>241</v>
       </c>
@@ -65117,7 +65117,7 @@
       </c>
       <c r="J271" s="124"/>
     </row>
-    <row r="272" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="128"/>
       <c r="B272" s="129"/>
       <c r="C272" s="130"/>
@@ -65129,7 +65129,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="128"/>
       <c r="B273" s="129"/>
       <c r="C273" s="130"/>
@@ -65159,7 +65159,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G275" s="110" t="s">
         <v>665</v>
       </c>
@@ -65202,39 +65202,44 @@
     <protectedRange sqref="F9 F29" name="Rango1"/>
     <protectedRange sqref="D15:D17" name="Rango1_1"/>
   </protectedRanges>
-  <autoFilter ref="A30:J275" xr:uid="{CCEF9E83-E4E8-4F65-BC9C-F9A849D792B7}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-        <filter val="10"/>
-        <filter val="14"/>
-        <filter val="16"/>
-        <filter val="17"/>
-        <filter val="2"/>
-        <filter val="2103"/>
-        <filter val="231"/>
-        <filter val="24"/>
-        <filter val="280"/>
-        <filter val="3"/>
-        <filter val="32"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="50"/>
-        <filter val="560"/>
-        <filter val="6"/>
-        <filter val="77"/>
-        <filter val="8"/>
-        <filter val="82"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A30:J275" xr:uid="{CCEF9E83-E4E8-4F65-BC9C-F9A849D792B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:F271">
     <sortCondition ref="B43:B271"/>
     <sortCondition ref="C43:C271"/>
     <sortCondition ref="D43:D271"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -65251,37 +65256,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="J111">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="pendiente">
